--- a/output/Total_time_range_data/四川省/自贡市_学习考察.xlsx
+++ b/output/Total_time_range_data/四川省/自贡市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F185"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,5918 +436,6475 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>228</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>射洪市妇幼保健院院长唐明一行来我县考察学习</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-07-05</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.fsxzf.gov.cn/gzdt/-/articles/17993825.shtml</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['请检查所有网线是否都已连好，然后重新启动您可能正在使用的任何路由器、调制解调器或其他网络设备。', '请检查您的代理服务器设置或与网络管理员联系，以确保代理服务器正常运行。如果您认为自己不需要使用代理服务器，请执行以下操作： 依次转到 Chrome 菜单 &gt;“设置”&gt;“显示高级设置…”&gt;“更改代理服务器设置…”&gt;“LAN 设置”，然后取消选中“为 LAN 使用代理服务器”。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>228</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>广元市昭化区政协来荣考察学习公共文化事业发展工作</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-08-17</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/-rxwglyj/-ggwhfw/-/articles/15925245.shtml</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['广元市昭化区政协来荣考察学习 公共文化事业发展工作 - 公共文化服务 - 荣县文化广播电视和旅游局', '7月6日，广元市昭化区政协副主席刘红兰一行来荣考察学习公共文化事业发展工作。荣县政协副主席钟永平，荣县政协文化文史学习委主任李晓明等陪同调研，荣县文化广播电视和旅游局有关领导参加陪同。 考察组一行走访了玉章景区、农民漫画馆等多个荣县示范性文化阵地，现场听取了各相关负责人站点文化工作开展情况的汇报，对我县文化事业开展的经验做法和"十四五"文旅规划予以充分的肯定。 刘红兰副主席表示今后将继续加强与我县的现代公共文化服务体系建设特别是示范乡镇创建、县图书馆、县美术馆总分馆制改革、全面推进智慧博物馆建设的沟通和交流，携手推进文旅融合示范项目，激发基层自主创新活力，让荣县文化事业的好点子、好经验、好做法在昭化落地生根。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>228</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>自贡市党政代表团赴成都东部新区考察学习成都东部新区与自贡市高新区签署合作协议</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-10-14</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sjjhxxhw/dep_gzdt/-/articles/16374069.shtml</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['自贡市党政代表团赴成都东部新区考察学习 成都东部新区与自贡市高新区签署合作协议 - 工作动态 - 自贡市政府网站集约化平台', '在党的二十大即将召开的重要节点，全省上下决战四季度、大干一百天的关键时刻，10月13日，自贡市党政代表团赴成都东部新区考察学习，深入贯彻党中央、国务院关于推动成渝地区双城经济圈建设重大战略决策，坚定落实省委“建强都市圈、做强增长极”部署要求，聚力抓好重点领域高水平合作，开启协作共兴崭新篇章，共同为推动新时代治蜀兴川迈上新台阶作出更大贡献。成都市委副书记谢瑞武，成都市委常委、成都东部新区党工委书记张瑛，自贡市委书记何礼，市委副书记、市长曾洪扬，市人大常委会主任谭豹、市政协主席王猛、市委副书记徐其斌参加有关活动。 考察期间，自贡市党政代表团先后前往成都天府国际赛道、简州新城龙马湖公园和先进制造业集聚区、天府国际空港综合保税区、成都未来医学城、西部金融创新中心、东壹美术馆、知也图书馆、未来城市体验中心等地，深入考察学习成都东部新区在城市规划建设、产业发展、对外开放、人才培育、科技创新、生态治理等方面的有益经验和创新做法。成都东部新区与自贡市高新区共同签署合作协议。 张瑛在致辞中代表成都市委、市政府，东部新区党工委、管委会向自贡市党政代表团的到来表示诚挚欢迎，向大家对东部新区的关心和支持表示衷心感谢。他说，近年来，在省委、省政府的坚强领导下，自贡抢抓成渝地区双城经济圈建设重大历史机遇，深入贯彻落实省委“一干多支、五区协同”发展战略，充分发挥经济圈南部中心城市引领带动作用，经济发展日新月异、产业集群加速崛起，展现了勇立潮头、担当实干的城市品格与胸襟气度。特别是自贡高新区在30年来的三次创业中，坚持不懈走出了一条老工业城市转型升级之路，为成都东部新区的建设发展提供了宝贵的经验，树立了优秀的榜样。成都东部新区作为开拓者，承载着开辟成都产业新空间的时代期冀。两地在服务城市长远发展、落实区域协同战略方面，使命相同、目标一致。希望两地以签约仪式为新起点，携手并进，激发产业发展新动能，构筑协同创新共同体，释放区域合作强效应，推动产业链与创新链深度融合，实现优质资源要素与两地发展同频共振，努力推动双方经济互通、发展互动。 何礼代表自贡市委、市政府，向成都市委、市政府和成都东部新区党工委、管委会表示衷心感谢。他指出，两年多来，东部新区从“白纸画图”到“平地立城”，发展动力实现了由基础设施投资拉动向产业支撑带动的重大转变，城市面貌实现了由拓荒起步向新城崛起的重大转变，彰显了服务国家大局和四川全局的大担当，高起点谋划的大手笔，高标准建设的大气魄以及干部挑灯夜战、敢冲敢闯的大干劲，值得我们认真学习。当前，自贡正抢抓成渝地区双城经济圈建设重大历史机遇，坚定不移实施“工业强市”战略，着力打造新型化工、新能源、无人机及通航三大千亿级产业集群。推动老工业城市高质量跨越发展，我们迫切需要与东部新区加强合作。希望两地以此次签约为契机，以产业协同为引领，在共推产业发展、共促科技创新、共享公共服务、共建合作机制等领域形成共识，达成战略合作，建强都市圈做强增长极；在服务国家战略中深化合作，构建常态化合作机制，通过两地优势互补、资源共享、互利共赢，携手取得更大突破、实现更大作为。 自贡市、成都东部新区有关领导，自贡市各区县、高新区管委会以及有关部门主要负责同志参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>228</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>考察学习同进步交流互鉴共提升遂宁市城市管理行政执法局考察组到我市考察交流城市管理及全国文明城市创建工作</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-07-14</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/scxglzfj/dep_gzdt/-/articles/15686825.shtml</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['考察学习同进步 交流互鉴共提升 ——遂宁市城市管理行政执法局考察组到我市考察交流城市管理及全国文明城市创建工作 - 工作动态 - 自贡市政府网站集约化平台', '考察学习同进步 交流互鉴共提升 ——遂宁市城市管理行政执法局考察组到我市考察交流城市管理及全国文明城市创建工作', '7月12日，遂宁市城市管理行政执法局党组书记、局长赵全江一行15人专程到我市考察交流城市管理及全国文明城市创建工作。市城市管理行政执法局党组书记、局长胡小波陪同考察并主持座谈会，市局有关分管领导、科室负责人、各区县综合执法局分管领导、市数字城管中心负责人参加相关活动。 赵全江一行围绕自贡市全国文明城市创建环境卫生秩序保障、基层执法在摊区管理和占道经营方面的做法、农贸市场及周边秩序整治、市本级执法监察支队执法办案情况等工作先后实地考察了高新区华商商贸城、梨园农贸市场、东盐都大道、高新区丹桂中队等地。在座谈会上，赵全江听取了相关情况介绍后，对自贡市城市管理及全国文明城市创建工作给予了高度评价，赞扬自贡市市容秩序干净整洁，城市公共空间规范有序，城市管理已逐步实现科学化、精细化、规范化，在全国文明城市创建环境卫生秩序保障中积累了不少成功经验，值得学习借鉴。 胡小波对遂宁市赵全江一行来自贡市考察交流表示热烈欢迎。他指出，文明是一种习惯，自贡市城管执法系统坚持“人民城市人民管，管好城市为人民”的原则，坚持“721工作法”，变被动管理为主动服务，变末端执法为源头治理，逐步实现城市公治公管、共建共享。他强调，本次遂宁市赵全江一行来市考察是一次难得的互帮互学、共同促进的良机，在共同学习中收获大、体会深，既开拓了思路，又启发了思维，在交流互鉴中深深的感悟到遂宁市城市管理队伍的人民情怀和使命担当，更是从中看到了专业水平、专业精神和专业视野，今后双方要建立长久的友好联系，共同学习，共同进步，共同提升，推动城市管理及全国文明城市创建工作再上台阶，再创佳绩。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>228</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>自贡市组团赴重庆永川考察学习治水经验</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-07-29</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/shbj/-15/-/articles/15828979.shtml</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['自贡市组团赴重庆永川考察学习“治水经验” - 市级动态 - 自贡市政府网站集约化平台', '为加强成渝地区双城经济圈生态环境保护交流合作，学习农村水污染防治工作经验，受市领导委托，7月29日，市生态环境局局长昝学军率队前往重庆市永川区考察学习治水经验。 永川区地处丘陵地区，农业面源污染突出，河道生态流量严重不足，河水流速慢，自净能力差，水质长期不达标。永川区高度重视水污染防治工作，结合大陆溪流域实际情况，提出“外源截污、内源削减、生态修复、清水补给、产业调整”治理思路，全面实施生态修复、面源污染整治、农村人居环境整治等八大专项整治行动，取得了可喜成效。在大陆溪湾凼断面，考察组一行实地查看河道水质，认真听取大陆溪流域（吉安段）综合治理情况介绍，详细询问治理工程细节和治理效果。大家表示，自贡的水环境现状与永川很相似，永川的经验值得学习借鉴，回去后将深度调研，结合实际情况，将本次学习考察所见所闻所学，吸收转化为我市的治水举措和治水行动，推动小流域水质稳步改善。 永川区生态环境局局长蒋洪林、副局长杨璐萤陪同，自贡市水务局、市农业农村局、市自然资源和规划局、各区县及高新区管委会分管同志参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>228</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>对标先进拓思路学习交流促提升自贡市机关事务管理局组织赴浙江三市考察学习</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-08-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/jgswglj/gzdt/-/articles/15808004.shtml</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['对标先进拓思路 学习交流促提升 ——自贡市机关事务管理局组织赴浙江三市考察学习 - 工作动态 - 自贡市政府网站集约化平台', '为进一步提升全市机关事务管理水平，7月17日至20日，自贡市机关事务管理局党组书记、局长俞秉兰带队赴浙江省台州市、舟山市、杭州市考察学习机关事务先进工作经验。局党组成员、副局长罗鸣，局资产房地产管理科、公共机构节能管理科负责人和各区县相关负责人参加考察学习。 考察学习组首站来到台州市，参观了城市大脑运营中心，实地考察了市行政大楼监控中心、生活服务区、“81890”机关事务服务平台、党建文化长廊等。重点就国有资产管理、公共机构节能管理、机关服务保障等方面进行了座谈交流。台州市机关事务管理局紧紧围绕党委政府中心工作，以建设“法治后勤、精诚服务”机关服务品牌为抓手突出党建引领，打造“一品四化”机关事务品牌，提升机关事务服务保障质量，推进机关事务高质量发展。 考察学习组第二站来到舟山市，实地考察了机关干部之家、主楼生活区、城市书房等。重点围绕国有资产管理、机关办公用房权属管理、公共机构节能管理以及机关事务数字化改革等方面进行了深入的交流。舟山市机关事务管理中心以“大美后勤 绿叶品质”党建品牌建设和“红色管家 后勤铁军”团队建设为两个抓手，以党建为统领，深入实施“一二三五十”行动计划，以数字化改革和绿色低碳引领为两个突破点，着眼履行职责管理提升、美化环境品质提升、后勤队伍建设提升、服务保障能力提升、推进“标准+法治”融合提升、后勤文化宣传品味提升“六大发力”赋能机关事务高质量发展。 考察学习组最后一站来到杭州市，实地考察了杭州市市民中心、机关事务综合平台，重点就机关事务集中统一管理及标准化、信息化建设情况等方面进行了座谈交流。杭州市机关事务管理局围绕“两个更好服务”目标，坚持政治统领、强化责任担当，加强机关事务集中统一管理、提升保障效能，推进标准化、数字化、法治化“三化”融合，坚持绿色发展理念，在公共机构节能管理、机关运行成本降低等方面持续发力，健全为民服务长效机制，不断提升机关事务现代化治理能力和水平，更好地为党政机关高效运转服好务。 考察学习中，全体成员一致认为，本次考察学习三市的新发展理念以及各具特色的机关事务工作亮点，让大家深受启发。纷纷表示，一定要学以致用，将先进的理念融入到以后工作的谋划中，对标先进、查找差距、明确方向、争创佳绩。 为有效转化学习成果，自贡市机关事务管理局党组于7月26日下午召开专题学习会，深入学习讨论浙江考察学习成果。党组成员、副局长罗鸣专题汇报了赴浙江三市考察学习机关事务管理工作情况，资产房地产管理科科长王皓泓作为学习考察组成员代表作考察学习感悟分享。 下一步，自贡市机关事务管理局将以习近平总书记关于机关事务工作的重要指示精神为遵循，认真学习和借鉴台州、舟山和杭州三市的先进经验，以党建工作为引领，坚持旗帜鲜明讲政治、聚精会神抓发展、用心用情惠民生、坚守底线保安全，锚定当前任务和全年目标奋力攻关，以实际行动和工作成效迎接党的二十大胜利召开。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>228</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>市机关事务管理局党组书记局长俞秉兰一行到重庆市渝北区考察学习机关事务工作</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-06-29</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/jgswglj/gzdt/-/articles/15592236.shtml</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['市机关事务管理局党组书记、局长俞秉兰 一行到重庆市渝北区考察学习机关事务工作 - 工作动态 - 自贡市政府网站集约化平台', '6月24日，市机关事务管理局党组书记、局长俞秉兰带队到重庆市渝北区考察学习新能源汽车分时租赁保障基层公务出行工作。重庆市渝北区机关事务服务中心党委委员、二级调研员王昌文，重庆长安汽车大客户业务部总经理余东伟等负责同志参加。 俞秉兰局长一行实地调研了洛碛镇人民政府新能源汽车分时租赁运行情况、重庆长安汽车股份有限公司新能源汽车制造发展情况，并参加了经验交流座谈会。两地紧紧围绕基层公务出行保障、新能源汽车推广应用、公务用车使用管理规范等问题进行了深入探讨。 俞秉兰局长指出，自贡市各级机关事务主管部门应积极向渝北区机关事务服务中心学习借鉴好的经验和做法，充分整合发挥好区域资源，主动服务成渝双城经济圈建设。一要抓好出行保障，围绕公务出行存在的难点、痛点，特别是基础公务出行保障的核心问题，要加强实践探索，结合实际有针对性的推广社会化服务保障方式。二要抓牢监督管理，服务和监管要同步抓，找准社会化服务保障中的薄弱点，在制度规划时提前谋划，深入应用“两化融合”成果，严防违规违纪行为发生。三要抓实绿色出行，深刻理解碳中和与碳达峰目标精神，在“电动四川”的总体部署下，稳步推进新能源公务用车替换和配套设施设备完善等工作，富顺县要加快落实新能源汽车分时租赁试点工作，确保四川省公务用车社会化保障现场会顺利举行。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>228</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>峨边彝族自治县信访局到富顺县信访局进行考察学习</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-06-30</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/szfxfj/dep_xwfb/-/articles/15597458.shtml</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['峨边彝族自治县信访局到富顺县信访局进行考察学习 - 区县之窗 - 自贡市政府网站集约化平台', '6月28日上午，峨边彝族自治县信访局局长干洛木叁一行到富顺县考察交流信访工作。干洛木叁局长一行通过实地参观、听取介绍、座谈交流等方式了解富顺县接访下访、信访“三率”、“治重化积”等方面工作的经验和做法，并就相关工作情况进行深入交流。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>228</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>自贡市司法局赴泸州市考察学习法治政府建设工作</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-06-27</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/zgssfj/dep_gzdt/-/articles/15567252.shtml</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['自贡市司法局赴泸州市考察学习法治政府建设工作 - 工作动态 - 自贡市政府网站集约化平台', '为进一步推动我市法治政府建设示范市创建活动提质增效，6月23日，市司法局党委委员、副局长余小焱带队前往泸州市考察学习法治政府建设工作。 考察组一行边走边看、边听、边问、边议，先后参观了泸州市司法局、泸州市公共法律服务中心、龙马潭区行政审批局、泸州市诚达公证处，就“0证明城市”、深化“放管服”改革、“一站式法律服务”等创新工作进行了实地考察学习。并围绕法治政府建设示范创建，与泸州市相关部门进行了深入座谈交流，查阅相关创建资料，观看示范创建宣传专题片。 余小焱表示，近年来，泸州市在法治政府建设示范创建工作中的做法和经验，得到各级的充分肯定，也引起了广泛关注，值得我们深入学习和研究，对如何抓好自贡法治政府建设示范创建工作具有重要指导意义。将把此次考察学习作为契机，进一步深化交流、互学互鉴，共同推进法治政府建设再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>228</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>副区长分局局长陈春率队赴深圳东莞考察学习</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-06-27</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.gj.gov.cn/gzdt/-/articles/15643031.shtml</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['为进一步提升警务信息化建设和派出所正规化建设等相关工作，借鉴先进单位发展经验，推动贡井公安工作再上新台阶，6月13至17日，副区长、公安分局局长陈春率分局副局长王富明、罗礼桃，政工室主任付莉娟及治安、网安、禁毒、警保、派出所等部门负责人一行前往深圳市公安局福田分局、东莞市公安局东城分局、华为公司、中电惠安公司考察学习派出所正规化建设、信息化建设、反诈、基层基础工作以及智慧公安、智慧社区等相关工作。深圳市公安局福田分局局长赖志光、东莞市公安局东城分局局长宋百春及相关负责人陪同。 期间，考察组一行先后实地查看了福田分局八卦岭派出所、分局反诈中心、情指中心，东城分局东城派出所及办案区等，详细了解了反诈工作、情报指挥体系、派出所正规化建设、信息化建设和大数据支撑下的治安防控体系建设工作情况，并就相关工作情况进行了现场探讨与交流。考察组还参观了华为、中电惠安公司，认真了解了智慧公安、智慧社区建设等相关情况。 考察结束后，陈春副区长代表考察组向福田分局、东城分局、华为公司、中电慧安表示感谢，对福田分局、东城分局在信息化运用、派出所正规化建设、反诈工作、情报指挥体系等方面取得的成效给予了高度赞扬，同时指出相关的经验做法对贡井分局今后进一步提升信息化建设、派出所规范化建设水平及相关工作具有积极的借鉴意义。福田分局、东城分局分别表示，今后将进一步加强联系和沟通，相互取长补短，共同推动公安工作取得新的更大的成效。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>228</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>遂宁市代表团莅市考察学习</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-04-04</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/scxzfbzj/dep_gzdt/-/articles/15456308.shtml</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['3月30日，遂宁市人民政府副秘书长胡建军率住建、财政、人才、房管、自规、国资等相关负责人到我市考察学习人才安居工程，考察学习团先后到金域华府、卢卡小城调研人才公寓的情况。市人民政府副秘书长江声全陪同考察。 座谈会上，江声全对自贡作简要介绍，并对莅市考察学习团表示欢迎。市住房城乡建设局总建筑周恒、市委组织部人才二科科长钟静、市城投集团公司党委副书记郑远德、市财政局总会计师刘成勋对人才公寓的政策制定、建设筹集、分配使用、管理运营等方面作了详细介绍。 考察学习团对我市人才公寓给予了充分肯定，对全市积极筹集高品质人才公寓，集会议、图书、健身、休闲、交流、党建于一体的人才之家给予了高度评价，表示将把很多好的经验做法带回去，促进遂宁人才安居工作再上新台阶。双方均表示，希望能够进一步加强沟通交流，相互学习借鉴，进一步推动两地加快转型升级，推动人才强市。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>228</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>广安市人大常委会副主任王建玲一行到我县考察学习民生实事项目票决制工作和家站点工作标准化建设情况</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-07-13</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.rongzhou.gov.cn/-21/-/articles/15674434.shtml</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['广安市人大常委会副主任王建玲一行到我县考察学习民生实事项目票决制工作和“家、站、点”工作标准化建设情况 - 民生实事 - 荣县人民政府', '广安市人大常委会副主任王建玲一行到我县考察学习民生实事项目票决制工作和“家、站、点”工作标准化建设情况', '7月11日，广安市人大常委会副主任王建玲一行到我县考察学习民生实事项目票决制工作和“家、站、点”工作标准化建设情况。市人大常委会副主任胡开洪，县人大常委会主任吴永红，县人大常委会副主任张伟红等参加。', '王建玲一行先后到高山镇正安新村、旭阳镇人大代表联络站、南街社区人大代表联络点和县人大代表之家等地，通过实地参观、交流，详细了解了我县民生实事项目票决制工作和“家、站、点”工作标准化建设情况。', '王建玲一行充分肯定我县在民生实事项目票决制工作和“家、站、点”工作标准化建设中亮点突出，特色鲜明，实效显著，积累了好方法、好经验。双方一致表示，要以此次考察学习为契机，要进一步加强交流沟通，互学互鉴，推动两地民生实事项目票决制工作和“家、站、点”工作标准化建设更上新的台阶。（宋红斌 曾川汇/图文）']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>228</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>泸州市江阳区宣传部莅临我县考察学习电子商务进农村综合示范项目</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-04-08</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.fsxzf.gov.cn/-76/-/articles/15104746.shtml</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['泸州市江阳区委宣传部莅临我县考察学习电子商务进农村综合示范项目 - 国家级电子商务进农村综合示范县项目 - 富顺县人民政府', '4月8日上午,泸州市江阳区委宣传部副部长高猛一行到富顺县电子商务公共服务中心学习交流国家级电子商务进农村综合示范县项目,县委宣传部机关党委书记肖体纲、县商务局副局长周宇等人陪同考察。 考察组一行在副局长周宇的带领下参观了富顺县洛源食品公司、富顺县电子商务公共服务中心，详细了解我县特色农产品生产和网络直销状况，随后在电商服务中心会议室参加了座谈会。 座谈会上县商务局副局长周宇对富顺县成立电子商务经济发展协会及我县电商产业发展情况做了介绍；江阳区委宣传部就江阳区目前电商发展情况作了交流发言并对我县电子商务的发展给予了高度评价。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>228</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>经济开发区管委会赴眉山市丹棱县考察学习</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-04-25</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.rongzhou.gov.cn/gzdt/-/articles/15189077.shtml</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['4月21日，县委常委、统战部部长胡爱华带队一行15人，赴眉山市丹棱县经开区管委会就招商引资、园区建设、工业发展等方面的经验做法进行了考察学习。经开区管委会、县科技经信局、县投资促进局的主要负责人及分管领导陪同考察学习。 图为考察参观威兰特果小酒发展历程 在眉山市丹棱县经开区考察期间，考察组一行先后参观学习了威兰特果小酒展示厅、中国晚熟柑橘商贸物流园区、丹齿精工新厂区、四川瑞迪佳源机械有限公司等。 图为参观威兰特果小酒成品展示厅 图为参观企业生产车间 最后在丹棱县经开区管委会办公室召开了交流座谈会，考察组成员就投融资、招商引资、园区建设、项目推进、工业发展、“标准地”等基本情况进行了介绍，详细询问了丹棱县经开区的好经验、好做法。双方还就进一步推进园区高质量发展进行了深入交流与探讨。 胡爱华同志强调：希望通过本次外出考察学习，大家对标先进找差距，进一步解放思想、创新理念、狠抓落实，以时不我待、只争朝夕的干劲，全力以赴助力荣县经开区高质量发展。同时也希望，双方要进一步加强交流、深化合作，优势互补、资源共享，协同发展、携手并进、共同谱写高质量发展新篇章，充分发挥开发区作为全县经济发展主战场的作用。', '最后在丹棱县经开区管委会办公室召开了交流座谈会，考察组成员就投融资、招商引资、园区建设、项目推进、工业发展、“标准地”等基本情况进行了介绍，详细询问了丹棱县经开区的好经验、好做法。双方还就进一步推进园区高质量发展进行了深入交流与探讨。', '胡爱华同志强调：希望通过本次外出考察学习，大家对标先进找差距，进一步解放思想、创新理念、狠抓落实，以时不我待、只争朝夕的干劲，全力以赴助力荣县经开区高质量发展。同时也希望，双方要进一步加强交流、深化合作，优势互补、资源共享，协同发展、携手并进、共同谱写高质量发展新篇章，充分发挥开发区作为全县经济发展主战场的作用。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>228</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>县委常委副县长肖晓刚率队赴都江堰市考察学习国资国企改革经验做法</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022-03-29</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.fsxzf.gov.cn/gzgq/-/articles/15049399.shtml</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['县委常委、副县长肖晓刚率队赴都江堰市考察学习国资国企改革经验做法 - 国资国企 - 富顺县人民政府', '2022年3月24日，县委常委、副县长肖晓刚率队赴都江堰市考察学习国资国企改革经验做法。都江堰市委副书记、市长张亚丹，市委常委、常务副市长周裕山，副市长冯静之会见了县考察组一行。 会谈中，张亚丹用一口浓重的富顺口音，如数家珍地念想富顺家乡的风土人情、人文历史和美食美景，对富顺的热爱、赞美和眷恋溢于言表。他说，富顺经济基础坚实、交通区位优越、城乡面貌变化较大、在外成功人士较多、家乡情结浓厚，发展潜力巨大，未来可期。他指出，都江堰针对长期以来存在的市属国企信用受损、资本市场预警升级、流动性短缺、经营管理差等发展困境，从2020年起全面启动新一轮国资国企改革，按照市场化改革思路进行集团化改造、市场化改革、多元化合作，筹建成立全新的“成都都江堰投资发展集团有限公司”（简称都投集团），通过对国企赋权赋能松绑解压、做实项目增大现金流、循环利用“四资”、多元化合作筹集资金等方式，形成“1家AA+、6家AA”主体信用体系架构，国企年融资能力达200亿元，国企市场化议价能力、运营能力、竞争能力等综合实力大幅提升。 肖晓刚代表富顺县委、县政府，感谢都江堰市委、市政府对此次考察学习给予的热情接待和周密安排，特别是感谢张亚丹市长抽出时间亲自会见并介绍都江堰新一轮国资国企改革发展的经验做法，以及对富顺家乡发展变化的关心关注和帮助支持。 随后，县考察组一行在都江堰副市长冯静之陪同下参观考察都投集团并进行座谈交流，观看了都投集团深化国企改革两周年工作视频，直观全面的了解都投集团改革发展进程；都投集团党委书记、董事长何劲松详细介绍了都投集团改革发展有关情况；都江堰市财源建设中心主任陈韵详细介绍了政府赋权赋能国企等有关情况；双方参会同志围绕“如何推动国有企业实体化市场化发展、开展主体信用AA及以上评级、国有资本优化重组、打造主营板块和培育特色产业、完善法人治理结构、畅通行政事业单位人员到企业交流培养和交叉选用等路径、建立差异化薪酬体系、厘清企业与政府和部门之间的关系、政府性代建项目市场化规则”等方面进行深入交流。 冯静之表示，资本市场政策挤压空间愈来愈窄，包装好实体化市场化项目争取金融机构授信是当前普遍做法，区县级国企要争取AA+主体信用评级，需要寻求主体信用评级AAA企业的入股加持，为国企资信评级增信，才能更好争取公司债和企业债发行。希望两市县多交流、相互学、共发展，彼此做强做优做大国有企业。 肖晓刚指出，都江堰市全方位、立体式、穿透式深化国资国企改革发展，组建总资产达千亿元级的“都投集团”，形成产投、建投、城投、工业、文旅 “五大平台”，实现“1家AA+、6家AA”主体信用体系架构，在国企整合、政策扶持、经营管理、国资监管、业绩评价和薪酬考核等方面改革力度之大，特别是在厘清政府与国企在项目结算、往来账务、政府购买服务等方面的市场关系，明确政府性投资项目资金来源、回购期限和代建费用管理结算办法等事项，让国企运行规避“只做事、不谈钱”的行政思维，建立以产业为主导的“投、融、建、管、营”市场化运行机制，推动实现国企财务、融资和经营可持续发展等先进理念和经验做法，值得富顺系统学习借鉴。 最后，肖晓刚表示，受县委、县政府两位主要领导的委托，期盼都江堰市的领导到富顺交流指导工作。希望两个市县有机会在更大范围、更宽领域、更深层次，彼此互动互惠、增强交流合作、共享共兴发展。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>228</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>自贡市发展和改革委员会赴巴中市考察学习以工代赈工作</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-03-25</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sfgw/-4/-/articles/15036817.shtml</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['自贡市发展和改革委员会赴巴中市考察学习以工代赈工作 - 重大项目动态 - 自贡市政府网站集约化平台', '为进一步抓好以工代赈工作，促进农村群众就业增收，盘活劳动力闲置资源，充分发挥以工代赈的赈济效益，3月15日—17日，市发展改革委二级调研员彭吉泽带领荣县、富顺县等项目区（县）发改以及乡镇分管领导、具体经办人和市以工代赈办组成的考察学习组前往巴中市考察学习。 考察学习组一行先后前往巴州区观摩了寺岭镇寺岭村2020年以工代赈示范工程项目、巴州区清江镇洛伽村推广以工代赈方式建设项目和通江县春在镇以工代赈项目现场。过程中，一行人与项目村、当地群众以及项目负责人进行了充分交流，仔细了解村民自建流程、建设方式、劳务组织、劳务培训、报酬发放、产生效益等群众利益关系密切的事项。每到一处，考察组人员都虚心请教、认真倾听，对照发现自身的不足和差距，积极吸收借鉴其优势经验，以便更好地推进我市以工代赈工作。 座谈交流时，巴中市发展和改革委员会副主任郎森详细介绍了巴中市的市情和全市以工代赈重点工作，表示希望与自贡市建立良好互动交流机制，为巴自两市以工代赈发展注入新的元素和活力。巴州区、通江县项目负责人介绍了在项目前期工作、项目建设、项目验收、移交管护、资金拨付及结算报账、结算审计、资料管理等方面的各种规范细节，采用村民自建方式实施以工代赈项目、组织村级劳务队参加务工、切实维护群众利益11条，加强加大以工代政策培训力度的具体情况。双方围绕目前以工代赈工作现状、各自的经验和做法等进行了深入的交流与探讨。 此次交流学习对于两市的以工代赈工作有着重要的促进作用，双方表示将加强交流、互相学习，聚焦维护群众利益，充分发挥好以工代赈工作改善农业农村发展环境、加深群众爱党之情、提高基层治理能力、提升群众内生动力、防止大规模返贫等方面的独特作用。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>228</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>自贡市党政代表团赴宜宾市考察学习两市签署融入成渝地区双城经济圈建设共建川南渝西融合发展试验区示范城市合作协议</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2022-03-02</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sjjhxxhw/-96/-/articles/14906343.shtml</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['自贡市党政代表团赴宜宾市考察学习 两市签署《融入成渝地区双城经济圈建设共建川南渝西融合发展试验区示范城市合作协议》 - 开放合作 - 自贡市政府网站集约化平台', '自贡市党政代表团赴宜宾市考察学习 两市签署《融入成渝地区双城经济圈建设共建川南渝西融合发展试验区示范城市合作协议》', '正值全省深入学习贯彻党的十九届六中全会和省委十一届十次全会精神之际，2月23日，自贡市党政代表团赴宜宾市考察学习，并举行自贡·宜宾深化合作座谈会，签署两地深化合作协议，以落实国省重大战略为纽带，打造区域发展共同体，共建川南渝西融合发展试验区示范城市，促进深层次高水平联动发展。宜宾市委书记刘中伯，自贡市委书记范波出席座谈会并讲话。宜宾市委副书记、市长方存好，市人大常委会主任陈政，市政协主席谢杰，市委副书记廖文彬；自贡市委副书记、市长曾洪扬，市人大常委会主任谭豹，市政协主席王猛，市委副书记徐其斌参加有关活动。 在宜宾期间，自贡市党政代表团先后前往三江新区东部产业园、四川时代动力电池一期项目、极米科技、国际会议中心等地，深入考察学习宜宾城市规划建设、产业培育、科技创新、营商环境等情况。大家对宜宾着力实施“双轮驱动”，推进新型城镇化建设、产教融合，实施交通大会战，高标准、高水平打造三江新区以及深化改革开放取得的成果钦佩不已，表示将认真学习借鉴宜宾的先进理念和经验做法，进一步增强责任感紧迫感危机感，以超常付出推动自贡超常跨越和高质量发展。 刘中伯代表宜宾市委、市政府和全市人民对自贡市党政代表团来宜考察表示热烈欢迎，向自贡长期以来对宜宾经济社会发展的支持帮助表示衷心感谢。刘中伯说，宜宾始终坚持以习近平新时代中国特色社会主义思想为指导，坚定贯彻习近平总书记对四川、对宜宾工作系列重要指示精神，按照省委、省政府决策部署，抢抓成渝地区双城经济圈建设和全省首个省级新区设立的重大机遇，不断补齐发展短板、增强发展后劲，经济社会发展实现新跨越，为加快建设社会主义现代化的国家区域中心城市奠定了坚实基础。自贡坚持以习近平新时代中国特色社会主义思想为指导，在省委、省政府的坚强领导下，充分发挥自身优势抓发展，着重抓了一批事关自贡全局、奠基自贡未来的大事，走出了一条转型发展的新路子，在对外开放、产业发展、城市建设、交通建设等方面的理念、经验、做法，值得宜宾认真学习借鉴。 刘中伯表示，自贡与宜宾同为川南经济区重要城市，人文相亲、山水相连、情感相融，合作前景十分广阔。在今后的发展中，宜宾将在省委、省政府的坚强领导下，深入贯彻川渝党政联席会第四次会议精神，落实省委“一干多支、五区协同”发展战略，进一步加强与自贡的沟通交流，不断建立健全机制，在产业发展、交通建设、开放平台、文化旅游等方面与自贡优势互补、深化合作，共同推动川南经济区一体化发展，共同助力川南渝西融合发展试验区建设，共同开创高质量跨越式发展新局面。 范波代表自贡市委、市政府向宜宾长期以来给予自贡经济社会发展的大力支持表示感谢，对宜宾经济社会发展取得的丰硕成果表示祝贺。他说，此次考察学习，我们感受到了宜宾强劲的发展势头、美好的发展前景，特别是在产业培育、科技创新、营商环境等方面形成的好经验、好做法，值得我们充分学习借鉴。近年来，宜宾坚持站位全局、注重战略谋划、保持战略定力，抢抓国家战略机遇，创新开拓、与时俱进、真抓实干，经济社会发展实现跨越提升，跑出了“宜宾速度”，创造了“宜宾密码”，展现了“宜宾风采”，成就喜人、令人钦佩。自贡抢抓成渝地区双城经济圈建设重大历史机遇，深入实施省委“一干多支”发展战略，明确了“聚力再造产业自贡，走出转型升级新路，加快建设新时代深化改革扩大开放示范城市”的奋斗目标，系统实施“1743”战略举措，全面推进“5553”城市创新行动，加快推动超常跨越和高质量发展，一批标志性引领性项目相继落地，转型升级迈出坚实步伐。 范波表示，宜宾和自贡地缘相连、人缘相亲、情缘相通，两地有着毗邻而居的兄弟情谊、弥足珍贵的红色基因、转型升级的一致追求和时代赋予的重大使命，必将推动宜宾和自贡在新的时代机遇下扩大合作、增进情谊。衷心希望双方立足各自比较优势，在共同落实国家战略中深化合作，构建常态化合作机制，着力以规划共谋为引领、以交通互联为基础、以产业协作为纽带、以开放发展为重点、以生态建设为本底、以文旅互融为抓手、以人才交流为支撑深入合作，通过两市优势互补、平台共建、成果共享，携手取得更大突破、实现更大作为，共同为推动新时代治蜀兴川迈上新台阶作出更大贡献。 随后，两地签署《融入成渝地区双城经济圈建设共建川南渝西融合发展试验区示范城市合作协议》。根据协议，两地将充分发挥比较优势并形成合力，推动经济、社会、文化等领域合作，促进两地设施互通、产业共兴、环境共治、资源共享，高水平打造协作联动、优势互补的区域发展共同体，合作共建川南渝西融合发展试验区示范城市。 宜宾市领导何永宏、关晶波，五粮液集团党委书记、董事长曾从钦；自贡市领导陈扬杰、肖冰东、韩明祝、黄雪智参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>228</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>周耘副市长率队赴乐山市考察学习文旅服务能力建设工作</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2022-03-09</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/swgxj/dep_gzdt/-/articles/14934750.shtml</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['周耘副市长率队赴乐山市考察学习文旅服务能力建设工作 - 工作动态 - 自贡市政府网站集约化平台', '3月4日，市政府副市长周耘率队赴乐山市考察，深入学习全域旅游、假日旅游保障、旅游综合服务能力建设等方面的经验做法情况进行调研。乐山市政府副市长宋秋 ，政府副秘书长梅小彬参加相关活动。 考察组一行实地参观了乐山市心连心服务中心、上中顺特色文化街区、乐山大佛景区，详细了解了乐山市旅游假日应急指挥、旅游服务能力建设、景区管理等方面的创新做法和成功经验。 在随后召开的座谈会上，周耘副市长一行听取了乐山市文化广电旅游局以及相关部门、景区管理委员会对全域旅游、假日旅游保障、旅游综合服务能力建设等情况的介绍，重点围绕假日旅游保障、景区管理运行机制等方面进行了深入交流。周耘副市长表示，乐山市文化底蕴深厚、旅游资源丰富，近年来乐山市坚持旅游兴市、产业强市发展思路，以“旅游主导”引领，不断增强服务承载力、优化服务质量，推动文化旅游业高质量发展，文旅经济发展走在全省前列，是我们学习的榜样。我们要认真学习借鉴乐山市在创新管理机制、建立高效便捷的旅游服务体系等方面的先进经验和做法，进一步落实“游客至上”理念，增强文旅服务保障能力，提升文旅服务质量，加快推进特色文旅名城建设。双方一致认为，要以此次考察交流为契机，进一步加强多领域的交流合作，共同促进两市经济发展和社会进步！ 市文化广电旅游局、市住房城乡建设局、市城管执法局、市交通运输局、市交警支队、大安区政府等相关负责同志参加考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>228</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>外出学习拓思路借鉴经验谋发展富兴交发集团赴仁寿公交考察学习</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2024-07-08</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.fsxzf.gov.cn/gzgq/-/articles/19798262.shtml</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['外出学习拓思路 借鉴经验谋发展--富兴交发集团赴仁寿公交考察学习 - 国资国企 - 富顺县人民政府', '三、汽车养护中心。“汽车维修养护中心”业务包括：精致洗车、汽车美容、汽车维修、贴膜改色、保险服务等，加快了产业的发展，取得实效。', '交流座谈会上，富兴交发集团与仁寿公交领导面对面，围绕公交行业发展趋势、面临的挑战与机遇等问题进行了深入探讨。考察组一行对城市运营、交通运输、交通工程建设等多方面进行探讨，并对仁寿公交“公交＋超市”、配送中心、绿色出行等方面的成功做法和经验展开深入交流。下一步，富兴交发集团将以此次考察为契机，认真学习借鉴仁寿公交好经验好做法，不断创新工作方式方法、扩大交流成果的运用，铆足劲，拼实干，以更加奋发有为的精神状态开创我县公交事业的新篇章，奋力为县域经济社会发展作出更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>228</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>互学共进共促发展荣县卫生健康局带队赴德阳市考察学习</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2024-07-08</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.rongzhou.gov.cn/gzdt/-/articles/19796262.shtml</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['互学共进 共促发展——荣县卫生健康局带队赴德阳市考察学习 - 工作动态 - 荣县人民政府', '为深入了解医共体建设的实际成效，推动荣县紧密型县域医共体建设和发展，借鉴先进单位的成功经验和做法，7月3日-4日，县卫健局组织医共体管理中心、县人民医院相关负责人到德阳市就紧密型医共体建设工作开展考察学习。 7月3日，考察团一行在德阳市罗江医院集团区人民医院，实地参观集团检验中心、医保服务站、医用耗材SPD运营服务中心等资源共享中心的建设情况，认真学习紧密型县域医共体实际运行模式。座谈会上，罗江区卫健局相关负责人就紧密型县域医共体体制机制、建立管理共同体、利益共同体、服务共同体、责任共同体的经验做法和“一院一特色”、总院长负责制、人才调配机制、医用耗材SPD运营服务管理等方面进行分享。双方就建设推进中遇到的问题和困难进行深入的交流和探讨。 7月4日，考察团一行前往德阳市人民医院参观考察，深入交流医院药品、医用物资、耗材管理统一采购统一配送及SPD项目运营情况。德阳市人民医院相关负责人介绍了医院的发展历史、临床业务、信息化建设成果以及SPD项目运营等情况。双方就项目实施的积极意义及运行中可能存在的问题进行了坦诚深入的交流。会后，考察组实地参观了德阳市人民医院SPD运营中心、药品中心库，耗材集散中心，了解了SPD运营模式及SPD耗材监控系统，参观了临床科室医用耗材计划、配送、存放更新、使用等流程。 “这两天的实地考察受益匪浅，学到了一些解决实际问题的办法，看到了实实在在的工作成效，扩展了做好医共体建设的总体思路。”考察团成员纷纷表示收获颇丰。 “下一步，我们会将参观学习到的好的经验和做法因地制宜地灵活运用到荣县紧密型县域医共体建设工作中，以群众健康需求为导向，加大优质资源下沉力度，减轻群众就医负担，为加快推进我县医共体建设打下坚实基础，进一步提升县域内医疗卫生服务能力、效率和活力，推动医共体的共同发展和繁荣，助力我县公立医院高质量发展，更好地服务荣县百姓。”荣县卫健局负责人表示。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>228</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>魏家鲜带队赴广东深圳等地开展警务工作考察学习</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2024-05-28</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.zggx.gov.cn/-184/-/articles/19653475.shtml</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['魏家鲜带队赴广东深圳等地开展警务工作考察学习 - 民生实事 - 自贡高新技术产业开发区管理委员会', '5月20日-24日，委领导魏家鲜带队赴福建晋江、厦门，广东深圳等地开展警务工作考察学习，重点围绕“打击防范电信诈骗犯罪”“智慧警务及大数据智能应用”“执法规范化建设”“情指行一体化”等课题实地观摩考察，为高新公安分局推进“深耕善治”、公安“大数据”建设和“双创”“双年”等工作提供参考。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>228</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>自贡市供销社党组书记理事会主任杨培斌率队到宜宾市考察学习</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2024-06-13</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sgxs/dep_gzdt/-/articles/19714824.shtml</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['自贡市供销社党组书记、理事会主任杨培斌率队到宜宾市考察学习 - 工作动态 - 自贡市政府网站集约化平台', '为进一步提升自贡市农产品区域性公共品牌“自然贡品”知名度和影响力，近日，自贡市供销社党组书记、理事会主任杨培斌率队到宜宾市考察学习，市供销社党组成员、理事会副主任吴正刚，市供销社党组成员、理事会副主任范雪莲，市供销社四级调研员赵大云，以及经济发展科、市自然贡品运营管理公司有关负责人参加。', '考察组一行先后前往“宜人宜礼”旗舰店、汇海科技集团公司，详细学习“宜人宜礼”品牌运营管理、对外营销、数字化平台建设等情况，宜宾市汇海科技集团公司党委书记、董事长、总经理冯先南向考察组一行详细介绍了“宜人宜礼”品牌建设相关情况。', '现场考察结束后，考察组在汇海科技集团公司与相关负责人召开交流座谈会，双方深入交流区域性公共品牌运营管理经验。杨培斌指出，此次到宜宾市“取经”不虚此行，汇海科技集团在“宜人宜礼”运营管理，特别是“海狸拾袋”购物平台打造走在了川南乃至全省前列，值得“自然贡品”借鉴学习。', '杨培斌表示，希望双方在品牌运营管理、自营商城开发方面进行深入合作，积极探索自贡“自然贡品”小程序商城与宜宾“海狸拾袋”购物平台互相入驻等合作。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>228</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>全力以赴引项目考察学习取新经</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2024-05-23</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/-fsdsz/-zdxm/-/articles/19635488.shtml</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['近日，兜山镇党委书记张文彬带领镇招商引资小分队与富顺县驻珠三角招商分局一道，赴广州、东莞、深圳等地开展招商引资活动。 考察期间，考察团先后前往红谷尚品集团有限公司、东莞市秦达五金机械有限公司、东莞屹源精密设备有限公司、广东卡帝家居科技有限公司等企业进行了实地考察，详细了解企业产业布局、生产经营、产品研发、技术创新和投资意向等情况。考察团在参观的同时也积极向企业介绍兜山镇的投资环境及优惠的政府投资政策。针对兜山镇产业发展、资源特色、服务优势以及下一步项目落户，考察团现场组织座谈会，进行了友好交流洽谈。 随后，考察团赴广州举办了兜山镇2024年(广州)招商引资推介会暨产业项目签约活动。 推介会上，与会人员集中观看了兜山镇招商宣传片。镇党委书记张文彬就招商政策、兜山概况、产业发展、招商需求等方面进行了现场推介，诚挚邀请企业家们到兜山观光考察，投资兴业，并分别与广东恺斯铭实业控股有限公司、中山市梦想家信息科技投资有限公司成功签订赵家村商混拌合站建设项目和天府村蚕桑产业园建设项目。据悉，两个项目计划总计投资额2亿元。 作为签约企业代表，广东恺斯铭实业控股有限公司项目经理文勇表示，“在考察了多个地方后，我们对富顺县兜山镇的专业优质服务印象非常深刻，党委、政府积极为企业纾难解困，给了我们很大的信心，最终决定在这片热土上投资兴业。” 下一步，兜山镇将积极对接以上企业，持续优化营商环境，加大项目精准对接力度，细化工作措施，全力推动签约项目早日落地、动工、建成、投产，以项目引领产业，推动全镇经济社会发展，助力富顺县在高质量发展的赛道上跑出“加速度”。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>228</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>紧密型县域医共体建设工作动态我县组织赴浙江省湖州市考察学习县域紧密型医共体建设</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2024-05-17</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.rongzhou.gov.cn/zdjsxf/-/articles/19612189.shtml</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['【紧密型县域医共体建设工作动态】我县组织赴浙江省湖州市考察学习县域紧密型医共体建设 - 重大建设项目 - 荣县人民政府', '【紧密型县域医共体建设工作动态】我县组织赴浙江省湖州市考察学习县域紧密型医共体建设', '为推动荣县县域紧密型医共体实质性运行，提升建设工作水平。5月10日—12日，由副县长虞芳带队，组织县委组织部、县委编办、县财政局、县人社局、县卫健局、县医保局、县人民医院及医共体管理中心等部门、单位负责人赴浙江省湖州市考察学习紧密型县域医共体建设工作。 学习考察组先后参观了湖州市德清县武康健康保健集团人民医院、长兴县龙山街道社区卫生院、齐北社区卫生服务站和长兴县人民医院，听取了德清县武康健康保健集团就医共体建设思路、创建历程、主要做法的情况介绍，全面了解了湖州市德清、长兴县两个县医共体建设的发展格局、管理模式、工作经验及取得成效，围绕基础设施、医保总额预算打包付费、信息化建设、人才引进自主招聘、分级诊疗、公共卫生服务、去行政化体制机制改革等医共体建设问题与当地专家进行深入的探讨和交流。 学习考察组认为，湖州市德清县、长兴县医共体建设有特色和亮点，管理规范、成效明显，形成一套可复制可借鉴的成功经验，对荣县的建设工作有较好的参考和借鉴意义。通过此次学习考察，开阔了视野，明晰了思路，必将推动我县医共体建设改革思维的创新上一个新的台阶。 下一步，我县将学习借鉴好湖州市医共体建设的先进经验和成功做法，进一步开拓思路、因地制宜，将学习成果转化为荣县医共体建设的强大动力。将理清思路，全面分析，找到符合自身实际的建设模式，实现医疗资源有效整合，提升基层服务能力，稳妥推进医共体建设。将强化落实，按照“基层首诊、双向转诊、急慢分治、上下联动”的原则，充分发挥县域内医疗资源龙头优势，有效带动镇、村两级医疗机构协同发展，提升县域医疗资源整合共享水平，为全县卫生健康事业高质量发展再绘新蓝图、再谱新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>228</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>紧密型县域医共体建设工作动态荣县组织前往米易县考察学习紧密型县域医共体建设</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2024-04-22</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.rongzhou.gov.cn/zdjsxf/-/articles/19495542.shtml</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['【紧密型县域医共体建设工作动态】荣县组织前往米易县考察学习紧密型县域医共体建设 - 重大建设项目 - 荣县人民政府', '4月10日—12日，由副县长虞芳带队组织县委组织部、县委编办、县人社局、县财政局、县卫生健康局、县医保局等相关部门负责人，前往攀枝花市米易县考察学习紧密型县域医共体建设工作。米易县人民政府副县长朱兴及相关县级部门负责人陪同。 学习组一行先后参观了米易县人民医院和白马镇中心卫生院，听取了米易县就紧密型县域医共体模式下的医疗服务流程、资源共享机制、信息化建设及患者就诊体验等方面的情况介绍，现场详细了解了米易县在医共体建设工作中的经验做法、面临挑战及工作成效，并就荣县在建设中遇到的困难和问题，同米易县专家进行了深入的座谈交流。 通过此次学习，找到了我县在紧密型县域医共体建设上的差距与短板，学习和借鉴了米易县的建设工作经验，开拓了工作思路与工作视野。下一步，我县将认真落实国家、省市医共体建设工作要求，创新改革机制，疏通改革堵点，大力推进医共体建设，力争尽快蹚出一条“患者得实惠、医者得锻炼、医院得发展、政府得口碑”的荣县紧密型县域医共体建设的“新路径”。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>228</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>大安区牛佛镇中心校等所学校赴泸州市龙马潭区玉带河学校考察学习</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2023-12-25</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sjyj/dep_qxxx/-/articles/18939447.shtml</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['大安区牛佛镇中心校等6所学校赴泸州市 龙马潭区玉带河学校考察学习 - 战线动态 - 自贡市政府网站集约化平台', '为加快推进义务教育优质均衡发展县创建各项工作，广纳优质学校特色办学理念。12月21日，由大安区牛佛镇中心校牵头组织大安区江姐小学校、马冲口小学校、大安小学校、凉高山小学校、广华山小学校领导干部40余人，赴泸州市龙马潭区玉带河学校考察学习。 在玉带河学校党总支书记王位敏的带领下大家一起参观了学校“一子一玉 一子一育”的“玉”文化校园、特色功能室、劳动基地、风雨操场，参观学习的过程中王书记重点向大家介绍了学校的办学理念、思路以及目标，并就管弦、校园电视台等社团做了详细地解说，座谈中双方就义务教育优质均衡发展创建工作进行了交流，并分享了迎检资料。 此次活动，有针对性地选择学校，有侧重地学习考察，旨在学习其他知名学校在校园文化、学校管理、特色创建等方面的办学经验，为推进我校义务教育优质均衡发展创建提供了很好的思考和借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>228</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>内江高新区管委会副主任黄齐全一行到高新区考察学习</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2024-05-17</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.zggx.gov.cn/115/-/articles/19612686.shtml</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['内江高新区管委会副主任黄齐全一行到高新区考察学习 - 财政资金 - 自贡高新技术产业开发区管理委员会', '5月16日，内江高新区管委会副主任黄齐全一行到高新区考察学习，委领导陈武亨主持召开座谈会，双方就收入组织、统筹财力、争取上级资金等进行交流。内江高新区财政局及相关企业负责人，自贡高新区财金局班子成员及股室负责人参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>228</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>山东省农业农村厅到我县考察学习渔业统计工作</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2023-12-22</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/-fsnyncj/qtfdxx/-/articles/18935565.shtml</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['山东省农业农村厅到我县考察学习渔业统计工作 - 其他法定信息 - 自贡市政府网站集约化平台', '12月21日，山东省农业农村厅渔业发展和资源养护总站渔业技术推广体系建设科负责人张收元一行，到我县兜山镇考察学习渔业统计监测工作。省水产局计财处四级调研员杨育梅、市农业农村局渔业渔政科科长朱飞龙、县委农办副主任华毅强等陪同。 座谈会上，朱飞龙、华毅强及兜山镇党委书记张文彬分别代表市、县、镇向山东省农业农村厅考察组介绍了渔业统计工作开展情况，考察组对兜山镇渔业统计资料进行了详细查阅，并就渔业统计工作开展情况与与会人员进行了交流。随后，考察组一行前往兜山镇杨家村朋海溪谷水产有限责任公司进行交流学习，详细了解了该养殖基地的生产及产量收集等情况。 此次考察交流进一步加深了双方了解，增进了友谊，双方表示今后要持续加强沟通，相互借鉴好的工作方法和经验，取长补短、相互促进，共同推进渔业统计工作不断向前、向上、向好发展。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>228</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>怀德镇党委书记杨奇带队赴大安区沿滩区考察学习先进经验</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2024-04-25</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/-fshdz/-4/-/articles/19513938.shtml</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['怀德镇党委书记杨奇带队赴大安区、沿滩区考察学习先进经验 - 重大项目 - 自贡市政府网站集约化平台', '为深入学习贯彻富顺县第十三届六次全会精神，强化区域协同发展，推动怀德加快建设特色农业强镇，近日，怀德镇党委书记杨奇带队赴大安区团结镇、沿滩区沿滩镇，考察学习特色产业规划建设、农文旅融合等方面的新思路、新举措，巧借“他山之石”，细琢“发展之玉”。镇党委副书记、镇长曾艳，镇人大主席许川，镇党委委员、武装部长、副镇长杨德超参加考察。 “如何因地制宜发展特色产业”“村级集体经济应该怎样发展壮大”……带着一个个问题，镇考察组一行首先来到大安区团结镇“中国玫瑰海”景区开展实地观摩学习，通过实地参观、听取讲解、现场交流等方式，深入了解了景区建设规划和发展情况，认真听取了玫瑰产业采购、培育、营收的全流程，切身感受了乡村文化游、城郊休闲游等业态模式，对团结镇在招商引资、企业运营、发展特色产业、乡村振兴、发展壮大村级集体经济、文旅融合等方面的先进经验和有效做法有了更深入的了解。 随后，镇考察组一行来到沿滩区，实地考察了沿滩镇水木阳光玫瑰园、果立方生态果园，详细了解了乡村国土空间规划编制情况，认真听取了当地农文旅融合发展及生态休闲旅游发展的新思路，深入了解了其在特色农业、产业深度融合、文化旅游等方面的具体打造细节。 每到一处，考察组都认真听取经验介绍，争分夺秒，听介绍、看现场、入车间、悟经验，在学习中找准定位、在讨论中迸发火花、在洽谈中谋求合作、在思考中激发创新。 杨奇表示，团结镇和沿滩镇区位优势独特、产业特色鲜明、发展势头强劲，在招商引资和产业规划建设等方面都取得了显著成绩，值得我们学习借鉴。此次考察学习拓宽了视野、开阔了发展思路、坚定了建设特色农业强镇的信心，行程虽紧但收获颇丰。怀德镇将以此次考察学习为契机，进一步查找自身不足，以思想大解放带动能力大提升，真抓实干弥补短板，开拓创新奋起直追，积极融入新发展格局，贯彻新发展理念，以推动高质量发展为主题，以加强区域协调发展为主线，以发展新质生产力为抓手，学习先进管理理念和发展模式，锚定学习目标任务，找准平台载体、实践路径，在协同共进、互利共赢中携手推动镇域经济社会高质量发展。 镇级相关部门负责人和各村党支部书记参加考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>228</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>安立副县长率队到邛崃市公安局考察学习</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2023-12-21</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.rongzhou.gov.cn/gzdt/-/articles/18911323.shtml</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['近日，副县长、县公安局党委书记、局长安立率队前往邛崃市公安局考察学习。邛崃市副市长、市公安局党委书记、局长牟莉，市公安局党委副书记、政委徐涛，市公安局党委委员、机关党委书记李晓秋全程陪同；县公安局党委副书记、政委钟学军，县公安局办公室、情指中心、警务保障室负责人参加考察。 安立副县长一行实地考察邛崃市公安局情指中心、合成作战大队、文君派出所，详细了解“智慧公安”建设应用、合成作战警务机制运行、基层派出所“两队一室”建设等情况。 在座谈会上，邛崃市公安局党委副书记、政委徐涛介绍了邛崃市公安工作有关情况，指挥中心、警务保障室就目标考核、办公室职能发挥、警务保障体系建设及信息化应用等方面作了经验介绍，双方就具体工作进行了深入的交流讨论。牟莉副市长、安立副县长分别作了重要讲话。 安立副县长充分肯定此次考察学习成效并强调：荣县公安要认真梳理邛崃市公安局在各项工作中好的经验做法，特别是在目标绩效管理、警务保障、信息化应用等方面及时总结。要结合荣县公安工作，找准问题短板，特别是在信息化建设工作等方面认真查漏补缺。要转变观念、创新思路，把邛崃公安先进经验和做法与荣县公安工作实际相结合，在2024年工作中谋划新思路，拿出新举措，力争推动荣县公安工作上台阶。', '安立副县长一行实地考察邛崃市公安局情指中心、合成作战大队、文君派出所，详细了解“智慧公安”建设应用、合成作战警务机制运行、基层派出所“两队一室”建设等情况。', '在座谈会上，邛崃市公安局党委副书记、政委徐涛介绍了邛崃市公安工作有关情况，指挥中心、警务保障室就目标考核、办公室职能发挥、警务保障体系建设及信息化应用等方面作了经验介绍，双方就具体工作进行了深入的交流讨论。牟莉副市长、安立副县长分别作了重要讲话。', '安立副县长充分肯定此次考察学习成效并强调：荣县公安要认真梳理邛崃市公安局在各项工作中好的经验做法，特别是在目标绩效管理、警务保障、信息化应用等方面及时总结。要结合荣县公安工作，找准问题短板，特别是在信息化建设工作等方面认真查漏补缺。要转变观念、创新思路，把邛崃公安先进经验和做法与荣县公安工作实际相结合，在2024年工作中谋划新思路，拿出新举措，力争推动荣县公安工作上台阶。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>228</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>宜宾市公安局组队到学苑街派出所考察学习</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2023-12-14</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.zggx.gov.cn/dep_xwfb/-/articles/18886130.shtml</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['宜宾市公安局组队到学苑街派出所考察学习 - 新闻中心 - 自贡高新技术产业开发区管理委员会', '12月11日，宜宾市公安局组队到学苑街派出所考察学习改革经验，参观派出所综合指挥室，听取警务机制改革、无人机应用、智慧巡防系统等相关工作介绍和窗口便民服务改革讲解。考察组表示，将借鉴警务运行机制改革发展经验，做好调研成果落地，提升警务运行效能。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>228</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>鲜光鹏率队赴成都高新区考察学习</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2023-11-20</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.zggx.gov.cn/dep_gzdt/-/articles/18771132.shtml</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['鲜光鹏率队赴成都高新区考察学习 - 高新动态 - 自贡高新技术产业开发区管理委员会', '11月17日，市委常委、高新区党工委书记鲜光鹏率队赴成都高新区考察学习，签署战略合作协议，党工委副书记、管委会主任谢飞，党工委副书记李善鸿等陪同。签约仪式上，鲜光鹏和成都市委常委、高新区党工委书记曹俊杰分别致辞，谢飞与成都高新区党工委副书记、管委会主任余辉签署协议。成都高新区领导卢铁城、赵姝丹，自贡高新区委领导魏家鲜、吴建、王恺、周结荣、朱军，高投集团董事长黄凯、汇东股份总经理陈谋高及两区相关部门、街道主要负责人参加考察及签约仪式。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>228</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>对标成华学习先进新街街道赴成华区考察学习</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2023-11-24</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.zlj.gov.cn/gzdt/-/articles/18797106.shtml</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['“对标成华，学习先进”——新街街道赴成华区考察学习 - 工作动态 - 自流井区人民政府', '为学习和借鉴先进地区的经验，进一步开阔思维视野，创新理念思路，在对标学习中找差距、补短板、促提升，11月23日，自贡市自流井区新街街道党工委书记何嘉带队前往成都市成华区猛追湾街道，实地学习城市党建、基层治理、城市有机更新、便民服务等工作的特色做法。 在培华路社区，考察组一行详细了解了将社区人文历史融入空间运营方面的思路和特色做法，参观了社区儿童之家、同心故事馆、女子学堂等各色功能区。“社区党委近年来采取‘一核引领、双轮驱动、五化微治’的工作方法，深度提炼社区‘信箱故里’的历史文化基因，通过在社区街头巷尾中植入‘老东郊工业文化底蕴+新时代核心价值观内涵’，活化了社区在地红光文化，促进居民互动、增进邻里关系。”社区书记介绍到。 什么是微网实格，如何做好网格化工作？带着这个问题，在石油社区石油苑小区，通过社区副书记的介绍，考察组了解到该社区按照“三不破”原则，设立一般网格，细化微网格，实施网格组织一体化、网格阵地一体化、网格治理一体化、网格服务一体化的四个“一体化”举措，通过强化社企联管共治，建强基层党建联盟，打造小区活动阵地，建立网格事项清单，优化网格服务流程，孵化培育特色组织，持续织密区域化“大党建”和网格化“微党建”有机融合的基层治理网格，将石油苑打造为共建共享的幸福美好家园。 烟火人间三千年，成都上下猛追湾，在望平社区望平坊，考察组感受了传统与时尚的完满融合。“笨”业态、美食街、露天音乐广场，随着成功打造“国家级旅游休闲街区”，猛追湾街道从过去萧瑟的传统沿河居民区，变身成为一个活力四射的城市新名片。“如何让老城焕发新活力？”带着这一思考，考察组一行仔细聆听讲解、实地考察该社区在城市有机更新方面的举措和规划，对望平社区以历史遗产资源为抓手，串联周边社区、老旧院落、历史建筑、文保单位，系统推进社区、街区、片区的整体活化的理念深表认同。 考察结束后，在座谈会上，双方围绕特色街区打造、党建引领居民自治、社区空间运营、网格化工作、社工人才及社会组织培育孵化等内容进行深入交流，并就街道互访、建立治理论坛、社区结对、资源共享等合作内容和方式达成了共识，进一步充实完善了合作协议。下一步，新街街道将组织参访后的学习讨论，明确对标学习重点，持续抓好学习成果转化，逐步提高城市基层治理水平。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>228</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>深化教育交流合作落实融圈强极战略大安区教育和体育局赴都江堰市开展考察学习</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sjyj/dep_qxxx/-/articles/18519235.shtml</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['深化教育交流合作，落实“融圈强极”战略 ——大安区教育和体育局赴都江堰市开展考察学习 - 战线动态 - 自贡市政府网站集约化平台', '深化教育交流合作，落实“融圈强极”战略 ——大安区教育和体育局赴都江堰市开展考察学习', '为贯彻落实《大安区落实“融圈强极”战略对标成都市都江堰强化协调发展工作方案》要求，深化两地教育合作交流，9月26日，大安区教育和体育局副局长廖楠带队赴都江堰市驾虹小学和李冰中学开展考察学习，区内11所学校29人参加，都江堰市教育局发展规划科陪同考察。 驾虹小学立足农村实际，持续多年扎实、深入、全面地开展耕读教育，将学校打造为一所名副其实的劳动教育特色学校。李冰中学紧紧围绕教学质量谋发展，校长及班子带头深入一线抓管理，学校在联盟教研培训、年轻教师培养、后进生管理帮扶、教学常规管理、分层教学、质量考核等方面积累了丰富的经验和策略。 考察组通过实地参观、听取报告、访谈交流等形式，对两校发展历程及现状作了了解，对特色化办学体系建设、课堂教学管理、教师队伍建设、学生管理、评价考核等方面进行了深入交流和探讨。 双方商定，尽快签订两地教育合作协议，完善工作机制，在教育部门和学校层面有序开展双向交流互动，共同推动教育高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>228</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>市农业农村局赴成都市郫都区考察学习宅基地管理工作</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/snmyj/dep_gzdt/-/articles/18470836.shtml</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['市农业农村局赴成都市郫都区考察学习宅基地管理工作 - 工作动态 - 自贡市政府网站集约化平台', '为贯彻落实市委市政府关于加强向成都对标学习要求，近日，由市农业农村局副局长罗尔特带队相关人员，前往成都市郫都区安德街道广福村和唐昌镇战旗村，实地考察学习宅基地规范审批管理和闲置农房盘活利用等工作。 在安德街道广福村，街道分管负责同志介绍了广福村盘活利用闲置农房和宅基地情况，结合广福村的地理位置和耕地、村组分布情况，整合闲置农房。利用整合后的资源实现盘活利用，引进食品公司，投资建设创意体验园，大力推进一二三产业融合发展，形成了韭菜产业链；由集体土地使用权出租保底，作价入股经营取得收益，多途径实现村民资产保值增值。 战旗村第一书记介绍了村发展历程，建立《战旗村宅基地统筹管理办法》和《村民资源有偿腾退办法》等制度，对腾退形成的农用地和建设用地等资源“集体持有、集中经营、按股分红”模式。战旗村抓住了“增减挂钩”政策，实施“拆院并院”，实现集中居住和节约建设用地，储备产业发展空间，发展文旅项目，从而壮大集体经济收入。 随后，在郫都区政府会议室与成都市农业农村局农经站、区农业农村和林业局等相关同志进行了座谈交流。交流会上，参会人员对宅基地规范管理和盘活利用工作建立了合作交流机制，实现宅基地管理工作互助、经验互通。 下一步，我市将对标成都模式，持续健全农村宅基地管理制度，分类做好宅基地管理台账，摸索开展宅基地基础信息数字化调查，稳慎探索多元盘活利用途径。', '为贯彻落实市委市政府关于加强向成都对标学习要求，近日，由市农业农村局副局长罗尔特带队相关人员，前往成都市郫都区安德街道广福村和唐昌镇战旗村，实地考察学习宅基地规范审批管理和闲置农房盘活利用等工作。', '在安德街道广福村，街道分管负责同志介绍了广福村盘活利用闲置农房和宅基地情况，结合广福村的地理位置和耕地、村组分布情况，整合闲置农房。利用整合后的资源实现盘活利用，引进食品公司，投资建设创意体验园，大力推进一二三产业融合发展，形成了韭菜产业链；由集体土地使用权出租保底，作价入股经营取得收益，多途径实现村民资产保值增值。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>228</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>富顺县赴西昌市和喜德县考察学习国家级电子商务进农村示范项目工作</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2021-03-09</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.fsxzf.gov.cn/-76/-/articles/13109376.shtml</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['富顺县赴西昌市和喜德县考察学习国家级电子商务进农村示范项目工作 - 国家级电子商务进农村综合示范县项目 - 富顺县人民政府']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>228</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>民革自贡市委会赴重庆永川区考察学习</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2020-12-03</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/bdzx/-/articles/12739428.shtml</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['为深入贯彻中央财经委员会第六次会议精神，认真落实中共自贡市委十二届十次全会精神，助推自贡加快融入成渝地区双城经济圈建设，11月25至26日，民革自贡市委会主委郭连率队赴重庆市永川区考察学习，与民革重庆市永川区委会签订友好合作协议。民革重庆永川区委会主委、区科技局局长漆远英出席签约仪式并陪同考察。', '民革自贡市委会一行实地调研了永川区规划展览馆、长城汽车产业园、永川区大数据产业园、民革重庆永川区委综合三支部“民革党员之家”等，并参加了座谈交流会。', '座谈会上，漆远英代表民革永川区委会对民革自贡市委会一行表示欢迎，并介绍了民革重庆永川区委会发展的基本情况。她希望双方进一步深入学习习近平总书记关于双城经济圈建设重要讲话精神，将民革党务工作和两地经济社会发展合作相结合，做到高效务实合作。', '郭连表示，民革自贡市委会和永川区委会结对友好合作组织，有效扩展了两地民革组织活动平台，丰富了共建活动形式，有助于双方沟通交流，进一步激发民革组织的创新活力。他希望，双方充分发挥两地民革党员优势，聚智借力，增强责任和担当，真正做到川渝一家亲，为成渝地区双城经济圈建设贡献作出贡献。', '双方共同约定，以缔结友好组织为桥梁纽带，加强交流学习，推动两地民革进一步完善横向联动、资源整合、优势互补，实现互利共赢、共建共享、共同发展，促进两地共同繁荣发展，推动成渝地区双城经济圈建设。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>228</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>乐山市市中区牟子镇参观考察学习沿滩区永安镇云丰村省级乡村振兴示范村创建工作</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2020-12-02</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.zgyt.gov.cn/476/-/articles/12734904.shtml</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['乐山市市中区牟子镇参观考察学习沿滩区永安镇云丰村省级乡村振兴示范村创建工作 - 民生实事 - 沿滩区人民政府', '简讯：11月30日，乐山市市中区牟子镇参观考察学习沿滩区永安镇云丰村省级乡村振兴示范村创建工作。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>228</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>自贡市市场监管局赴泸县考察学习食品小作坊治理提升先进经验</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2021-01-08</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/bdzx/-/articles/12884999.shtml</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['自贡市市场监管局赴泸县考察学习食品小作坊治理提升先进经验 - 自贡资讯 - 自贡市政府网站集约化平台', '为深入推进食品小作坊治理提升工作，2020年12月23日，自贡市市场监管局组织全市食品生产监管人员20余人到泸县考察学习食品小作坊治理提升先进经验。', '在泸县市场监管局的精心组织安排下，考察组先后来到了瓦子小作坊酒厂、海泉白酒厂、接官坝酒厂、众道口卤鹅店4个食品小作坊示范点，重点对食品小作坊硬件设施、布局规划、加工流程、管理制度及日常监管等情况进行了参观学习。在随后召开的座谈会上，考察组听取了泸县局关于开展食品小作坊治理提升工作推进情况的介绍，同泸县局一起，共同探讨了工作开展过程中存在的问题和解决办法。', '考察组成员纷纷表示，通过现场观摩和交流座谈，工作思路更加清晰，收获颇多、深受启发。下一步，自贡市将积极争取党委政府支持，健全食品小作坊长效监管机制，努力将小作坊治理提升工作与乡村振兴建设协同发展、与文旅产业融合发展，全力推进地域特色食品小作坊建设。（自贡市市场监管局）']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>228</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>年优秀返乡创业人才能力提升培训班全体学员来到自流井区绿之源家庭农场参观考察学习</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2020-11-05</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.zlj.gov.cn/gzdt/-/articles/12612836.shtml</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['2020年优秀返乡创业人才能力提升培训班全体学员来到自流井区绿之源家庭农场参观考察学习 - 工作动态 - 自流井区人民政府', '2020年优秀返乡创业人才能力提升培训班全体学员来到自流井区绿之源家庭农场参观考察学习']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>228</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>张邦举常委率队赴昆山经济技术开发区考察学习</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2020-10-29</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.zggx.gov.cn/-2/-/articles/12581782.shtml</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['张邦举常委率队赴昆山经济技术开发区考察学习 - 项目招商 - 自贡高新技术产业开发区管理委员会', '10月28日，市委常委、高新区党工委书记张邦举率队赴昆山经济技术开发区考察学习。昆山经济技术开发区党工委委员、管委会副主任潘建康陪同。张邦举常委系统介绍了自贡市及高新区的历史、区位、文化、产业及重点发展方向，详细了解了昆山经开区土地承载能力、水电气要素保障、企业转型及转移需求，表达了加强区域合作，实现产业协同发展的愿望。潘建康重点介绍了昆山经济技术开发区的智能装备、半导体、电子信息、新能源、精细化工等主导产业的发展现状和产业转移趋势，表示顺应产业分工趋势，找准结合点，建立合作机制，推进共同发展。自贡市投促局局长刘军，高新区党工委委员、二级巡视员叶茂恒，高新区投促局主要负责人陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>228</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>何树平率队赴北京河北开展投资促进和考察学习活动</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2020-10-28</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/bdzx/-/articles/12575498.shtml</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['何树平率队赴北京河北开展投资促进和考察学习活动 - 自贡资讯 - 自贡市政府网站集约化平台', '10月26日至28日，市委副书记、市长何树平率队赴北京市、河北省开展投资促进和考察学习活动，聚焦文化旅游、装备制造、现代物流等领域，抢抓战略新机遇，推动产业链招商，考察学习雄安新区规划建设的新思维新理念，促进老工业城市转型升级，实现高质量发展。', '在北京期间，何树平先后考察北京文心空间文化创意发展有限公司、中国文化传媒集团、北京奥悦冰雪旅游投资集团等企业，围绕5G短视频文创产业园、文化创意产业基地、“彩灯+冰雪”等项目，与企业负责人深入沟通交流。何树平指出，自贡历史文化底蕴深厚，“盐龙灯食”四张城市名片享誉中外，是全国首批、川渝唯一的国家文化出口基地，正着力打造独具特色的国际文化旅游目的地和成渝地区特色消费目的地。希望各企业充分发挥自身在技术、品牌、市场等方面的优势，融合自贡独特的文化旅游资源，携手合作，创新业态，助力自贡文旅产业集聚发展。', '雄安新区塔吊林立，项目建设热火朝天。何树平来到新区规划展示中心和容东片区建设现场，详细了解新区整体规划及建设情况，围绕规划理念、生态保护、产业发展等方面，与相关负责人深入交流。何树平指出，规划建设雄安新区是以习近平同志为核心的党中央作出的一项重大战略决策。相关部门和区县要认真学习雄安新区规划建设的好理念、改革创新的好举措和生态治理的好做法，坚持新发展理念，以实施生态建设和优化国土空间布局行动为抓手，加强城市设计，塑造城市特色，保护历史文化，重塑新时代城市价值。', '在河北期间，何树平先后考察帅康座椅、国昌线缆、立亚包装等企业，并召开自贡市走进京津冀投资座谈会，向河北川渝商会、天津自贡商会、河北交泰电缆、海菱包装等30余家商协会和企业负责人推介自贡投资环境。何树平说，自贡城市品味独特，区位优势突出，园区平台齐备，营商环境优越，发展态势良好，是全国老工业城市产业转型升级示范区、国家文化出口基地、国家骨干冷链物流基地。当前，正积极抢抓成渝地区双城经济圈建设等国家战略机遇，聚力再造产业自贡，热诚邀请各位企业家与自贡共享机遇，共谋合作，共襄发展。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>228</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>自贡市机关事务管理局赴重庆市江津区考察学习机关事务工作</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2020-10-22</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/jgswglj/gzdt/-/articles/12531428.shtml</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['自贡市机关事务管理局赴重庆市江津区考察学习机关事务工作 - 工作动态 - 自贡市政府网站集约化平台', '为服务自贡深度融入成渝地区双城经济圈建设，10月16日，自贡市机关事务管理局党组书记、局长李刚带队到重庆市江津区学习借鉴机关事务工作先进经验。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>228</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>贡井区赴宜宾市翠屏区考察学习服务业发展工作</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2020-09-02</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.gj.gov.cn/gzdt/-/articles/12313727.shtml</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['为贯彻落实区委十一届九次全会精神，主动思考和融入成渝地区双城经济圈建设和川南经济一体化发展，9月1日，贡井区委常委胡小林带队赴宜宾市翠屏区考察学习服务业发展工作。区商务局局长柯雪琼、副局长俞琳，区农业农村局副局长刘利，自贡航空产业园经发科副科长李园园参加考察，翠屏区政协副主席王元枢、翠屏区电子商务和物流发展服务中心书记吕净一行接待考察。 上午，考察组实地参观宜宾传化公路港和宜宾电子商务产业园、洪仁文化直播基地，学习园区建设和企业培育先进经验，了解产业扶持政策和企业发展理念。下午，胡小林一行来到“宜宾水街”考察夜间经济发展情况，学习沉浸式消费场景包装、网红打卡地打造和商业街区引流造势等经验做法。在考察过程中，胡小林针对团队孵化、政府扶持、行业发展等问题进行了解，并就我区相关情况进行沟通交流。 此次考察使考察人员开拓了眼界，对翠屏区电商、物流、夜间经济等方面发展增进了了解，直观感受到发展差距，对学习现代服务业发展经验、积极融入川南城市群发展发挥了积极作用，为下一步工作提供了借鉴经验。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>228</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>吴刚副局长带队考察学习泸州国家高新区医药产业园</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2020-09-11</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/-sgsj/dep_gzdt/-/articles/12351760.shtml</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['吴刚副局长带队考察学习泸州国家高新区医药产业园 - 工作动态 - 自贡市政府网站集约化平台', '为进一步促进我市医药产业发展，9月8日，市市场监管局吴刚副局长带队学习考察泸州国家高新区医药产业园。 考察组先后来到泸州国家高新区医药产业园的科瑞德制药新厂、四川景宏实业集团有限公司。重点考察了四川景宏实业集团有限公司医疗器械第三方物流仓储现场，参观了解企业医疗器械第三方物流为其他医疗器械经营企业收货、验收、储存、运输等质量管理工作情况。随后进行了交流座谈,听取了四川景宏实业集团有限公司质量负责人对公司建设和运行情况的相关介绍。双方就医疗器械第三方物流运营的优势与劣势、监管重点、未来发展方向等进行了深入交流。 吴刚副局长表示：此次考察受益良多，自贡将结合泸州市开展医疗器械第三方物流建设工作的先进经验，促进我市药品、医疗器械经营环节贮存、运输的规范化、集约化、高效化、信息化、专业化、模式化的管理并推进我市医药产业持续健康发展。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>228</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>川南经济区医养结合一体化发展联盟组织医养结合考察学习活动</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2020-08-25</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/swsjsw/dep_gzdt/-/articles/12276177.shtml</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['川南经济区医养结合一体化发展联盟 组织医养结合考察学习活动 - 新闻中心 - 自贡市政府网站集约化平台', '近日，川南经济区医养结合一体化发展联盟组织相关单位成员赴成都、眉山开展医养结合工作考察学习。 考察团一行先后参观了成都双流区贸园医院一杆旗日间照料中心、贸园家庭医生工作站、眉山市龚村养护中心并交流座谈，联盟成员单位就各市在推进医养结合工作中的探索及成效进行了经验分享与交流。在考察间隙，联盟召开了2020年主席团会议，确定今年将组建医养结合专家库，制定“医养结合标准化建设示范单位”评定标准以及举办首届“川南联盟杯”医养结合护理员技能比赛。 此次考察活动是联盟章程中“交流机制”具体实践，未来联盟将组织更多活动，为成员单位搭建产业研究、服务项目开发和市场探索、人才培养等全方位、多领域交流平台。通过成员单位之间的资源共享、交流互动，充分释放联盟人才、信息、技术等要素活力，协同创新，提升联盟的影响力和公信力。 图为：联盟成员参观考察成都双流贸园医院 图为：联盟成员参观考察眉山市龚村养护中心 图为：联盟交流座谈会 图为：联盟交流座谈会']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>228</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>我市赴蓉考察学习水环境治理工作经验</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2020-09-02</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/shbj/-15/-/articles/12313093.shtml</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['为进一步提升自贡市流域水污染防治水平，推动水环境质量持续改善，8月31日，市政府副市长龙腾鑫、鲜光鹏率队前往成都市考察学习流域水环境治理、黑臭水体整治、湖泊水华治理等方面的先进经验和创新做法，市政府副秘书长曹军、江声全，市级相关部门、相关区县政府负责同志参加。成都市人民政府副市长曹俊杰，副秘书长刘兴军陪同。 考察学习期间，考察团一行先后前往金牛区摸底河、龙泉驿区龙泉湖，深入了解流域水污染治理责任体系建立、水资源利用、水生态修复、水污染防控、精细化管理能力建设等情况，并与成都市有关负责同志进行深入交流。 考察团表示，近年来，成都市全面压紧压实流域污染防治工作责任，强化资金投入保障，引进先进治理技术，系统谋划实施了一批成效显著的治理工程项目，水环境质量得到有力提升，值得我们认真学习。 下一步，我市将深入贯彻落实长江经济带发展“共抓大保护，不搞大开发”的要求，借鉴成都市水环境治理先进经验，结合我市实际，进一步完善流域污染治理体系，提升治理能力，坚持“标本兼治、长短结合”，以水质目标为导向，分类施策，强化水资源利用、水生态修复、项目谋划和实施，全面提升我市水环境综合治理水平，坚决打好碧水保卫战，持续改善水生态环境质量，让自贡碧水永续长流。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>228</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>市水务局赴眉山东坡湖考察学习</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2020-08-07</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sswj/-8/-/articles/12287252.shtml</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['8月6日，市水务局局长古荣华带队赴眉山东坡湖考察学习。考察组一行认真听取了眉山市有关部门关于东坡湖治理方面的一些经验，实地查看了东坡湖等治理情况。考察结束后，古荣华要求大家要认真学习东坡湖综合治理的先进经验，加快推进我市金鱼河等流域的综合治理，为我市打造一个水美、岸绿的美丽家园。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>228</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>自贡市党政代表团赴重庆市江津区考察学习</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2020-08-05</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/bdzx/-/articles/12201420.shtml</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['自贡市党政代表团赴重庆市江津区考察学习 - 自贡资讯 - 自贡市政府网站集约化平台', '自贡网讯（记者 廖蓝蕾 摄影 叶卫东）8月4日，自贡市党政代表团赴重庆市江津区考察学习，并举行自贡·江津合作交流座谈会，深入学习贯彻习近平总书记在中央财经委员会第六次会议上的重要讲话精神，全面落实推动成渝地区双城经济圈建设四川重庆党政联席会议第一次会议部署，协同推动南翼跨越、加快再造产业自贡，携手打造川南渝西融合发展试验区，在合力推动成渝战略落地落实中实现协作共兴。自贡市委书记范波，江津区委书记程志毅出席并讲话。自贡市委副书记、市长何树平，江津区委副书记、区长毛平分别介绍两地经济社会发展、合作交流情况以及深化务实合作建议。自贡市政协主席游开余，江津区政协主席王君成出席。', '在江津期间，自贡市党政代表团前往珞璜港、珞璜工业园区杜拉维特（中国）洁具有限公司、江津综合保税区等，考察江津产业转型升级、重点产业布局、现代物流业发展、对外开放合作等情况，学习江津在加快构筑现代产业体系、增强协同创新能力、优化区域发展格局等方面的有益经验和创新做法。', '座谈会上，范波向江津区长期以来给予自贡市经济社会发展的大力支持表示感谢。他说，江津深入贯彻落实党中央和重庆市委决策部署，争当“融入主城的先行区、渝西发展的领头羊、川渝合作的排头兵”加快打造成渝地区双城经济圈重要战略支点，效果明显、成果丰硕，值得自贡认真学习借鉴。他指出，当前自贡正深入学习贯彻习近平总书记重要讲话精神，全面落实省委十一届七次全会部署，紧扣省委“支持自贡推进老工业基地改革创新和转型升级、建设国家文化出口基地”的发展定位，聚焦南翼率先跨越，以再造产业自贡为总牵引，深入实施城市全面振兴“七大行动”，协同打造川南渝西融合发展试验区和承接东部地区产业转移创新发展示范区，加快建设新时代成渝地区深化改革扩大开放示范城市、高品质生活宜居现代化历史文化名城、城乡一体繁荣幸福新自贡。深化两地合作，双方具有高度战略契合。自贡将以此次考察学习为新起点，以重大战略协同为统揽，以两地相向共兴为引领，协同推进规划编制、争取政策支持、推进重大项目、建设重大平台和建立完善工作机制，在基础设施互联互通、产业协作配套、城市功能互补、生态共治共保、融入巴蜀文化走廊等领域实现高水平联动发展，携手在推动成渝地区南翼跨越中实现新作为。', '程志毅向自贡市党政代表团表示热烈欢迎，对我市在统筹推进疫情防控和经济社会发展，抢抓成渝战略机遇，推动南翼跨越、再造产业自贡等方面取得的明显成效给予高度评价，希望进一步强化互学互鉴、互联互访，项目化、事项化落实好此次合作交流成果，与自贡错位协同、抱团发展，合力共建川南渝西融合发展试验区和承接东部地区产业转移创新发展示范区，不断壮大区域经济实力。他说，江津正按照“坚持同城化、融入中心区、联结渝川黔、打造新支点”的思路和方向，助力唱好“双城记”、协同建好“经济圈”，加快打造成渝地区双城经济圈重要战略支点。自贡是四川南向开放的重要门户、川南经济区的重要城市，两地共处成渝地区南翼、同为成渝地区重要节点，推动成渝战略落地落实、在成渝地区南翼跨越中实现新作为，是自贡、江津共同的机遇和责任。他指出，当前，川渝合作已经按下了“快进键”、迈入了快车道，江津将树立一盘棋思想、贯彻一体化理念，与自贡在加强战略规划对接、产业集群联动发展、公共服务共建共享等方面提升协同水平、拓展合作领域，共同在推动成渝地区双城经济圈建设实践中走出一条协同发展新路。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>228</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>自贡市市场监管局组团赴泸州考察学习</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2020-07-21</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/-sgsj/dep_gzdt/-/articles/12123773.shtml</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['为学习借鉴泸州市市场监管局深化“放管服”改革、优化营商环境、推动自贸区建设等方面工作经验，7月16日，自贡市市场监管局党委委员、副局长郭新、乔勇，带领行政审批科等相关科室负责人、自流井区市场监管局主要负责人赴泸州市市场监管局考察学习。 考察组先后参观考察了泸州综合保税区、中国（四川）自由贸易试验区川南临港片区综合服务大厅，听取了相关负责人的情况介绍。在座谈交流中，泸州市市场监管局相关负责人分别介绍了在深化“放管服”改革、优化营商环境、推动自贸区建设，以及落实食品安全党政同责等方面的先进理念及工作经验，自贡、泸州两局开展了互动交流活动。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>228</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>重庆市永川区大数据应用发展管理局莅市考察学习助推双圈经济发展助力政务服务交流对接</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2020-07-13</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/cydqscjj_gztj/-/articles/12077201.shtml</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['重庆市永川区大数据应用发展管理局莅市考察学习 助推双圈经济发展 助力政务服务交流对接 - 工作推进 - 自贡市政府网站集约化平台', '重庆市永川区大数据应用发展管理局莅市考察学习 助推双圈经济发展 助力政务服务交流对接', '局对助推双圈经济发展，助力政务服务进行深入的交流对接。唐局长首先参观了市智慧城市大数据管理中心，对市大数据基础设施建设、数据资源跨部门共享开发和智慧城市建设等方面的情况进行了详细了解。然后双方就加快数字经济产业化发展合作、大数据应用管理如何更好的服务群众、服务产业发展、大数据人才培育、人才互流互通、如何融入重庆市大数据产业联盟等方面进行了深入探讨，双方初步达成了助推成渝双重经济圈发展，助力政务服务的发展意向。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>228</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>自贡市党政代表团赴宜宾市考察学习两市签署融入成渝地区双城经济圈建设共建川南渝西融合发展试验区示范城市合作协议</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2022-02-24</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/stzcjj/dep_gzdt/-/articles/14886729.shtml</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['自贡市党政代表团赴宜宾市考察学习 两市签署《融入成渝地区双城经济圈建设共建川南渝西融合发展试验区示范城市合作协议》 - 工作动态 - 自贡市政府网站集约化平台', '自贡市党政代表团赴宜宾市考察学习 两市签署《融入成渝地区双城经济圈建设共建川南渝西融合发展试验区示范城市合作协议》']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>228</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>市地方志办组织参加全省方志馆考察学习活动</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2021-09-15</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sdfzb/dep_gzdt/-/articles/14068281.shtml</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['市地方志办组织参加全省方志馆考察学习活动 - 市县方志动态 - 自贡市政府网站集约化平台', '月9日—10日，市地方志办党组成员、副主任明梅率队参加由省地方志办组织的全省方志馆考察学习活动。考察期间，先后参观了四川方志文化（府青路街道）宣传基地（成都市成华区毛边书局·桃蹊书院）、成都市金牛区方志馆、遂宁市方志馆、四川省方志馆西华师范大学分馆（川渝共建）、南充市方志馆，听取了各馆舍基本情况介绍，并参加全省方志馆工作座谈交流会。通过参观考察，学习到了各地方志馆在规划筹建、展陈设计、运营管理等方面的先进经验做法，为今后自贡方志馆建设提供了思路借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>228</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>宜宾人防赴我市考察学习人防工作</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2021-08-19</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/srfb/dep_gzdt/-/articles/13960145.shtml</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['8月17日，宜宾市人防办主任蒋明一行，到我市考察人防工作并进行交流学习，强化两地人防的交流、协作与配合机制。 当日上午，市人防办主任罗昕、巡视员周颜、调研员侯晋蜀携办综合科有关人员与宜宾人防办主任蒋明一行进行座谈，双方就工程审批、指挥通信、保密工作等方面的具体作法进行了详细的沟通交流。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>228</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>我市组织考察学习团赴彭州力方集团考察博物馆数字化建设工作</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2021-08-13</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/swgxj/dep_gzdt/-/articles/13962851.shtml</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['我市组织考察学习团赴彭州、力方集团考察博物馆数字化建设工作 - 工作动态 - 自贡市政府网站集约化平台', '为学习先进经验，加速推进我市博物馆数字化建设，8月11日，由市文化广电旅游局组织，市文物文博管理单位及自贡市盐业历史博物馆和中国彩灯博物馆负责人、技术人员组成学习考察团，赴彭州中国蔬菜博览馆、力方集团总部学习考察博物馆数字化建设工作。此次考察学习，旨在通过考察增长见识、更新理念、解决问题。 考察团现场考察了位于彭州的中国蔬菜博览馆。中国蔬菜博览馆是国内首个以蔬菜文化和产业发展为主题的博览馆，展陈面积3455平方米，全馆通过沉浸互动、光影交互等新兴数字化技术，呈现“一粒种子所创造的奇迹”，讲述蔬菜的“发展之源、传播之路、利用之法、创新之道”。 考察力方数字科技集团有限公司数字化产品展示中心。考察组成员零距离体验了当代最先进的影视动漫、虚拟仿真、创意视听和互动多媒体。 在力方数字科技集团有限公司（成都）会议室召开交流会。力方数字科技集团有限公司副总裁兼成都公司总经理陈方前先生对公司业务做介绍，阐述了集团公司文旅数字化发展的理念，交流双方就数字博物馆建设做深入探讨。市文化广电旅游局提出：一是要有效对接落实国家“十四五”规划和2035年远景目标关于“加快数字化发展”的战略部署；二是各文博单位应该根据各自文物特点、场馆类型、展示手段、观看受众、运营管理特点和经费情况等，结合最新的数字化技术，认真思考和谋划数字化发展方向，寻找各单位与数字化的结合点；三是力方数字科技集团有限公司作为数字化运用的龙头企业，数字化理论及技术的沉淀丰厚、数字化项目实施的经验丰富，希望能主动积极地参与到地方数字化发展的浪潮中来，参好谋、服好务，促进企业和地方的共同发展和进步。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>228</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>四川荣县经济开发区管理委员会赴自贡市沿滩区高新技术产业园区管委会考察学习</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2022-02-18</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.rongzhou.gov.cn/gzdt/-/articles/14863273.shtml</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['四川荣县经济开发区管理委员会 赴自贡市沿滩区高新技术产业园区管委会考察学习 - 工作动态 - 荣县人民政府', '2月17日，县委常委、副县长但海君，县委常委、统战部部长胡爱华带队一行23人，赴自贡市沿滩区高新技术产业园区管委会就经开区的运行体制机制、要素保障、征地拆迁、产业招引、项目落地及招商引资等方面的工作进行了考察学习。县经开区、县发改局、县科技经信局、县财政局、县自规局、县住建局、县投促局、县行政审批局、县生态环保局、县梧桐街道办、县青阳街道办的主要负责人及分管领导陪同考察学习。 在自贡市沿滩区高新技术产业园区，考察组一行先后参观学习了园区发展历程和机械装备产业园、食品产业园、自贡川南新材料化工园区的“一区三园”发展规划；在位于沿滩高新技术产业园区西北部的西南（自贡）食品产业园，实地考察参观了食品产业园发展历程及招商运营模式规划、广州鼎一集团食品生产车间等；在沿滩高新技术产业园区办公楼，先后参观了党群服务中心、企业法治服务中心等。 图为参观园区发展历程及产业发展规划 最后召开了交流座谈会，考察组成员介绍了荣县经开区近年来发展情况，与会人员就管委会体制机制改革创新、招商引资、产业规划、征地拆迁、要素保障等工作进行了深入交流学习，取得了宝贵的先进经验。 图为召开交流座谈会 通过本次外出考察学习，考察组充分认识到改革创新对于激发经开区发展活力、实现跨越发展的重要性，学习到了沿滩区高新技术园区在运行体制机制改革、产业布局、项目落地、征地拆迁、招商引资中的先进经验做法及举措成效，同时也深刻认识到了自身发展中的差距和不足。大家表示，下一步会将所学经验落实到实际工作之中，明确发展方向，明晰主导产业，加强征地拆迁、要素保障等工作力度，进一步优化营商环境，推动开发区体制机制改革创新，充分发挥开发区作为全县经济发展主战场的作用。', '最后召开了交流座谈会，考察组成员介绍了荣县经开区近年来发展情况，与会人员就管委会体制机制改革创新、招商引资、产业规划、征地拆迁、要素保障等工作进行了深入交流学习，取得了宝贵的先进经验。', '通过本次外出考察学习，考察组充分认识到改革创新对于激发经开区发展活力、实现跨越发展的重要性，学习到了沿滩区高新技术园区在运行体制机制改革、产业布局、项目落地、征地拆迁、招商引资中的先进经验做法及举措成效，同时也深刻认识到了自身发展中的差距和不足。大家表示，下一步会将所学经验落实到实际工作之中，明确发展方向，明晰主导产业，加强征地拆迁、要素保障等工作力度，进一步优化营商环境，推动开发区体制机制改革创新，充分发挥开发区作为全县经济发展主战场的作用。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>228</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>荣县组团赴德阳市考察学习老旧小区及城市更新改造经验</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2022-02-14</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.rongzhou.gov.cn/xwfb/-/articles/14827728.shtml</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['荣县组团赴德阳市考察学习老旧小区及城市更新改造经验 - 本地资讯 - 荣县人民政府', '2月10日，我县组织考察学习团队赴德阳市考察学习老旧小区及城市更新改造经验。县领导胡爱华、王学峰及县住建局、旭阳镇有关负责人等前往学习取经。', '考察学习团重点“选学”了德阳市旌阳区老旧小区改造、城市更新工作配套政策以及在老旧小区改造及城市更新中的项目包装、项目招标模式、项目建设中的先进做法（含城市更新改造理念、思路，城市更新设计的专业规划、特色亮点，部分小区更新改造中的具体经验措施）、更新改造后小区管理模式。', '据悉，我县组团到德阳市考察学习，目的是学习德阳市旌阳区在老旧小区改造及城市更新工作方面的先进经验，进一步拓宽视野，加快推进我县老旧小区改造及城市更新工作。（蒋兵/文）']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>228</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>荣县组团赴青神蒲江考察学习电子商务进农村综合示范县项目</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2021-11-26</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.rongzhou.gov.cn/-25/-/articles/14387465.shtml</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['荣县组团赴青神、蒲江考察学习电子商务进农村综合示范县项目 - 乡村振兴 - 荣县人民政府', '为更好地建设实施我县国家级电子商务进农村综合示范县项目，完善县域农村电商物流服务体系，助力乡村振兴。11月1日－2日，由县委常委但海君带队，县商务局、县农业农村局、县科技经信局及部分镇、企业负责人组成考察团，前往青神和蒲江考察学习两县电子商务进农村综合示范县项目经验模式、电商物流发展运营理念、产业融合等先进思路。', '考察团一行在当地商务部门带领下，分别参观了青神县、蒲江县电商公共服务中心、青神县竹编艺术博物馆、浦江县阿里巴巴数字农业集运加工中心及部分农村电子商务服务站点，并与当地商务部门及电商中心运营单位进行座谈。会上，当地商务部门和电商公共服务中心运营单位就电商中心的功能配置、运营管理及配套设施等项目情况进行介绍，重点讲述了当地商务部门实施国家级电子商务进农村综合示范项目的先进做法和经验，双方对项目推进过程中遇到的疑问和困难进行了交流。', '考察学习期间，考察团成员纷纷感叹青神、蒲江不愧是全川乃至全国电商知名县，电商产业与县域特色产业及物流资源实现了深度融合，塑造了特色品牌，延长了产业链，“电商+旅游+农业”运营模式非常值得我们学习和借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>228</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>广元市昭化区政协来荣考察学习公共文化事业发展工作</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2021-07-07</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.rongzhou.gov.cn/ggwhfw/-/articles/13766232.shtml</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['广元市昭化区政协来荣考察学习 公共文化事业发展工作 - 公共文化服务 - 荣县人民政府', '7月6日，广元市昭化区政协副主席刘红兰一行来荣考察学习公共文化事业发展工作。荣县政协副主席钟永平，荣县政协文化文史学习委主任李晓明等陪同调研，荣县文化广播电视和旅游局有关领导参加陪同。 考察组一行走访了玉章景区、农民漫画馆等多个荣县示范性文化阵地，现场听取了各相关负责人站点文化工作开展情况的汇报，对我县文化事业开展的经验做法和"十四五"文旅规划予以充分的肯定。 刘红兰副主席表示今后将继续加强与我县的现代公共文化服务体系建设特别是示范乡镇创建、县图书馆、县美术馆总分馆制改革、全面推进智慧博物馆建设的沟通和交流，携手推进文旅融合示范项目，激发基层自主创新活力，让荣县文化事业的好点子、好经验、好做法在昭化落地生根。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>228</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>高新区创业服务中心联合海尔海创汇组织在孵企业到上海开展考察学习活动</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2021-06-01</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.zggx.gov.cn/dep_gzdt/-/articles/13569759.shtml</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['高新区创业服务中心联合海尔·海创汇组织在孵企业到上海开展考察学习活动 - 高新动态 - 自贡高新技术产业开发区管理委员会', '5月24日-30日，高新区创业服务中心联合海尔·海创汇组织在孵企业到上海开展考察学习活动。考察团一行参观了海尔智谷、G60俄罗斯院士创新基地、宝武集团吴淞口产业园等地。海创汇创业导师刘皓、上海交通大学商业零售地产研究所特邀顾问蒋丽萍针对“股权激励”“企业经营战略”等主题进行了分享。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>228</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>自贡市考察学习组前往绵阳市游仙区学习考察先进经验和做法</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2021-05-24</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/bdzx/-/articles/13512297.shtml</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['自贡市考察学习组前往绵阳市游仙区学习考察先进经验和做法 - 自贡资讯 - 自贡市政府网站集约化平台', '5月20日至21日，自贡市应急管理局、市消防救援支队带领各区县应急、消防部门及仲权镇、龙潭镇、牛佛镇、仙市镇等10个中心镇的相关负责人组成25人学习考察组，前往绵阳市游仙区学习考察先进经验和做法。', '考察组前往绵阳市游仙区石马镇、魏城镇中心消防救援站学习考察消防救援站建设，并到游仙区新桥镇同福村学习考察村级应急机制建设、应急物资储备、应急广播建设，到新桥镇政府学习考察政府综合值班室、镇级应急物资储备站、社会治理应急调动平台建设。', '在交流座谈会上，绵阳市应急管理局、绵阳市消防救援支队、游仙区应急管理局、新桥镇等负责同志分别介绍了经验，考察组介绍了我市目前的推进情况、存在的问题和下一步的措施。', '据悉，通过此次考察学习，有助于进一步完善自贡市“一主两辅”基层应急力量建设标准和相关制度规范，对对标补齐硬件短板、强化管理弱项、加快推动建设有极大促进作用。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>228</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>自贡市委党校赴昆山考察学习并签订战略合作协议</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2021-05-28</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/bdzx/-/articles/13540721.shtml</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['自贡市委党校赴昆山考察学习并签订战略合作协议 - 自贡资讯 - 自贡市政府网站集约化平台', '5月25日，自贡市委党校全体班子成员赴江苏昆山市委党校考察学习并签订战略合作协议。', '座谈会上，江苏省委党校（省行政学院）昆山分校（院）教学研究部主任、昆山市委党校副校长王永进代表学校，对自贡市委党校一行表示热烈欢迎，详细介绍了昆山市委党校有关情况。昆山市委党校毗邻3150多亩的森林公园，绿树成荫、风光秀美。昆山市委党校秉承“开放办学”理念，深入挖掘昆山发展经验，积极整合教育资源，探索走出了一条以开放促改革、以创新求突破、以服务为核心、以卓越铸品牌的干部教育培训“昆山之路”。学校先后获批江苏省委党校昆山分校、中国浦东干部学院昆山分院、全国十大党员教育培训示范基地。近年培训各类学员20多万人次，遍布全国各地及港澳台地区，学校成为全国干部教育培训展示新时代中国特色社会主义发展成果、讲好“中国故事”“昆山故事”的重要窗口，成为全国县级党校发展典范。', '自贡市委党校常务副校长陈尧谈到，5月7日，自贡市委书记范波率队赴江苏省昆山市考察，敢为天下先的“昆山之路”是自贡市推动超常跨越发展的榜样。当前，“昆自合作”进入战略引领、高位推动、全面深化的新阶段，这次两校战略合作是自贡党校系统学习先进经验，取长补短，推动教学改革、创新党校发展，提高办学质量的难得机遇，更是践行自贡市委“对标昆山”，积极推动“昆自合作”，促进区域交流合作与协同共兴，加快走出自贡版“昆山之路”的有力举措。自贡市委党校将同昆山市委党校一道，在深化“昆自合作”的大局大势中找准坐标、完善思路，充分发挥双方优势特色，进一步建立完善工作机制，探索“优势互补协同发展”路径，推动党校事业开创新局面。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>228</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>陈炜率队赴浙江省河南省考察学习生态环境保护工作</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2021-05-24</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/zscd1/-/articles/13512658.shtml</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['陈炜率队赴浙江省、河南省考察学习生态环境保护工作 - 党中央国务院信息 - 自贡市政府网站集约化平台', '5月19日至21日，副省长陈炜率队赴浙江省、河南省考察学习生态环境保护工作。陈炜一行先后来到杭州市“城市大脑”指挥中心、杭州顶正包材有限公司和郑州市贾鲁河、郑州市轨道交通12号线祭城东桥站等地考察，并在郑州市与河南省有关部门进行座谈，深入了解大气污染和水污染防治的工作运行机制。', '陈炜表示，浙江省、河南省生态环境保护工作目标明确、措施过硬、亮点突出，取得了实绩实效，充分体现了高质量发展特别是可持续发展的要求，各项工作走在了全国前列，为四川做好生态环境保护工作提供了有益借鉴。', '陈炜要求，全省生态环境部门要认真学习借鉴浙江省、河南省生态环境保护工作的成功做法和经验，并结合我省实际，有针对性地开展工作。他强调，要坚持“高”字当头，进一步提高政治站位，深入贯彻习近平生态文明思想，坚决落实党中央国务院和省委省政府各项决策部署，以身作则、以上率下，推动全省生态文明建设和生态环境保护工作不断取得新成效；要坚持“硬”字在前，压紧压实各地各部门责任，采取过硬措施，铁心布置、铁面检查、铁腕执法，确保最严格制度得到最严格执行；要坚持“好”字为先，充分利用信息化手段，推进环境监测监控体系建设和治理模式创新，不断提升生态环境治理能力现代化水平；要坚持“实”字打底，出实招、用实劲，进一步健全协调沟通机制，加强协同联动，狠抓各项工作落实，扎实推进污染防治工作，持续改善生态环境质量。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>228</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>省委召开常委会会议通报省党政代表团赴广东浙江两省考察学习情况决定召开中共四川省委十一届九次全会</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2021-05-24</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/zscd1/-/articles/13512566.shtml</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['省委召开常委会会议 通报省党政代表团赴广东、浙江两省考察学习情况 决定召开中共四川省委十一届九次全会 - 党中央国务院信息 - 自贡市政府网站集约化平台', '省委召开常委会会议 通报省党政代表团赴广东、浙江两省考察学习情况 决定召开中共四川省委十一届九次全会', '5月21日，省委召开常委会会议，通报省党政代表团赴广东、浙江两省考察学习情况，研究部署下一步有关工作。决定召开中共四川省委十一届九次全会。省委书记彭清华主持会议并讲话。', '会议指出，这次省党政代表团到广东、浙江两省考察学习，紧锣密鼓举办了一系列会见座谈、宣传推介、协议签署活动，实地到广州市、佛山市、深圳市、杭州市、宁波市的企业、产业园区、高新技术开发区、科研中心、港口等参观考察，切身感受到了两省生机勃勃、蒸蒸日上的发展势头，热火朝天、只争朝夕的建设场景，敢作善成、克难奋进的创业氛围，是一次感恩致谢、增进友谊之行，是一次对标一流、学习先进之行，是一次深化合作、共谋发展之行。通过考察学习，开阔了视野，增进了友谊，拓宽了合作领域。我们要进一步解放思想、对标对表，学经验、找差距，见贤思齐、见贤思进。', '会议强调，要把考察学习成果转化为推动工作的强大动力，把广东、浙江两省的好经验好做法具化为实实在在的措施办法，推动我省高质量发展不断取得新的成效。要学习两省站位“两个大局”、服务和融入国家战略的大格局大手笔，在对标先进中进一步开阔视野、找准定位、拓展自身发展空间，以更大力度加快推进成渝地区双城经济圈建设。要学习两省勇立时代潮头、推动高水平对外开放合作的战略定力，在构建新发展格局中培育四川国际合作和竞争新优势，着力建设支撑国内大循环的经济腹地、打造畅通国内国际双循环的门户枢纽。要学习两省勇于创新创造、大力推动创新驱动发展的使命担当，始终把创新摆在全局核心位置来抓，进一步优化创新生态，切实抓好重大科技突破与面上创新创业，加快建设西部(成都)科学城和中国(绵阳)科技城科技创新先行示范区，在服务国家战略科技力量布局中不断提升四川创新能级。要学习两省抢滩数字高峰、推动数字经济发展的前瞻布局和实践，对标高位、积极作为、后发赶超，加快跻身全国数字经济第一方阵，在四川建设数字强省中实现新的突破、展现更大作为。要学习两省干部群众敢为人先的奋斗精神和一锤接着一锤敲的实干作风，进一步激励全省广大党员干部新时代新担当新作为，始终保持永不懈怠的精神状态和一往无前的奋斗姿态，事不避难、攻坚克难，推动党中央和省委决策部署一项一项落到实处，努力创造无愧于时代、无愧于人民、无愧于历史的新业绩。', '会议决定，今年6月召开中共四川省委十一届九次全会，深入学习贯彻习近平总书记关于创新发展的重要论述和对四川工作系列重要指示精神，全面落实党的十九届五中全会精神和省委十一届八次全会决策部署，研究我省创新发展重大问题并作出决定，以科技创新驱动引领高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>228</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>四川省党政代表团前往浙江省考察学习扎实推进新时代新阶段浙川东西部协作和深化合作共同开创贯彻新发展理念推动高质量发展的新局面两省召开浙川东西部协作和对口支援工作联席会议并签署相关协议袁家军彭清华讲话郑栅洁黄强出席</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2021-05-21</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/zscd1/-/articles/13497914.shtml</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['四川省党政代表团前往浙江省考察学习 扎实推进新时代新阶段浙川东西部协作和深化合作 共同开创贯彻新发展理念推动高质量发展的新局面 两省召开浙川东西部协作和对口支援工作联席会议并签署相关协议 袁家军彭清华讲话 郑栅洁黄强出席 - 党中央国务院信息 - 自贡市政府网站集约化平台', '四川省党政代表团前往浙江省考察学习 扎实推进新时代新阶段浙川东西部协作和深化合作 共同开创贯彻新发展理念推动高质量发展的新局面 两省召开浙川东西部协作和对口支援工作联席会议并签署相关协议 袁家军彭清华讲话 郑栅洁黄强出席', '结束在广东省的考察学习后，5月19日至20日，省委书记、省人大常委会主任彭清华，省委副书记、省长黄强率四川省党政代表团前往浙江省考察学习。浙江省委书记、省人大常委会主任袁家军，省委副书记、省长郑栅洁出席有关活动。', '19日下午，浙川东西部协作和对口支援工作联席会议在杭州召开。袁家军主持会议并讲话，彭清华出席会议并讲话。郑栅洁、黄强分别介绍两省经济社会发展、推进东西部协作和对口支援工作情况。', '袁家军在讲话中对四川省党政代表团一行表示欢迎，并感谢四川长期以来给予浙江的支持和帮助。他说，浙川两地虽相隔千里，但交往源远流长。近年来，四川全面贯彻落实习近平总书记对四川工作重要指示精神，经济社会发展取得新成绩，创造了许多好经验好做法。我们要学习四川勇于发展新局的战略视野、推动经济社会高质量发展的高招良策、求真务实改善民生的为民情怀、建设幸福家园的实干担当。东西部协作任务调整后，浙川关系更加密切。我们将全面贯彻习近平总书记关于东西部协作和对口支援工作的重要论述精神，将东西部协作作为深化浙川合作的桥梁纽带，做好政策有序衔接，资金帮扶力度不减、智力帮扶推陈出新、产业帮扶突出特色、消费帮扶提升潜力，稳步开展新时代东西部协作；不断拓展合作领域，推进成渝经济圈和杭甬“双城记”联动协作、加强国家战略科技力量协同、深化绿色发展经验交流、开展战略物资储备领域合作、做深劳务协作，共同服务和融入新发展格局；持续拓展交往内涵，共同守护好发扬好红色资源，以党政交往带动民间交流、推进文化旅游合作，进一步促进浙川交流，努力推动浙川交流合作再上新台阶。', '彭清华在讲话中对浙江省委、省政府及各有关方面长期以来给予四川的支持帮助表示感谢。他说，这些年来，浙江坚定贯彻党中央决策部署，切实担当先富帮后富、最终实现共同富裕的政治责任，无论外部环境如何复杂、自身发展任务有多重，始终倾情倾力帮扶四川，极大推动了我省脱贫攻坚进程和经济社会发展，充分展现了中国特色社会主义制度优越性，生动诠释了伟大脱贫攻坚精神。浙江人民的深情厚谊已深深印刻在巴蜀大地和四川各族人民心中，我们永远不会忘记。进入新发展阶段，党中央对东西部协作和对口支援结对关系作出调整，明确浙江“一对一”帮扶四川，延续了浙川25年来历久弥新的“山海情”。这是习近平总书记、党中央对四川的特别关怀，是浙江省委、省政府和浙江广大干部群众对四川的大力支持。我们将以此为新的起点，继续与浙江在巩固拓展脱贫攻坚成果、全面推进乡村振兴中深化合作，共同提升脱贫地区发展水平；在服务国家战略中深化合作，携手融入和构建新发展格局；在推动高质量发展中深化合作，更好实现优势互补、发展共赢；在增进民生福祉中深化合作，切实增强两省人民获得感幸福感安全感，共同开创贯彻新发展理念、推动高质量发展的新局面。', '会上，观看了浙川扶贫协作和对口支援专题片《山海万里浙川情》，双方签署了《深化浙川东西部协作和交流合作框架协议》。', '美丽西子湖畔，又见援川亲人。19日，省党政代表团在杭州召开浙江援川扶贫干部座谈会，代表家乡人民看望援川扶贫干部和专业人才。浙江援川扶贫干部、教师、农技人才代表等作交流发言，回顾与四川人民并肩战斗的难忘历程、结下的特殊情谊。彭清华在讲话中指出，四川脱贫攻坚的战场中，处处有广大浙江援川扶贫干部和专业人才负重前行的身影，涌现出一批感人至深的先进典型和先进事迹，为我省决战脱贫攻坚、决胜全面小康作出了重要贡献，也留下了宝贵的精神财富。大家敢教日月换新天的责任担当、不破楼兰终不还的实干作风、直把他乡当故乡的奉献精神、真心实意为人民的深厚情怀，值得我们认真学习。今后，无论大家身在何处、从事什么样的工作，四川永远是你们的“第二个家”。希望大家继续当好浙川“山海情”的守护者、传承者，一如既往关心关注四川，多为两省深化合作交流穿针引线、牵线搭桥，多为四川发展建言献策出力。会上，彭清华向浙江援川扶贫干部代表颁发荣誉证书、赠送专题宣传片。', '同日，省党政代表团在杭州举行四川产业合作（浙江）投资推介会。会前，彭清华、黄强会见了参会的长三角地区知名企业及商协会负责人。彭清华在推介会致辞中着重就大家关心的成渝地区双城经济圈建设情况作了介绍。他指出，在这一国家战略引领下，四川经济版图正在整体重塑，创新动能正在加快聚集，开放位势正在加速提升，消费潜力正在逐步释放。希望大家积极抢抓机遇，多来四川挖掘新的商机，寻找新的合作空间，进一步拓展合作领域，更好实现互利共赢。我们将一如既往提供公平竞争的市场环境、公正透明的法治环境、宽松优惠的政策环境、高效廉洁的政务环境，让大家在川安心投资、舒心生活。', '在浙期间，省党政代表团前往杭州智慧e谷、海康威视数字技术公司、宁波舟山港穿山港区、万华工业园区考察，实地了解浙江省市推动重点区域建设运营、重点产业打造、数字经济发展、推进科技创新等情况；还举行了制造业和文化旅游两场专题投资推介会，部分市（州）开展了多种形式的招商推介活动。', '浙江省领导陈金彪、黄建发、周江勇、彭佳学、陈奕君、李卫宁、高兴夫、陈铁雄，四川省领导范锐平、王一宏、于立军、李云泽、彭琳、宋朝华、罗强、李刚、陈炜、林书成、刘成鸣，两省有关市（州）和省直部门负责同志等参加考察或会议。 （记者 张守帅 摄影 欧阳杰）']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>228</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>四川省党政代表团前往广东省考察学习站在新的起点深化粤川全面战略合作携手书写践行新发展理念构建新发展格局的时代新篇两省举行粤川深化战略合作座谈会并签署相关协议李希彭清华讲话马兴瑞黄强李玉妹出席</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2021-05-19</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/zscd1/-/articles/13482206.shtml</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['四川省党政代表团前往广东省考察学习 站在新的起点深化粤川全面战略合作 携手书写践行新发展理念构建新发展格局的时代新篇 两省举行粤川深化战略合作座谈会并签署相关协议 李希彭清华讲话 马兴瑞黄强李玉妹出席 - 党中央国务院信息 - 自贡市政府网站集约化平台', '四川省党政代表团前往广东省考察学习 站在新的起点深化粤川全面战略合作 携手书写践行新发展理念构建新发展格局的时代新篇 两省举行粤川深化战略合作座谈会并签署相关协议 李希彭清华讲话 马兴瑞黄强李玉妹出席', '5月17日至18日，四川省党政代表团前往广东省考察学习。17日下午，粤川深化战略合作座谈会在广州市举行。广东省委书记李希主持会议并讲话。四川省委书记、省人大常委会主任彭清华出席会议并讲话。广东省委副书记、省长马兴瑞，四川省委副书记、省长黄强，广东省人大常委会主任李玉妹出席会议。广东省委副书记、深圳市委书记王伟中参加有关活动。', '李希代表省委、省政府对四川长期以来给予广东经济社会发展的大力支持表示感谢。他说，近年来，两省坚决贯彻总书记、党中央决策部署，深入开展东西部扶贫协作和对口支援工作，在携手合作、互学互鉴中实现了优势互补、合作共赢。广东将围绕“新发展阶段、新发展理念、新发展格局”重要要求，加快打造新发展格局战略支点，认真学习借鉴四川的好经验好做法，积极探索省际合作新思路、新模式，推动粤川合作向更宽领域、更深层次、更高水平拓展，在共同参与构建新发展格局中打造合作“升级版”。一是进一步携手巩固拓展东西部协作成果。推动签约项目尽快落地、开工项目加快建设，鼓励引导更多广东企业赴川投资兴业、投身乡村振兴，为两省合作注入源源不断新动能。二是进一步携手深化重大战略对接。加强粤港澳大湾区、深圳先行示范区“双区”建设同成渝地区双城经济圈建设等国家战略的对接联动，加快促进形成优势互补、高质量发展的区域经济布局。三是进一步携手强化改革开放联动。加大自贸试验区、“一带一路”建设等交流合作，共同参与西部陆海新通道建设，共享共用广交会、高交会、西博会等平台资源和渠道，为构建新发展格局提供内联外通的强大支撑。四是进一步携手深化科技产业合作。找准科技创新合作切入点，加快建立完善区域产业链条上下游联动机制，深化电子信息、装备制造、先进材料等优势产业合作，共同提升产业链供应链的韧性和竞争力。五是进一步携手培育强大内需市场。引导企业双向布局，互相参与双方重大商贸平台、重要商务活动，推动川货出川、粤货出粤，共同谋划旅游合作，更好服务构建全国统一大市场。', '彭清华在讲话中对广东省委、省政府和各有关方面长期以来给予四川的支持帮助表示感谢。他说，多年来，广东省委、省政府积极响应党中央号召，坚持从“两个大局”、实现共同富裕的战略高度落实国家东西部扶贫协作和对口支援部署，倾力支持和帮扶四川甘孜涉藏地区和凉山彝区，为我省攻克深度贫困堡垒作出了不可替代的贡献，在四川脱贫攻坚史册上留下了浓墨重彩的“广东印记”。四川人民永远铭记、心怀感恩。进入新发展阶段，以习近平同志为核心的党中央着眼经略西部腹地、完善区域布局、促进协同发展，作出建设成渝地区双城经济圈的重大战略决策，进一步提升了四川在构建新发展格局中的战略位势。四川提出建设支撑国内大循环的经济腹地、打造畅通国内国际双循环的门户枢纽，与广东提出的打造新发展格局战略支点，两者互补性强、融合度高，为新时代深化粤川合作提供了广阔空间。我们希望与广东一道，用好泛珠三角区域“9+2”合作机制，服务国家重大区域发展战略，大力推进互联互通，更好发挥开放平台作用，共同拓展开放合作新空间;推动创新要素集聚共享，积极探索创新合作新模式，促进人才、技术、设备等创新要素全面对接，携手打造科技创新共同体;促进优势资源整合互补，加强产业深度对接，发展“飞地经济”，共同做大文旅市场“蛋糕”，持续提升区域产业竞争力;巩固拓展脱贫攻坚成果，接续做好乡村振兴大文章，在优势互补、共赢发展中帮助四川农民迈向共同富裕;深化民生领域交流合作，不断创造两省人民新福祉，让粤川群众越走越近、越走越亲。', '座谈会上，观看了粤川扶贫协作和对口支援宣传片《山海万里粤川情》，马兴瑞、黄强分别介绍两省经济社会发展、粤川扶贫协作和对口支援工作开展情况，以及深化两省合作的工作建议。在粤川两省领导见证下，广东省与我省签署了《深化粤川全面战略合作框架协议》，佛山市与凉山州签署了《缔结友好城市协议书》。', '扶贫风雨路，永结粤川情。17日下午，广东援川扶贫干部座谈会在佛山市召开，援川扶贫干部、教师、医护人员代表等作交流发言，回首难忘岁月、共话美好未来。彭清华在讲话中指出，广东全体援川扶贫干部和专业人才以热血赴使命、以行动践诺言，义无反顾投身四川脱贫攻坚战场，留下了许多感人至深的扶贫故事，充分体现了广东干部人才的政治意识、责任担当、顽强斗志和深厚情怀，这份山高水长、休戚与共的珍贵情谊历久弥新。大家把四川作为“第二故乡”，我们邀请大家常回家看看，喝酥油茶、尝坨坨肉、品麻辣烫、摆龙门阵，重温艰辛历程、共叙战友之情。希望大家一如既往地关心四川、宣传四川、推介四川，多为两省深化交流合作牵线搭桥，多为“第二故乡”的改革发展献计出力。会上，彭清华还向广东援川扶贫干部代表颁发荣誉证书、赠送专题宣传片。', '18日下午，我省在深圳市举行四川产业合作(广东)投资推介会。会前，彭清华、黄强会见了参会的驻港、驻粤中央企业和珠三角地区知名企业负责人。彭清华在推介会致辞中介绍了治蜀兴川各项事业取得的新进展和“十四五”时期四川发展面临的战略机遇，热忱欢迎大家积极参与成渝地区双城经济圈建设，在基础设施互联互通、科技创新、产业发展、文化旅游和扩大开放等方面加强合作，共创企地美好发展未来。', '在粤期间，省党政代表团前往佳都科技集团、新宝电器公司、华润集团、大族激光科技产业集团和华为公司、中兴通讯公司考察，了解企业运用人工智能技术构筑城市智慧生活、开展就业帮扶工作、参与城市建设运营、实施科技创新等情况;还举行了制造业和文化旅游两场专题投资推介会。部分市(州)还开展了各种形式的招商推介活动。', '广东省领导张硕辅、林克庆、张义珍、张福海、陈良贤、覃伟中、林雄，四川省领导范锐平、王一宏、于立军、李云泽、彭琳、宋朝华、罗强、李刚、陈炜、林书成、刘成鸣，两省有关市(州)和省直部门负责同志等参加考察或会议。（记者 张守帅 摄影 欧阳杰）']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>228</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>大安区何市新店学区联盟到富顺县东湖学区考察学习</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2021-05-14</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sjyj/dep_qxxx/-/articles/13454883.shtml</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['大安区“何市-新店”学区联盟到富顺县东湖学区考察学习 - 战线动态 - 自贡市政府网站集约化平台', '为落实中央和省委关于基础教育优质均衡和做好两项改革“后半篇”文章的最新部署，优化教育资源配置，增强教育公共服务能力，推进基础教育更加公平更高质量发展，推进大安区教体系统学区制改革，5月11日，“何市-新店”学区联盟办公室主任王强组织相关人员到富顺县东湖学区实地考察学习。 东湖学区副主任曾智勇与大家交流分享了富顺县督导室管理模式，特别介绍了督导室管理改革取得的成效。并以富顺东湖小学为实地考察基地，带领大家参观了丰富多彩的社团活动和校园文化建设，从学校的生源情况、办学模式、管理机制、校园建设等方面向大家进行了详细介绍。学习考察组在参观的同时采访了一线教师和行政管理人员，从他们的话语中感受到了他们对督导室管理工作的认可，体现了新时代教育教学管理模式的优越性、科学性和创新性。东湖学区党委书记、主任何平就学区办公条件、职能职责分工、经费保障、制度落实等方面进行了详细的介绍，双方在会议室进行了座谈交流。 “何市-新店”学区联盟办公室主任王强表示，本次考察既是一次有目标、有方向、有组织的实践性学习活动，也是一次关于学区制管理改革的探索活动。“何市-新店”学区联盟将对考察学习过程进行梳理，总结经验、增加措施，制定出管理改革实施方案，深入推进大安区学区制改革试点工作。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>228</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>范波率队赴江苏省昆山市考察学习</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2021-05-08</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/bdzx/-/articles/13411453.shtml</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['5月7日，自贡市委书记范波率队赴江苏省昆山市考察，学习借鉴昆山高质量发展宝贵经验，协同落实长三角一体化、成渝地区双城经济圈建设等国家战略，推进东西部城市建立产业合作结对关系，共同打造承接东部地区产业转移示范区和对外开放合作新平台，突破性推动“昆自合作”，以改革创新举措，探索行政区与经济区适度分离，促进区域交流合作和协同共兴，加快走出自贡版“昆山之路”。昆山市委书记吴新明参加座谈交流。', '座谈会上，范波对昆山给予自贡发展的关心和支持表示衷心感谢。他指出，昆山是全国县域经济的领头羊，外向型经济的排头兵，高质量社会主义现代化建设的标杆，昆山敢为天下先的“昆山之路”是自贡市推动超常跨越发展的榜样。我们提出了要“近学成都，远学苏州，对标昆山”，就是要学习昆山的担当精神，争当表率、争做示范，争先创优、走到前列，在再造产业自贡的新征程中干出新业绩、实现新作为；学习昆山的实干精神，坚持发展第一任务，加快走出老工业城市转型升级新路；学习昆山的创新精神，切实做到思想大解放、环境大改善、能力大提升；学习昆山的改革精神，尤其要对标昆山的营商环境建设，始终把优化营商环境作为推动高质量发展、提振市场信心、增强城市核心竞争力的关键一招，让企业和各界朋友在自贡投资放心生活舒心；学习昆山的专业精神，着力打造一支专业化、高素质的干部队伍，为再造产业自贡提供人才保障；学习昆山的为民情怀，坚持以人民为中心发展理念，不断增强群众幸福感获得感。范波表示，自贡正深刻领会把握“新发展阶段、新发展理念、新发展格局”精髓要义，积极抢抓成渝战略历史性机遇，坚持以“再造产业自贡”为总牵引，系统实施“1743”战略举措，加快建设新时代深化改革扩大开放示范城市、现代产业城市、生态文明城市、城乡一体繁荣幸福城市“四个城市”，确保实现“十四五”时期经济年均增速高于全省平均水平、城乡居民人均可支配收入增速高于全省平均水平、常住人口城镇化率高于全省平均水平、研发经费投入强度提升幅度大幅高于全省平均水平“四个高于目标”，努力在贯彻落实党中央和省委省政府重大决策部署、优化营商环境、增进民生福祉、加强党的建设等四个方面走到前列，大力实施“项目攻坚三年行动”“开放发展与营商环境提升年行动”两项行动，深入推进“三抓联动四重并举”，推动自贡超常跨越。希望昆山一如既往关心自贡、支持自贡，不断深化“昆自合作”，在协同对接国家战略中实现两市共兴。', '吴新明对范波书记一行的到来表示欢迎，对“昆自合作”的基础和前景表示期待。他说，今年以来，昆山延续去年的强劲发展势头，经济社会发展呈现稳中加固、稳中有进的良好局面。自贡是全国首批老工业城市产业转型升级示范区、国家历史文化名城，城市文化底蕴深厚，再造产业自贡、融入成渝战略成效明显。昆山和自贡同处长江经济带，进入新发展阶段、贯彻新发展理念、构建新发展格局，为两地深化合作带来了新的空间和机遇。希望两地在产业发展、人才交流、市场合作、资源互补等方面共商合作机制，助推两地实现更高质量发展，为服务长江经济带发展战略、成渝地区双城经济圈战略、促进东西部区域协调发展创造有益经验、作出更大贡献。他表示，“昆自合作”有基础有条件，下一步双方建立工作专班，在干部人才交流、投资促进和产业合作、文旅合作、共建产业转移园区等方面深入对接，深度研究合作内容和模式，真正实现昆自协同发展。', '自贡市领导徐其斌、张邦举、陈扬杰，昆山市领导管凤良、沈一平、孙勇，两市相关部门负责同志参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>228</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>自贡市残联赴重庆市綦江区考察学习并签订协作发展协议</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2021-04-27</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/bdzx/-/articles/13353315.shtml</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['自贡市残联赴重庆市綦江区考察学习 并签订协作发展协议 - 自贡资讯 - 自贡市政府网站集约化平台', '为助力成渝地区双城经济圈建设，扎实推进学史力行行动，细化延伸“我为群众办实事”实践活动广度，4月22日至23日，自贡市残联党组书记、理事长丁世良率班子成员和各县（区）残联、高新区社军局负责人一行10人前往重庆市綦江区考察学习残疾人工作，签署两地残疾人事业协同发展框架协议。', '丁世良一行实地参观了綦江区残疾人康复中心，对康复中心建设情况、项目运营管理情况以及人员设备配置情况进行全方面的了解和学习。在其后召开的座谈会上，双方就残疾人工作情况进行了深入交流，就两地残疾人事业协作方向进行了深入探讨，自贡市残联党组书记与綦江区残联党组书记代表双方签署了《助力成渝地区双城经济圈建设残疾人事业协同发展框架协议》。', '协议议定，自贡市残联与綦江区残联将以成渝地区双城经济圈建设为契机，共同围绕残联职责定位，结合两地工作实际，建立协同发展、信息共享、对口联系等三大机制，共同在涉残政策、康复服务、教育就业、文体宣传、维权保障、组织建设和队伍建设等七个方面开展常态交流，继而实现信息互通、资源共享、服务互认，协同推动两地残疾人事业高质量发展。（自贡市残联）']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>228</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>对标先进考察学习创新突破提质升位</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2021-04-25</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/-sgsj/dep_gzdt/-/articles/13345607.shtml</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['为不断提高商事制度改革工作水平，进一步优化我市市场环境，助力营商环境提质升位，4月16日，自贡市2021年市场环境提升行动工作组牵头单位自贡市市场监管局党委书记、局长余忠带队赴四川天府新区行政审批局考察学习营商环境建设工作。 考察组一行学习了四川天府新区在国际化营商环境建设、企业开办、政务服务等方面的先进经验和做法，特别是对推进“一枚印章管审批”、涉企融合“e窗”通、涉企“多勘合一”、深化“证照通”改革、电子证照电子印章应用试点和政务服务“异地同标”融入成渝双城经济圈建设等多项改革工作进行了深入考察学习。在座谈交流会上，余忠介绍了自贡优化营商环境和实施市场环境提升行动相关工作情况，四川天府新区行政审批局局长李谦详细介绍了创新试点政务服务“四项改革”和推进区域一体化协同发展等相关情况。 市委政研室（改革办）、市委目标绩效办、市委市政府重点工作督导组、市市场监管局、市司法局、市商务局、市政务服务和数字化管理局等营商环境指标评价责任单位负责人和相关科室负责人参加考察学习。 考察学习会后，余忠还率营商环境指标评价责任单位负责人和相关科室负责人到省市场监管局进行了工作汇报对接，省市场监管局表示将全力支持自贡在企业开办、市场监管等营商环境建设方面的工作。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>228</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>市供销社召开年一季度统计工作会考察学习</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2021-04-23</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/gzdt/-/articles/13340909.shtml</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['市供销社召开2021年一季度统计工作会考察学习 - 工作动态、要闻 - 自贡市政府网站集约化平台', '4月19日上午，全市供销系统一季度统计工作会在市供销社会议室召开。会议由机关党委书记张珍主持，党组书记、理事会主任刘学良、理事会副主任贺树斌出席会议，市供销社财务审计科、资产管理科、社务指导科、综合业务科相关人员及各区县供销社主要领导、分管领导参加会议。 会上，综合业务科、资产管理科、财务审计科分别就2021年一季度全系统统计、财务直报平台的各项主要经济指标、财务指标情况进行了通报。各区县主要领导就目前统计工作中出现的问题与不足以及下一步打算依次进行了发言。 贺树斌指出，一是解决认识问题，要深刻认识统计工作的重要性，充分理解统计工作对于指导实践的重要意义。二是解决人员问题，要确保统计人员队伍相对稳定，不断提升统计人员素质。三是解决发展问题，要加大“开门开放”办社力度，进一步加强基层社建设，不断壮大供销系统，为统计数据提供有力支撑。 张珍要求，一是各区县供销社要把统计工作作为全年重要工作，认真抓好抓实。二是各区县供销社要认真完成每月的数据上报工作，仔细核对数据，主要领导、分管领导要严格把关，确保统计数据的真实性、准确性。三是要把握统计数据填报时间节点，确保上报数据的及时性、有效性。 刘学良强调，一是要认清形势，高度重视，各区县供销社要认清我市供销系统发展形势，充分认识目前统计工作中依然存在的问题，务必做到一把手亲自部署、亲自过问、亲自协调。二是要认真分析，落实行动，对照统计指标要求，认真分析存在的差距，杜绝误报、漏保、少报的情况出现，使统计数据与我社发展的事实相符。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>228</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>考察学习共进步交流分享促发展大足区九三学社课题调研组来贡井区考察医共体建设</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2021-04-02</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.gj.gov.cn/gzdt/-/articles/13240297.shtml</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['考察学习共进步 交流分享促发展-——大足区九三学社课题调研组来贡井区考察医共体建设 - 政务动态 - 贡井区人民政府', '考察学习共进步 交流分享促发展-——大足区九三学社课题调研组来贡井区考察医共体建设', '4月1日下午，九三学社重庆市大足区基层委员会副主委胡荷蕾一行课题调研组14人来贡井区考察交流医共体建设及医疗质量管理等工作，九三学社自贡市委专职副主委沈涛，九三学社自贡市委组宣部长、参政议政室主任杨翔，医共体常务理事任勇等陪同考察。 调研组一行首先前往医共体牵头单位市三医院参观了远程影像诊断中心，任勇向考察团一行现场介绍了医共体建设运行情况，远程诊断中心主任周科对远程会诊、远程放射和远程心电运行情况做了现场交流。贡井区医共体实现诊断治疗互联互通，使老百姓在家门口就能享受到三甲医院高水平的诊疗服务，让群众就近看得上病，看得好病，提升了百姓就医的安全感和获得感。 随后召开的座谈会上，任勇就贡井区紧密型医共体总体情况、主要做法、取得的成效和下一步打算进行了介绍，重点对成员单位医疗质量管理、事业编制“周转池”、“三张清单”、医防融合、五中心一平台建设等方面作了详细介绍。 座谈会上大足区九三学社课题调研组还与任勇就医共体建设中的人事编制管理及如何提升成员单位医疗质量管理，提升基层服务能力等问题进行了深入探讨和交流，为进一步贯彻落实成渝地区双城经济圈发展战略，助推川渝两地医共体建设共同进步。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>228</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>自贡市供销社组织人员赴威远县供销社考察学习</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2021-04-19</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/gzdt/-/articles/13317118.shtml</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['自贡市供销社组织人员赴威远县供销社考察学习 - 工作动态、要闻 - 自贡市政府网站集约化平台', '为学习和借鉴威远县供销社深化供销社综合改革的先进经验，推进内自同城化、大威现代农业园发展合作，4月15日，自贡市供销社党组书记、理事会主任刘学良率市社党组成员、理事会副主任贺树斌，社务指导科、办公室负责人，以及大安区供销社负责人等一行，到威远县供销社考察学习和协商对接。内江市供销社党委委员、副主任周伟陪同考察。 考察组一行先后到威远县向义供销有限公司、向家岭无花果种植农民专业合作社、威远县绿禾农业生产资料贸易有限责任公司和四川久润泰科技有限公司现场考察，深入了解他们在发展农产品公共集配中心、农村电子商务、基层组织体系建设、社有企业和合作社等方面的做法和经验，双方就如何参与乡村振兴战略、推进内自同城化发展、做好两项改革“后半篇”文章工作、强化服务“三农”能力等方面进行了交流和探讨，双方坦诚相待，互学互促，进一步开阔了思路，拓宽了视野。 此次考察学习交流搭建起了双方共识共为的交流平台，一致表示将以此次交流学习为起点，尽快促成《大威现代农业园基层供销社建设战略合作协议》签订，持续开展常态化学习和交流，相互借鉴、取长补短、优势互补，建立深度合作的长效机制，携手开创高质量发展的新局面。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>228</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>考察学习找差距实地交流知方向大安区卫生健康局赴成都学习寻找发展新思路</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2021-04-28</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.zgda.gov.cn/gzdt/-/articles/13366155.shtml</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['考察学习找差距，实地交流知方向 ——大安区卫生健康局赴成都学习寻找发展新思路 - 工作动态 - 大安区人民政府', '为加快智慧医院、医养康养建设，提高大安区医疗卫生服务水平、信息化建设水平，4月23日，区卫生健康局局长董顺带领辖区部分医院院长，到成都医学院、四川省华迪信息技术有限公司进行考察交流学习。 考察团一行参观了成都医学院大健康与智能工程学院“健康大数据中心”，聆听了成都医学院先进的理论和丰富的建设经验，双方就智慧医院、医养康养建设以及医护人员队伍建设等方面进行深入地交流讨论。在四川华迪信息技术有限公司，考察团成员体验了智慧医养的不同场景，详细了解了医养康养智能化发展前景。 考察后大家表示，此次学习感触很深、收获很大，四川华迪信息技术有限公司为大安区提供了智慧医院、医养康养建设规划方案，为我区医养康养、智能化建设提供了宝贵的建议，让大家看到了行业的先进技术与未来发展，同时，也意识到了自身建设的局限、存在的不足，对今后发展有了更加明确、更加清晰的规划。 据悉，大安区卫健局将以此考察学习为，规划筹备该区智慧医院、医养康养建设，推动医养康养智能化,助力医养融合项目建设,进一步提高该区医疗卫生服务水平、信息化建设水平。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>228</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>自贡市供销社组织人员赴威远县供销社考察学习</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2021-04-16</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sgxs/dep_gzdt/-/articles/13315159.shtml</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['自贡市供销社组织人员赴威远县供销社考察学习 - 工作动态 - 自贡市政府网站集约化平台', '为学习和借鉴威远县供销社深化供销社综合改革的先进经验，推进内自同城化、大威现代农业园发展合作，4月15日，自贡市供销社党组书记、理事会主任刘学良率市社党组成员、理事会副主任贺树斌，社务指导科、办公室负责人，以及大安区供销社负责人等一行，到威远县供销社考察学习和协商对接。内江市供销社党委委员、副主任周伟陪同考察。 考察组一行先后到威远县向义供销有限公司、向家岭无花果种植农民专业合作社、威远县绿禾农业生产资料贸易有限责任公司和四川久润泰科技有限公司现场考察，深入了解他们在发展农产品公共集配中心、农村电子商务、基层组织体系建设、社有企业和合作社等方面的做法和经验，双方就如何参与乡村振兴战略、推进内自同城化发展、做好两项改革“后半篇”文章工作、强化服务“三农”能力等方面进行了交流和探讨，双方坦诚相待，互学互促，进一步开阔了思路，拓宽了视野。 此次考察学习交流搭建起了双方共识共为的交流平台，一致表示将以此次交流学习为起点，尽快促成《大威现代农业园基层供销社建设战略合作协议》签订，持续开展常态化学习和交流，相互借鉴、取长补短、优势互补，建立深度合作的长效机制，携手开创高质量发展的新局面。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>228</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>推进自贡国家骨干冷链物流基地建设自贡市组成考察组赴北京考察学习</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2021-04-09</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/bdzx/-/articles/13264921.shtml</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['推进自贡国家骨干冷链物流基地建设 自贡市组成考察组赴北京考察学习 - 自贡资讯 - 自贡市政府网站集约化平台', '近日，市口岸物流办组织自贡市相关企业组成考察组，赴北京市学习考察冷链物流重点企业，以更好地推进自贡市冷链物流体系和自贡国家骨干冷链物流基地建设。', '考察期间，考察组在北京五环顺通供应链管理有限公司，了解了如何由单一的仓储服务业、运输业发展到全温度段库房存储、全国冷链运输、京津冀地区冷链共同配送等多方面业务发展史，并现场查看冷库运营情况，深入学习优质存、优质配、优质运、优质送、优质购、优质销等“优质”系列品牌服务先进经验。随后，考察组走访了中外运冷链物流有限公司，参观其建成投运的冷库，详细了解冷库的日常管理模式，制冷设备、仓储设施的信息技术等情况，为自贡市运用智慧手段完善冷链物流基础设施网络，解决农产品产地“最初一公里”和城市配送“最后一公里”难题提供了有益的参考和借鉴。', '与此同时，考察组盛情邀请北京企业来自贡市走访调研，寻找双方合作的契合点及方向。各企业纷纷表示，通过此次交流沟通，进一步了解了自贡良好的冷链物流发展前景，他们期待与自贡在多领域、深层次开展务实合作，共创美好未来。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>228</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>市口岸物流办率队赴北京考察学习冷链物流体系建设工作</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2021-03-31</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/gzdt/-/articles/13231752.shtml</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['市口岸物流办率队赴北京考察学习冷链物流体系建设工作 - 工作动态、要闻 - 自贡市政府网站集约化平台', '为推进我市冷链物流体系和自贡国家骨干冷链物流基地建设，3月30日市口岸物流办副主任游小锋率队赴北京市考察冷链物流重点企业，市国投集团总经理助理张学丰、市港融公司董事长张春燎、市港融公司总经理叶惊雷，以及市口岸物流办相关科室人员参加。 在北京五环顺通供应链管理有限公司，游小锋一行了解了该公司如何由单一的仓储服务业、运输业发展到全温度段库房存储、全国冷链运输、京津冀地区冷链共同配送等多方面业务发展史。现场查看冷库运营情况，深入学习“优质存”“优质配”“优质运”“优质送”“优质购”“优质销”等“优质”系列品牌服务先进经验。随后，游小锋一行走访了中外运冷链物流有限公司，认真参观建成投运的冷库，详细了解冷库的日常管理模式，制冷设备、仓储设施的信息技术等情况。在考察过程中，游小锋盛情邀请企业到自贡去走访调研，寻找双方合作的契合点及方向。企业均表示，通过此次交流沟通，进一步了解了自贡良好的冷链物流发展前景，公司将努力寻找与自贡冷链物流产业发展的契合点，在多领域、深层次开展务实合作，共享发展机遇，共创美好未来。', '此次考察，为自贡市运用智慧手段完善冷链物流基础设施网络，解决农产品产地“最初一公里”和城市配送“最后一公里”难题提供了有益的参考和借鉴，为打造区域性物流中心城市注入了动力。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>228</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>荣县人民政府副县长胡爱华带队赴重庆市考察学习</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2021-03-29</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.rongzhou.gov.cn/-25/-/articles/13280050.shtml</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['月26日，荣县人民政府副县长胡爱华带队赴重庆市国际物流枢纽园区、青凤高科产业园、中电光谷智创园等考察，了解园区建设和运营管理模式，学习招商引资先进经验。荣县经开区管委会、县投资促进局、拓新公司、井盐源公司等参加。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>228</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>考察学习促提升交流经验共发展</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2021-03-10</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/swsjsw/193/-/articles/13148246.shtml</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['考察学习促提升 交流经验共发展 - 医药卫生体制改革 - 自贡市政府网站集约化平台', '近日，乐至县政协党组书记、主席吴琪一行莅市考察交流贡井区紧密型医联体建设工作。考察组一行先后前往市三医院和成佳中心卫生院，参观了医联体牵头医院建设和基层医疗机构远程医疗及“两病”专科门诊改造等方面的情况。考察组与贡井区政协、区卫生健康局等单位负责人就医联体建设中的人事编制管理、医保支付方式改革及基层医疗卫生机构服务能力提升等热点话题进行了深入探讨交流。考察团表示，贡井区医联体有效促进各成员单位医疗服务能力提升，基层群众看病就医获得感明显增强。贡井区政协党组成员、副主席杨会宇，贡井区卫健局党委书记、局长吴鸿莉，市三医院党委副书记、院长、医共体理事长章成等陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>228</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>内江市委组织部一行余人莅临华商商圈党群服务中心考察学习</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2019-04-02</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.zggx.gov.cn/101/-/articles/10150210.shtml</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['内江市委组织部一行30余人莅临华商商圈党群服务中心考察学习 - 高新党建 - 自贡高新技术产业开发区管理委员会', '近日，内江市委组织部一行30余人莅临华商商圈党群服务中心考察学习。考察组一行先后参观了华商商圈党群服务中心红色驿站、开发驿站、青春驿站和便民驿站，听取了华商商圈党委关于“商圈+党组织”的党建联盟和商圈党建“融合式”发展经验。随后，考察组就党建引领商圈发展、商圈党员的日常管理等方面与高新区进行了深入探讨。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>228</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>熊伟率队考察学习长治通用航空产业展览会</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2019-04-30</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.gj.gov.cn/gzdt/-/articles/10289636.shtml</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['4月25日，区委常委熊伟率队一行9人赴山西考察学习首届长治通用航空产业展览会。自贡航空产业园区管理服务中心副主任刘远初、管委会综合科科长罗彬、区文广旅局局长雷礼及航展工作小组有关成员参加考察。 4月26—28日，为期3天的2019长治通用航空产业展览会暨航空体育文旅发展论坛（简称“长治航展”）在长治市屯留区沙家庄机场盛大开幕。此次航展由长治市政府、山西省体育局主办，高新区管委会、屯留区政府、长治航空运动学校、北京航空航天大学通用航空产业研究中心共同承办，以“传承通航历史、推进航空运动、发展通航产业、再续航空梦想”为主题。 考察组认真学习了开幕式流程、展区内各静态飞机及参展企业的布局安排，航空运动主题馆、通航产业主题馆、航空文化科普体验馆等场馆的功能布局。熊伟指出，一是要认真学习考察，把此次长治航展作为学习提升的良好契机；二是要认真总结经验，在考察借鉴的基础上，规避和杜绝影响展会举办效果的细节问题，三是要认真谋划思考，努力将自贡航展办成一届专业性强、规格高、影响力大的特色展会。 随后的座谈会上，考察组还同此次航展承办单位之一的北航高远洋团队深入交流了此次航展的组织架构、活动经费、安保组织等方面的具体内容，为我市即将举办的首届2019年自贡•国际通用航空大会筹备工作做好功课、奠定基础。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>228</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>高新区党工委委员叶茂恒率队赴成都考察学习党建工作</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2019-04-30</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.zggx.gov.cn/101/-/articles/10242930.shtml</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['高新区党工委委员叶茂恒率队赴成都考察学习党建工作 - 高新党建 - 自贡高新技术产业开发区管理委员会', '近日，高新区党工委委员叶茂恒率队赴成都天府新区、高新区、锦江区考察学习党建工作新模式、新方法和创建成功经验，为切实提高我区党建示范创建工作的针对性、时效性、科学性提供有益借鉴。高新区党群工作部，各街镇乡、高新国投、灯彩集团、中兴耐磨、芭夯食品、自贡在线、金苹果幼稚园有关负责人参加考察活动。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>228</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>考察学习先进地市经验助力投资审计转型发展</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2019-04-26</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/ssjj/dep_gzdt/-/articles/10252145.shtml</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['考察学习先进地市经验 助力投资审计转型发展 - 审计动态 - 自贡市政府网站集约化平台', '为落实我局2019年“大数据审计提升年”目标任务，提高我市投资审计信息化工作水平，服务地方经济高质量发展的目标。4月22日，自贡市审计局利用赴宜宾市宜叙高速公路投资绩效审计调查契机，到宜宾市审计局考察学习投资审计大数据运用暨投资审计“三个转变”情况。宜宾市审计局演示和解析了2016年开始使用的“宜宾市审计综合管理平台”,其投资审计工作在“争取党委政府重视和支持、紧扣党政关心群众关注重大投资项目开展审计监督、推动项目参建各方履职尽责，加强投资审计跟踪审计监督、突出项目审计的过程管控和留痕管理、强力推进内审前置程序、提高投资审计效率和审计成果运用”等方面的做法和经验值得学习和借鉴。 下一步，我局将认真组织学习省内先进地市审计机关成功做法和经验，围绕党委政府中心工作，着力推进投资审计转型发展。一是思想认识上再深一层，充分认识审计监督促进经济社会健康发展中的不可替代作用，增强自身服务地方经济发展自觉性和紧迫感，以有为才有位、创先争优的理念，做好本职工作；二是创新思路上再进一步，围绕做好当前实施重大项目绩效审计和重大项目跟踪审计，周密谋划，精心组织，强力推进，用实实在在的成效，赢得党委政府对投资审计工作的重视支持；三是坚持提高投资审计信息化水平，推动重大项目管理平台建设，加大项目建设和审计过程各个阶段基础资料收集和整理，形成完整的过程信息化资料档案，使投资审计过程和结果完整清晰；四是加大投资审计廉政风险防控，优化选择、使用、考核中介机构关键环节的制度设计。同时严格执行审计“四严禁”、“八不准”，强化廉政纪律、工作纪律和保密纪律，以严谨细致的作风，扎实开展审计调查和重点项目跟踪审计，做到依法审计、文明审计，树立审计人员良好形象。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>228</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>市统计局到高新孵化园区考察学习信息化建设工作</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2019-03-26</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/stjj/dep_gzdt/-/articles/10131062.shtml</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['市统计局到高新孵化园区考察学习信息化建设工作 - 工作动态 - 自贡市政府网站集约化平台', '为提升统计信息化建设水平，加快推动统计大数据建设。3月22日，市统计局党组书记、局长祁向东率队一行6人，深入高新孵化园区海云同创公司考察学习信息化建设工作。 考察组一行参观了海云同创公司智慧办公、大数据平台建设以及智能会议系统，详细了解了智慧社区、智慧医疗、智慧园区等产业平台。随后召开座谈会，双方就统计大数据平台建设、政务信息资源共享、统计现代化智能办公等方面进行深入探讨。 通过深入学习考察，考察组认为海云同创公司智慧办公和大数据平台建设具有特色，对自贡统计系统大数据建设和智慧办公有着重要的启示和指导作用。下一步，市统计局将坚持科技强统，运用现代科技再造统计流程，稳步推进大数据统计云建设，全面推进政务信息资源共享，提高统计现代化信息化水平。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>228</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>沿滩区委组织部一行人到高新区考察学习基层党建工作</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2019-03-29</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.zggx.gov.cn/101/-/articles/10143629.shtml</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['沿滩区委组织部一行30人到高新区考察学习基层党建工作 - 高新党建 - 自贡高新技术产业开发区管理委员会', '3月28日，沿滩区委组织部一行30人到高新区考察学习基层党建工作。考察团一行先后参观学习了中兴耐磨新材料有限公司党支部、华西能源工业股份有限公司党委和华商商圈党群服务中心，分别听取了各单位党建工作的经验做法。考察团一致认为，将充分学习借高新区在基层党建工作中的先进做法，结合实际，认真研究，努力开创党建工作新局面。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>228</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>德昌县统计局一行来我市开展对口帮扶考察学习活动</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2019-02-27</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/stjj/dep_gzdt/-/articles/10002513.shtml</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['德昌县统计局一行来我市开展对口帮扶考察学习活动 - 工作动态 - 自贡市政府网站集约化平台', '2月20日至22日，市统计局对口帮扶的凉山州德昌县统计局何健副局长带队来我市开展考察学习，针对近期的经济普查和乡村振兴两项重点工作进行了深度交流，市统计局副局长徐丰根陪同调研。 调研组先后来到自流井区农团乡尖山村党群服务中心、荣边镇中农联优质柑橘产业基地、尖山乡村振兴学院等地进行实地调研，观看了尖山发展规划宣传片，并听取有关情况介绍。双方人员就经济普查、乡村振兴和对口帮扶工作充分交换了意见和建议，何健副局长表示此次调研收获颇丰，对我市经普工作采取的措施和在乡村振兴发展思路上的创新给予了充分肯定。 双方还表示对口帮扶工作将建立长期联系机制，并结合两地的实际情况，在业务培训、人才交流、物资保障、互派人员考察学习上再升级加力，将帮扶工作落到实处。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>228</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>四渡赤水纪念馆一行到市盐业历史博物馆考察学习</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2019-02-21</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/swgxj/-11/-/articles/9974583.shtml</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['四渡赤水纪念馆一行到市盐业历史博物馆考察学习 - 文旅产业 - 自贡市政府网站集约化平台', '为加强馆际交流，进一步解放思想、拓展视野，提高工作人员业务水平，2月15日下午，习水县政协副主席、四渡赤水纪念馆馆长罗永赋一行18人到市盐业历史博物馆考察学习。', '罗永赋馆长一行首先参观了全国重点文物保护单位西秦会馆和盐博馆基本陈列“中国井盐科技史”“自贡盐税史陈列”等。他们对盐博馆基本陈列“中国井盐科技史”“自贡盐税史陈列”有着非常浓厚的兴趣，对巧夺天工的钻井工具群和自贡先民的聪明才智赞不绝口，并对抗战时期自贡人民做出的贡献更是赞叹不已，不时与讲解员进行交流。', '随后，在学术报告厅，市盐业历史博物馆与四渡赤水纪念馆就讲解接待、社教活动、文化创意及法人治理等方面进行了全面而深入的交流。市盐业历史博物馆馆长程龙刚、副馆长周瑜昆、办公室主任朱德芝、宣教部副主任李貌及展骥公司副经理缪自平参加了工作经验交流会。最后，四渡赤水纪念馆副馆长袁正纲对市盐业历史博物馆的热情接待和工作上毫无保留的传经送宝表示衷心感谢。袁馆长说，四渡赤水纪念馆将认真学习盐博馆的经验做法，进一步推动纪念馆社教活动、文化创意等工作，让纪念馆真正“活”起来，争取早日建成国家一级博物馆。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>228</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>四渡赤水纪念馆一行到市盐业历史博物馆考察学习</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2019-02-18</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/swgxj/-36/-/articles/10109118.shtml</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['四渡赤水纪念馆一行到市盐业历史博物馆考察学习 - 文化遗产 - 自贡市政府网站集约化平台', '为加强馆际交流，进一步解放思想、拓展视野，提高工作人员业务水平，2月15日下午，习水县政协副主席、四渡赤水纪念馆馆长罗永赋一行18人到市盐业历史博物馆考察学习。', '罗永赋馆长一行首先参观了全国重点文物保护单位西秦会馆和盐博馆基本陈列“中国井盐科技史”“自贡盐税史陈列”等。他们对盐博馆基本陈列“中国井盐科技史”“自贡盐税史陈列”有着非常浓厚的兴趣，对巧夺天工的钻井工具群和自贡先民的聪明才智赞不绝口，并对抗战时期自贡人民做出的贡献更是赞叹不已，不时与讲解员进行交流。', '随后，在学术报告厅，市盐业历史博物馆与四渡赤水纪念馆就讲解接待、社教活动、文化创意及法人治理等方面进行了全面而深入的交流。市盐业历史博物馆馆长程龙刚、副馆长周瑜昆、办公室主任朱德芝、宣教部副主任李貌及展骥公司副经理缪自平参加了工作经验交流会。最后，四渡赤水纪念馆副馆长袁正纲对市盐业历史博物馆的热情接待和工作上毫无保留的传经送宝表示衷心感谢。袁馆长说，四渡赤水纪念馆将认真学习盐博馆的经验做法，进一步推动纪念馆社教活动、文化创意等工作，让纪念馆真正“活”起来，争取早日建成国家一级博物馆。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>228</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>四渡赤水纪念馆一行到市盐业历史博物馆考察学习</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2019-02-19</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/swgxj/dep_gzdt/-/articles/9960918.shtml</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['四渡赤水纪念馆一行到市盐业历史博物馆考察学习 - 工作动态 - 自贡市政府网站集约化平台', '为加强馆际交流，进一步解放思想、拓展视野，提高工作人员业务水平，2月15日下午，习水县政协副主席、四渡赤水纪念馆馆长罗永赋一行18人到市盐业历史博物馆考察学习。', '罗永赋馆长一行首先参观了全国重点文物保护单位西秦会馆和盐博馆基本陈列“中国井盐科技史”“自贡盐税史陈列”等。他们对盐博馆基本陈列“中国井盐科技史”“自贡盐税史陈列”有着非常浓厚的兴趣，对巧夺天工的钻井工具群和自贡先民的聪明才智赞不绝口，并对抗战时期自贡人民做出的贡献更是赞叹不已，不时与讲解员进行交流。', '随后，在学术报告厅，市盐业历史博物馆与四渡赤水纪念馆就讲解接待、社教活动、文化创意及法人治理等方面进行了全面而深入的交流。市盐业历史博物馆馆长程龙刚、副馆长周瑜昆、办公室主任朱德芝、宣教部副主任李貌及展骥公司副经理缪自平参加了工作经验交流会。最后，四渡赤水纪念馆副馆长袁正纲对市盐业历史博物馆的热情接待和工作上毫无保留的传经送宝表示衷心感谢。袁馆长说，四渡赤水纪念馆将认真学习盐博馆的经验做法，进一步推动纪念馆社教活动、文化创意等工作，让纪念馆真正“活”起来，争取早日建成国家一级博物馆。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>228</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>泸州市教育局考察团到我市考察学习教体融合发展经验</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2019-01-29</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sjyj/dep_jyyw/-/articles/9889414.shtml</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['泸州市教育局考察团到我市考察学习教体融合发展经验 - 教育体育要闻 - 自贡市政府网站集约化平台', '1月28日上午，泸州市委教育工委书记、市教育局党组书记、局长黄辉带队，到自贡市教育和体育局考察学习机构改革，教育体育合并后相关工作运行先进经验。自贡市委教育体育工委书记、市教育体育局党委书记、局长周耘及相关领导出席座谈会。 会上，自贡市委教育体育工委委员、市教育体育局党委委员、机关党委书记杨旖旎对泸州市教育局与会人员的到来表示热烈欢迎，对自贡市原教育局和原体育局整合后的自贡市教育和体育局的主要职责、领导职数、内设机构、中层职数、人员编制、下属事业单位机构编制设置以及机关离退休干部管理的情况进行了介绍。 随后, 自贡市委教育体育工委副书记、市教育体育局党委委员刘程同志介绍了成立教育工委等相关情况。周耘局长详细介绍了两局整合后的整体情况，并分析了整合后各项工作取得的成绩和不足之处。两局的人事科和计财科就业务工作做了进一步的交流和探讨，会谈取得良好效果。 最后，周耘局长表示，希望两局加强沟通交流，深化友谊合作，并表达了自贡市要学习和借鉴泸州市基础教育和职业技术教育的创新举措，推动自贡教育再上新台阶，实现高质量发展的愿望。黄辉局长对自贡市教育和体育局的热情接待表示感谢，并表示这次自贡之行时间虽短但收获很大，不虚此行。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>228</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>甘孜州发改委莅市考察学习社会信用信息平台建设和公务用车改革工作</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2019-01-10</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sfgw/dep_gzdt/-/articles/9806121.shtml</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['甘孜州发改委莅市考察学习社会信用信息平台建设和公务用车改革工作 - 工作动态 - 自贡市政府网站集约化平台', '1月3日，甘孜州发展和改革委员会党组成员、副主任汪新宇带队到我市考察学习社会信用信息平台建设和公务用车改革工作。市发改委机关党委书记李心宏组织召开了考察学习座谈会，市财政局、市人社局、市机关事务管理局和委体改科、财金科参加会议。 李心宏书记首先向甘孜州发改委考察组一行介绍了我市开展社会信用信息平台建设和公务用车改革的基本情况，市财政局、市人社局、市机关事务管理局和委体改科、财金科参会同志就甘孜州发改委考察组关心的具体问题进行了深入交流。 甘孜州发改委考察组高度肯定了我市在社会信用信息平台建设和公务用车改革工作方面取得的成绩，表示不虚此行，深受启发。请求在下一步甘孜州开展相关工作时，我市能给予指导和帮助。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>228</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>邓瑜一行赴山东上海考察学习</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2018-12-18</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sdfzb/-60/-/articles/9712822.shtml</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['2018年12月11日—14日，四川省地方志办党组成员、机关党委书记邓瑜率省情信息工作处、市县志工作处、政策法规宣传处及绵阳市、泸州市地方志办相关人员赴山东、上海两地考察学习，围绕加强方志馆和数字方志馆建设、推动地方志资源开发和利用、提高信息化建设水平，让社会各界更广泛了解地方志、更便利获取地方志、更方便利用地方志，更有效服务党委政府中心工作、服务经济社会建设等方面内容进行学习交流。', '—14日，四川省地方志办党组成员、机关党委书记邓瑜率省情信息工作处、市县志工作处、政策法规宣传处及绵阳市、泸州市地方志办相关人员赴山东、上海两地考察学习，围绕加强方志馆和数字方志馆建设、推动地方志资源开发和利用、提高信息化建设水平，让社会各界更广泛了解地方志、更便利获取地方志、更方便利用地方志，更有效服务党委政府中心工作、服务经济社会建设等方面内容进行学习交流。', '在山东省地方史志研究院，山东省地方史志研究院副院长林杰、原山东省史志办副主任翟世林出席座谈会，双方就志书编纂、方志馆建设、地情资料开发等地方志工作进行广泛交流，就如何更好地加强地情网建设、方志馆建设、志书开发利用，以充分发挥资政育人作用，为当地经济社会发展服务问题进行了深入的探讨。邓瑜一行还实地参观了山东省方志馆。', '在上海市地方志办公室，上海市地方志办公室副主任王依群出席座谈会，双方就志书数字化、加快推进“互联网+”平台建设、新媒体应用、地情资料开发进行了广泛交流，上海市金山区“金山记忆”微信平台相关负责人就如何做好传播平台，提升地方志工作影响力等问题进行了详细的讲解，上海通志馆相关负责人以《上海滩》为例就如何提升办刊水平、提高稿件质量、拓展期刊影响等进行了介绍。邓瑜一行还实地参观了上海通志馆。', '邓瑜对山东省、上海市地方志同行提供的大量可借鉴的经验和中肯的建议表示衷心感谢。她说，此次考察深受鼓舞和启发，考察组要认真总结学习考察的所听、所看、所学、所感，记下好点子、带回好经验，充分运用此次学习考察成果，对标先进、激励奋进，进一步增强发力赶超、跨越发展的紧迫感和责任感，提出切实可行的工作建议。', '考察组成员一路看、一路想、一路议，备受震撼和鼓舞，大家一致认为此次学习考察主题明确、内容充实、受益匪浅，是一次解放思想、开阔眼界之行。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>228</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>对标先进力促乡村振兴贡井区乡村振兴考察组赴成都浙江等地考察学习纪实</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2018-12-05</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.gj.gov.cn/gzdt/-/articles/9644850.shtml</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['对标先进 力促乡村振兴 ——贡井区乡村振兴考察组赴成都、浙江等地考察学习纪实 - 政务动态 - 贡井区人民政府', '11月29日-12月1日，由贡井区11个乡镇，区政府办、区委农工委、区建住局、区农牧林业局、区文体旅游局、区水务局、区交通局等部门的主要负责同志组成的贡井区乡村振兴考察组，在区委常委、宣传部长陈伯於，区政府副区长吴正刚的带领下，前往成都市崇州市道明镇竹艺村、郫都区唐昌镇战旗村、成都农享荟和浙江省天台县街头镇后岸村考察学习当地实施乡村振兴战略情况，重点聚焦美丽乡村建设、农村产业发展、人居环境整治及深化农村改革创新工作，学习借鉴它们的先进思路、运行模式和创新方法，对标先进、开阔视野、问计取经。 充分挖掘特色乡土文化 形成一二三产业融合发展 考察竹艺村游客中心 竹艺村位于国家级非物质文化遗产竹编小镇——崇州市道明镇，距崇州市区约15分钟车程，距成都市区约1小时车程，交通便捷。竹艺村总占地面积约123亩，涉及86户村民，背山面田，山上有大片的竹林、松树林、果园及河沟等都自然景观，优美娴静，地势稳定，林盘农家与周边高大树木、竹林、河流及外围耕地等自然环境有机融合，形成生态的居住环境，村落乡风淳朴，生活气息浓厚，邻里关系亲密，是成都乡村振兴典型示范村。无论周末还是小长假，游客纷至沓来，带来人气的同时，也带动村里经济发展，往昔竹编村，今日竹艺村已成了名副其实的“网红村”。 考察竹艺村竹编博物馆 29日中午，当考察组一行抵达这个火遍全国的“网红村”时，无不惊叹它浓厚独到的传统文化气息！比如用竹的外壳形状制作内墙的纹理、用竹编制作建筑的外立面，随处可以见到当地竹编技艺的创造性应用。该村同时充分挖掘具有地方特色的竹艺竹编和川西林盘等农耕文化内涵，发展传统文化与现代文明有机融合的新产业新业态，引入文创旅游精品项目，形成了文创设计、农事体验、民俗参与、休闲养心、生态观光、运动康养等产业发展新格局。 竹艺村一瞥 考察组成员先后参观了竹艺村游客服务中心、来去酒馆、三径书院、遵生小院、竹编博物馆、青年旅舍、第五空间、网红建住“∞”等地，一边看、一边问、一边思考，认真了解了当地践行“乡村振兴战略”， 引入社会资源发展优势特色产业，多业态融合打造区域性乡村品牌的主要做法和经验。 深化改革是推动发展的源泉 不断探索乡村振兴的新路子 在战旗村 29日下午，考察组前往第二站郫都区唐昌镇战旗村学习考察。这里，天清气朗、屋宇井然、物阜民安。 战旗村 独具川西民居特色洋房别墅，是战旗村一道亮丽的风景线。战旗村近年来能够发生巨大的变化，其中一个重要原因是历届村“两委”班子坚持不懈带领全村群众深化改革，而且改得十分彻底。无论是土地增减挂钩试点、农村产权制度改革，还是集体经营性建设用地入市改革，都走在前面。通过改革，盘活“沉睡”资源，壮大了村集体经济，实现了资源变资本、产权变股权、农民变股民，实现了由“打工经济”向“创业经济”转型，实现了由“传统农村”到“全国文明村”的华丽蜕变，积极探索出一条“农商文旅融合发展之路”，形成了“领、创、改、治、富、美、育、文”乡村振兴八字经验。 在战旗村 “推进乡村振兴，核心是深化改革。考察学习了战旗村，我看到了我们在农村改革中与全国先进地区的差距。”桥头镇镇长王美君表示，该镇将充分发挥近郊优势，激发土地更大的活力，发展现代观光体验农业，做强产业支撑，促进农旅融合发展，推进乡村振兴。 考察战旗村传统产业 此次考察同样让区文体旅游局长雷礼感触颇深，尤其是战旗村在推进一二三产业融合发展以及竹艺村在挖掘特色文化方面的做法给她留下了特别深刻印象。她表示，要把此次考察的所见所闻所学充分融入到贡井文旅项目建设中，坚持规划先行，发掘特色文化内涵，进一步做精做细做深项目规划，坚持创新思维，把文化建设充实到乡村振兴工作之中，深层次挖掘贡井文化元素，做精文化品牌。 他山之石可以攻玉 乡村振兴关键在于敢为人先 夜访后岸村 后岸村位于浙江省天台县街头镇。30日下午六点，当考察组来到此地，已是傍晚十分，华灯初上，村庄静谧，别有一番景致。 后岸村，近年来大力发展休闲旅游业，从靠“卖石板”转变为卖“风景”，全村有348户1200多人，80%的村民都吃上“旅游饭”，开办各类民宿近百家，共计2000多张床位，年客流量超过200万人次。从一个石材村到成为全国学习的样板，“风景”让后岸村很火很风光。 考察民俗 考察组一行在村口下车，透过灯光，沿着沧桑的石板路，一路边走边看，充满历史气息的街景、各具风格的精品民宿都引人驻足流连。在一家名为隐泉的民宿店内，考察组成员与业主仔细交谈，深入了解经营方式和收入情况。 “从村里热依山取石的历史已有上百年，并在上世纪90年代发展到了极致，到现在用了短短7年时间，后岸村的百姓抛弃多年的‘卖石板’生活，转身投入‘卖风景’的行列。”负责当晚解说的同志十分骄傲的一席话引起了大家的深入思考。 静谧后岸 “乡村振兴如磁铁一般吸引着越来越多的年轻人回归植根乡土，乡村才因此变得生机勃勃，充满希望。”区委农工办主任高学礼发出赞叹。“乡村振兴，不是简单的拆旧房子、修新房子，更不是大而全地做产业，而是要意识到老房子、传统产业以及它所承载的乡村文明的价值，充分挖掘和体现本地生态资源特色、乡愁记忆、历史文化和乡风民俗。”这是此次考察组最大的收获。 在为期三天的时间里，考察组成员一路走、一路看，一路思考、一路交流，增长了见识，开阔了视野，增强了信心。大家纷纷表示，参加这次考察学习，受益匪浅、感受颇深，要将此次考察的成果融入乡村振兴工作，在做实科学规划、坚持示范带动、突出生态治理、加强产业支撑、挖掘文化元素等方面下苦功夫、下真功夫，扎实推进乡村振兴，为实现“转型突破、奋力崛起、加快建设繁荣幸福美丽新贡井”做出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>228</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>县规建住房局赴攀枝花考察学习住建管理经验</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2018-11-26</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.rongzhou.gov.cn/gzdt/-/articles/9594903.shtml</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['月15日至18日，荣县东城建设有限公司会同荣县城乡规划建设和住房保障局领导赴攀枝花考察学习公共租赁住房供地、建设、运营管理方面的实践经验。攀枝花市建设局和攀枝花市西区建设局相关领导进行了热情接待并就公共租赁住房的供地方式、出让计划、供地布局、项目成本测算和运营等具体问题进行了深入的讲解和探讨。', '通过本次考察，相关部门对租赁住房建设的思路进一步拓展，了解到各地在政策和建设模式上的创新；对下一步在中心城区积极稳妥地开展公共租赁住房建设的思路和方向进一步明晰。我司将结合本次考察成果尽快组织对中心城区公共租赁住房建设和运营的实施方案进行修改完善。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>228</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>大安区赴富顺县考察学习城乡生活垃圾收运一体化项目</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2019-03-26</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.zgda.gov.cn/gzdt/-/articles/10104998.shtml</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['大安区赴富顺县考察学习城乡生活垃圾收运一体化项目 - 工作动态 - 大安区人民政府', '对标先进找差距 学习标杆促提升 ——大安区赴富顺县考察学习城乡生活垃圾收运一体化项目']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>228</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>李刚带队赴广西浙江考察学习乡村振兴工作</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2018-10-15</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/bdzx/-/articles/9358010.shtml</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['李刚带队赴广西、浙江考察学习乡村振兴工作 - 自贡资讯 - 自贡市政府网站集约化平台', '考察中，李刚反复强调，对自贡这座老工业城市来说，没有乡村振兴，就没有全面振兴。我们要坚定贯彻习近平新时代中国特色社会主义思想特别是习近平总书记关于实施乡村振兴战略的重要论述，遵循省委总体设计，注重处理好“四个关系”，抓牢抓实“五个振兴”，推动全市农业全面升级、农村全面进步、农民全面发展。当前，已接近年末岁尾，全市各级各部门要突出抓好实施乡村振兴战略的重点工作。一是抓牢抓实农业产业园区建设，在政策配套、项目支持、要素供给等方面集中投入、大胆创新，大力发展特色鲜明、要素聚集、链条完善、机制创新的现代农业园区；二是抓牢抓实新村聚居点建设，注重形态、品位、功能、环境综合打造，彰显村落特色、保持乡土风情，加快推进集聚提升、城郊融合、特色保护和搬迁撤并四类村庄建设，实现聚点成线、连线成面；三是抓牢抓实农村人居环境整治，把农村人居环境整治与“三创联动”、生态环境治理等工作统筹起来抓，大力推进“六改三清”，打好乡村生态振兴第一仗。', '副市长鲜光鹏，市委、市政府有关副秘书长，各区县委或政府主要负责同志及市级有管部门主要负责同志参加考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>228</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>杨敬华副主任率队前往成都考察学习</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2018-11-06</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://www.zggx.gov.cn/-2/-/articles/9492316.shtml</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['杨敬华副主任率队前往成都考察学习 - 项目招商 - 自贡高新技术产业开发区管理委员会', '11月2日，高新区管委会副主任杨敬华率队赴成都考察学习装配式建筑生产线及生产技术，促进高新区建筑业转型升级发展，高新区机关、企业、设计单位、专家代表20余人参加学习。考察学习组一行先后深入中建科技成都公司、成都建筑工程集团，现场观摩了预制混凝土构建五条生产线以及BIM技术应用情况等，并就装配式建筑的核心技术、合作开发模式、政府配套政策等前沿问题与各单位进行了深入讨论。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>228</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>区委副书记区长杨斌率队赴浙江考察学习乡村振兴经验做法</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2018-11-22</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.zgda.gov.cn/gzdt/-/articles/9579627.shtml</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['区委副书记、区长杨斌率队赴浙江考察学习乡村振兴经验做法 - 工作动态 - 大安区人民政府', '11月18日至21日，大安区委副书记、区长杨斌率队赴浙江省杭州市和湖州市考察学习乡村振兴。杨斌强调要聚焦乡村“五大振兴”，采取多听、多看、多问、多思、多学等方式深入学习先进经验做法。 三天的时间里，杨斌一行先后考察浙江省3县6镇的9个村，通过听介绍、走现场、提问题等方式深入考察，各村先进做法给大家留下深刻印象。“两山”理论发源地余村从“卖矿产”到“卖风景”、“如果爱、上蠡山”的蠡山村深厚的文化底蕴和旖旎风光、“股票田”里激活土地的沈家墩村、连村民酒席桌数和金额都要管的横山坞村、连续三年承办四季旅游活动的马家弄村、去了就不想走的溪流潺潺的大竹园村、竹产业兴旺发达实现“互联网+”的碧门村……这些紧紧围绕“生态立村”和“两山理论”发展思路的乡村振兴精品村，产业兴旺、乡风文明、治理有序，集体收入远超百万元、人均年收入约3万元，无不给大家深深震撼。 杨斌指出，湖州市乡村产业发展、村级治理、乡风文明、生态保护、组织建设等多方面先进经验值得学习借鉴。他要求要以此次考察为契机，深入学习发展乡村振兴先进理念,将好经验、好做法与大安区实际相结合，全面推动大安区乡村振兴。 区委常委、区委办主任陈科，区人大常委会副主任陈明弟，副区长倪煜旻、刘勇，区政协副主席郭洪英，区政府相关部门主要负责人及各乡镇长参加考察学习。', '三天的时间里，杨斌一行先后考察浙江省3县6镇的9个村，通过听介绍、走现场、提问题等方式深入考察，各村先进做法给大家留下深刻印象。“两山”理论发源地余村从“卖矿产”到“卖风景”、“如果爱、上蠡山”的蠡山村深厚的文化底蕴和旖旎风光、“股票田”里激活土地的沈家墩村、连村民酒席桌数和金额都要管的横山坞村、连续三年承办四季旅游活动的马家弄村、去了就不想走的溪流潺潺的大竹园村、竹产业兴旺发达实现“互联网+”的碧门村……这些紧紧围绕“生态立村”和“两山理论”发展思路的乡村振兴精品村，产业兴旺、乡风文明、治理有序，集体收入远超百万元、人均年收入约3万元，无不给大家深深震撼。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>228</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>区委副书记区长杨斌带队赴张家界市武陵源区考察学习</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2019-05-10</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.zgda.gov.cn/gzdt/-/articles/10304373.shtml</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['区委副书记、区长杨斌带队赴张家界市武陵源区考察学习 - 工作动态 - 大安区人民政府', '5月7日，区委副书记、区长杨斌带队赴张家界市武陵源区考察学习，并与武陵源区政协主席余开平、区委副书记向绪杰等座谈，双方就全域旅游示范区创建等工作进行了深入交流。区领导罗旭东、余泓、周永丰、罗林和区级相关部门、有关乡镇参加考察和座谈。 考察组先后实地考察了武陵源区袁谋文党代表工作室、贺龙公园、袁家界和梓木岗民宿客栈群等地，期间详细了解了武陵源区旅游业发展历程、运营模式、管理方式等内容。 在座谈会上，武陵源区文化旅游局负责人首先从重点工作、主要做法和特色亮点等方面介绍了该区自2016年启动创建国家全域旅游示范区以来的工作经验和做法。周永丰则详细介绍了大安区盐龙灯和美食等旅游资源情况、发展现状和开发思路。 杨斌表示，按照自贡市委市政府的决策部署，大安区正加快建设自贡市文旅融合发展核心区。今年4月，我们刚刚入选天府旅游名县创建候选县名单，计划用3-5年时间创成国家全域旅游示范区。通过实地考察和座谈交流，大安区考察组大开眼界、受益匪浅，必将充分利用本次学习成果，推动大安文旅产业高质量发展。 杨斌要求，大安区考察组全体成员要珍惜学习机会，多看、多问、多听、多思，把先进地区的发展经验，转化为实实在在的工作方法和措施，切实学出心得、学出感悟、学出实效。 考察组还于近日考察学习了凤凰县和阆中市等地的文旅基础设施建设和产业发展等工作。', '杨斌表示，按照自贡市委市政府的决策部署，大安区正加快建设自贡市文旅融合发展核心区。今年4月，我们刚刚入选天府旅游名县创建候选县名单，计划用3-5年时间创成国家全域旅游示范区。通过实地考察和座谈交流，大安区考察组大开眼界、受益匪浅，必将充分利用本次学习成果，推动大安文旅产业高质量发展。 杨斌要求，大安区考察组全体成员要珍惜学习机会，多看、多问、多听、多思，把先进地区的发展经验，转化为实实在在的工作方法和措施，切实学出心得、学出感悟、学出实效。 考察组还于近日考察学习了凤凰县和阆中市等地的文旅基础设施建设和产业发展等工作。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>228</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>县委副书记县长曹友良率队赴湖北开展招商考察学习活动</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2019-09-12</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.fsxzf.gov.cn/gzdt/-/articles/10786032.shtml</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['县委副书记、县长曹友良率队赴湖北开展招商考察学习活动 - 工作动态 - 富顺县人民政府', '9月11—12日，县委副书记、县长曹友良率队赴湖北开展招商考察学习活动。副县长赵兴明，晨光经开区副主任兰陵，县财政局、县自然资源和规划局、县投资促进局、县税务局、中昊晨光化工研究院有限公司相关负责人陪同考察学习。 曹友良一行来到枝江市人民政府，在枝江市政府一会议室召开座谈会，交流学习有效开展招商引资工作方面的成功经验。枝江市委常委、副市长张凯介绍了枝江市情和一区五园发展现状，以及以商招商、产业链招商的成功经验。双方就园区规划、项目引进及优惠政策、项目落地及跟踪服务等内容进行充分交流。曹友良一行还先后考察了枝江经济开发区姚家港化工园展示中心、湖北三宁化工股份有限公司60万吨乙二醇项目和北控姚家港工业废弃物处理及资源化利用项目。 通过考察学习，考察组开阔了视野，更新了理念，就如何推动园区建设、服务项目落地有了更多的思考，招商引资工作方式方法也得到了进一步提升。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>228</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>乐山市文化广播电视和旅游局到我市考察学习文艺院团管理经验</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2019-10-25</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/swgxj/dep_gzdt/-/articles/10977069.shtml</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['乐山市文化广播电视和旅游局到我市考察学习文艺院团管理经验 - 工作动态 - 自贡市政府网站集约化平台', '为促进基层文艺院团管理，加深文旅融合，传承发展优秀传统文化，经乐山市文化广播电视和旅游局领导同意，2019年10月23日派乐山市文化广播电视和旅游局艺术科科长周玲玲，乐山文化发展研究中心党总支书记邓筠，乐山文化发展研究中心川剧艺术研究院院长赵勇刚等一行五人到自贡市川剧艺术中心考察学习文艺院团管理及业务生产方面一些成功的经验和做法。市川剧艺术中心主任蒋刚在艺术中心会议室接待了邓书记、周科长一行。 首先，自贡市川剧艺术中心主任蒋刚简要介绍了自贡市川剧艺术中心的基本情况、内控管理和近几年所取得的成绩后，乐山文化发展研究中心党总支书记邓筠表示，自贡市川剧艺术中心近些年来在自贡市委、市政府、市委宣传部和市文广旅局的领导和支持下，各项工作蒸蒸日上，特别是在大型剧目的打造、推广演出上取得了令人瞩目的成绩，为基层院团的发展树立了一面旗帜。我们来自贡川剧艺术中心参观、交流、学习，就是要学习你们在管理经验、川剧传承、新剧目创作和业务人员培养等方面好的做法和经验。 而后，双方就如何加强内控管理，做好绩效分配充分调动职工积极性；如何搞好川剧传承、推广展演和业务人员培养等方面问题进行了交流座谈。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>228</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>自流井区农业农村局组织区乡农技人员赴小金县考察学习</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2019-10-24</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://www.zlj.gov.cn/gzdt/-/articles/10961467.shtml</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['自流井区农业农村局组织区乡农技人员赴小金县考察学习 - 工作动态 - 自流井区人民政府', '为进一步强化基层农技推广体系改革与建设工作，创新农技推广体制机制，提升基层农技推广队伍科技创新能力和服务化水平，9月15日至18日，自流井区农业农村局副局长李申带队区乡农业技术人员9人赴阿坝州小金县开展现代农业考察学习。 此次考察学习通过现场参观交流和讨论学习相结合的方式进行。考察组一行先后到小金县雅克养殖专业合作社、小金县清多香玫瑰种植专业合作社参观，重点考察当地畜禽养殖、疾病防控、粪污设施建设及综合利用情况，以及信息化、规模化的新产业发展和经营管理模式，充分了解当地农业产业发展优势和技术服务模式，通过“公司+农户”带动产业发展。 通过此次考察学习，整体上提高了基层农技人员的技术水平和业务能力，学习当地先进的做法及经验，为构建全方位、多层次的基层农技人员知识更新体系奠定基础，增强了科技对农业农村经济发展的支撑能力，为自流井区畜牧业绿色健康发展提供坚实保障。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>228</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>市教育体育局等三部门联合赴犍为县考察学习农村道路交通及客运市场整治经验</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2019-10-11</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sjyj/dep_jyyw/-/articles/10906538.shtml</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['市教育体育局等三部门联合赴犍为县考察学习农村道路交通及客运市场整治经验 - 教育体育要闻 - 自贡市政府网站集约化平台', '为深入贯彻全市道路客运市场治理工作推进会议精神，研究解决农村道路客运交通安全问题，10月11日，市教育体育局副局长黄玮晨、市公安局副局长缪建勋、市交通运输局副局长王行富率领教育、运政、交警等相关部门负责人一行赴犍为县考察学习农村道路交通及客运市场整治经验。犍为县副县长、公安局长蔡文富及县公安、交通运输、教育部门和相关乡镇负责人参加考察交流。 考察组一行参观了县交通运输信息服务安全监控中心、县超限超载治理监控大厅、下渡交通综合服务区、清溪镇便民小客停靠点，详细了解了犍为县在农村道路安全监控信息化、镇村客运便民小客车运营、接送学生上下学车辆管理等方面的经验做法。在随后举行的座谈会上，两地围绕农村道路通行保障、交管部门路面执法、运营车辆安全监管、学校交通安全教育等领域进行了深入交流。 下一步，全市教育系统将牢固树立安全第一的发展理念,深入学习借鉴犍为县统筹解决农村学生上下学交通安全难题的先进经验，强化责任担当、着力标本兼治、抓实工作举措，构筑学生交通出行安全防线。一要抓好宣传教育，增强交通文明意识，引导家长、学生自觉拒乘“黑车”出行。二要分门别类建立学生交通出行方式台账，精准分析上下学出行需求，引导学校与公交客运公司主动对接，在上下学时段采取增开点对点班线、增加发车密度等方式解决农村学生出行需求。三要积极会同公安、交通运输等相关部门持续保持打击接送学生车辆违规行驶行为的高压态势，同时认真研究接送学生车辆规范化运营的措施办法，切实维护学生交通出行安全。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>228</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>我市赴天府新区考察学习投资办学经验</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2019-11-07</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sjyj/dep_jyyw/-/articles/11032577.shtml</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['我市赴天府新区考察学习投资办学经验 - 教育体育要闻 - 自贡市政府网站集约化平台', '11月5日，由市教育体育局副局长张强、冯灏，市财政局教科文科科长罗晓君、市教体公司董事长钟志强、总经理邹长英，自贡一中执行校长冷松等一行10人组成的考察组，专程赴成都市天府新区考察学习该区创新学校投资建设方式和多元合作办学模式等方面的先进经验。天府新区社会事业局局长李广、副局长王川及学校领导陪同参观座谈。 在王川副局长、学校校长及相关人员的陪同下，考察组参观了天府四中、天府七中的校园规划布局、校园环境打造及校园文化建设，听取了两校负责人对学校办学理念、办学方向、队伍建设、日常管理等方面的情况介绍。 在座谈会上，李广局长就天府新区的教育生态、教产经营理念、投资办学的创新机制等作了介绍，重点介绍了该区如何与天投教育公司多元化合作、如何灵活运用七种办学模式推进教育改革发展。双方就办学模式、投资模式、后勤管理、分配方式等进行了深入交流。考察组认为天府新区以“只求所用，不求所有”的教产经营理念，推动教育改革发展创新做法和成功实践非常有借鉴意义，我们一定要深入研究和认真学习，进一步加强同天府新区在教育领域的深入交流合作，并结合自贡实际摸索出一条适合我市的教育创新改革之路。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>228</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>自贡市机关事务管理局赴宜宾市考察学习机关事务管理工作</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2019-08-14</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/jgswglj/gzdt/-/articles/10672514.shtml</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['自贡市机关事务管理局赴宜宾市考察学习机关事务管理工作 - 工作动态 - 自贡市政府网站集约化平台', '5月30日，自贡市机关事务管理局党组书记、局长李刚率自贡市机关事务管理局考察学习组一行赴宜宾市，考察学习机关事务管理工作先进工作经验和做法。宜宾市委副秘书长、市委机关事务管理局局长、市政府驻蓉办事处主任罗春涛陪同考察学习。 考察学习中，宜宾市委机关事务管理局就宜宾市市、县（区）机关事务机构改革工作情况，以及近年来贯彻落实《机关事务管理条例》《四川省党政机关公务用车管理实施办法》《四川省党政机关办公用房管理实施办法》等工作情况进行了详细介绍。双方重点围绕落实省机关事务管理局推进机关事务标准化信息化“两化”融合、建立健全机关事务集中统一管理体制，强化办公用房管理、国有资产管理、公务用车管理、机关后勤改革管理和公共机构节能管理等方面的基本做法、经验举措和对下一步工作的思考谋划进行了深入研讨和交流。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>228</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>自贡市机关事务管理局赴遂宁市考察学习</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2019-08-14</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/jgswglj/gzdt/-/articles/10673792.shtml</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['2019年8月1日，自贡市机关事务管理局党组书记、局长李刚一行赴遂宁市，考察学习国有资产管理、办公用房管理、机关后勤管理工作经验。遂宁市机关事务管理局党组书记、局长陈俊陪同考察交流。 座谈中，双方围绕办公用房管理、国有资产管理、公务用车管理、机关后勤管理和公共机构节能管理等方面的基本做法、经验举措进行了研讨和交流。同时，前往遂宁市领导干部周转房小区、机关食堂实地参观，深入了解相关工作开展情况。 李刚一行表示，遂宁局在办公用房维修管理、后勤服务管理、信息化建设和主动融入工作大局方面值得学习借鉴，希望今后进一步加强学习交流，共同提高机关事务管理、服务、保障水平。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>228</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>刘学良主任带队赴昭通市供销社考察学习</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2019-08-08</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sgxs/dep_gzdt/-/articles/10716695.shtml</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['8月5日至6日，自贡市供销社党组书记、主任刘学良率相关科室人员、自流井区供销社副主任廖华宇及四川融禾盐帮实业有限公司相关人员赴昭通市供销社考察学习昭通市供销社在综合改革、构建和完善农产品经营服务体系等工作中的先进经验和做法，促进两地供销系统更深层次全面对接、更高水平联动发展，落实市委市政府南向开放的重大决策部署。 8月5日，刘学良一行前往昭通市隆亿农业科技有限公司、昭通市旧圃镇食用菌产业园、昭通东达种植有限公司和东达良种苗木优质苗圃基地考察学习。昭通市供销社主任赵声满、相关区县供销社负责同志以及相关企业负责同志陪同考察。 8月6日，昭通市供销社在市政府组织召开座谈会，自贡市供销社一行与昭通市供销社、农业农村局相关负责同志及相关专业合作社代表，就农产品基地建设、农特产品供应等领域合作进行深入交流。昭通市各地专合社代表共30余人参加会议，昭通市农业农村局副局长赵高慧参与交流发言。 会上，昭通市供销社主任赵声满简单介绍了昭通市基本市情及昭通市供销社主要工作开展情况。赵声满指出，昭通市人力资源丰富，发展潜力巨大，具有得天独厚的区位优势、自然优势和人文优势，也是一个集山区、革命老区、贫困地区为一体的地区，是全国和全省脱贫攻坚的重点区域和主战场之一。期待能借助此次机会与自贡市供销社加强对口协作交流，共谋发展，合力攻坚，共同建立起稳定的合作关系和农特产品对销渠道，为两地乡村振兴、脱贫攻坚贡献供销力量。 赵高慧对自贡市供销社所取得的成绩予以充分肯定，并就昭通市人文、地貌、气温等情况进行了详细的介绍。赵高慧指出，昭通市是云南省有机绿色食品产地之一，资源禀赋，在得天独厚的地理优势下，培育出了很多优质、特色、有机的农产品。自贡市消费市场大，潜在客户多，远亲不如近邻，期待自贡市供销社一行能够带着信息、带着标准、带着资源到昭通市下订单、建基地、创品牌，形成更好的友邻关系。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>228</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>自贡市教育考察团赴福建考察学习</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2019-06-28</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sjyj/dep_jyyw/-/articles/10497866.shtml</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['6月23日至27日，自贡市人民政府副秘书长黄晓春同志带领市教育体育局、市财政局、市司法局、市自然资源和规划局、市住房城乡建设局一行14人赴福建省进行了为期五天的考察学习。主要围绕学校教育信息化建设与应用、 中小学幼儿园规划建设立法、学校规划建设以及课程建设参观考察了福州、莆田、厦门等地部分学校，听取了他们的先进经验介绍。自贡市教育和体育局局长周耘，副局长冯灏、张强、黄玮晨，以及计财科、基础教育科、政策法规科有关同志参加了此次考察学习。 在福州，考察团一行参观了仓山区第一中心幼儿园、仓山小学、福州三中，并深入了解了福州市在教育信息化建设与应用、智慧校园、创客教育等方面的情况。 在莆田，考察团听取了中小学校幼儿园规划建设立法过程中对预留建设用地标准、小区配建幼儿园、相关部门联动机制等方面的经验介绍，以及《莆田市中小学校幼儿园规划建设条例》颁布实施后莆田市在推行小区配建幼儿园、利用行政事业单位闲置办公场所改扩建学校等方面的有效做法。 在厦门，考察团参观了厦门市五缘实验学校和五缘第二实验学校。听取了五缘第二实验学校校本课程建设推进制度机制和校本课程建设成果介绍，听取了厦门市教育局在校本课程建设方面的推进制度机制和经验介绍。并就地方课程建设、校本课程工作进行了深入的交流。 此次考察，市教育体育局考察团还到福建启迪教育科技有限公司、厦门蓝思科教育科技有限公司、厦门视力通智能科技有限公司等企业进行了考察并洽谈招商事宜。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>228</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>市邮政管理局局长梁帧一行莅临高新区考察学习基层党建工作</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2019-06-19</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://www.zggx.gov.cn/101/-/articles/10456621.shtml</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['市邮政管理局局长梁帧一行莅临高新区考察学习基层党建工作 - 高新党建 - 自贡高新技术产业开发区管理委员会', '6月18日上午，市邮政管理局局长梁帧带队，全市快递业各公司业主、党员一行30余人到高新区考察学习基层党建工作。考察团参观学习了中兴耐磨新材料有限公司党支部，听取了企业党组织负责人对公司基本情况和党建工作经验做法介绍。考察团一致认为，将充分学习借鉴中心耐磨公司党建工作的先进做法，加大党员发展力度，把优秀快递从业人员培养成党员，汇聚快递行业的基层力量，引领全市快递业的健康发展。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>228</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>自流井区农业农村局组织区乡农技人员赴西昌市考察学习</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2019-06-25</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://www.zlj.gov.cn/gzdt/-/articles/10476626.shtml</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['自流井区农业农村局组织区乡农技人员赴西昌市考察学习 - 工作动态 - 自流井区人民政府', '为进一步加强基层农技推广体系改革与建设工作，创新农技推广体制机制，培育精干高效的农技推广队伍，为我区农业产业和乡村发展做好技术服务。6月18日-21日，区农业农村局副局长赖斌带领区乡农业技术人员13人赴西昌市开展现代农业考察学习。 考察组一行人先后到西昌市高草乡大庄村万亩高标准农田示范园区、西昌市太和镇葡萄基地、天喜现代农业科技示范园、西昌市万亩蔬菜园区等开展考察学习。每到一处，考察组人员都认真听取工作人员介绍，并向工作人员虚心请教。 西昌人充分利用该市得天独厚的自然气候优势，扬长避短，创新发展思路，通过政府规划引导、因地制宜整合各类政策措施，借助农业企业和专合社的示范带动作用，以点带面，规模化集中成片建设产业基地，发展区域优势农产品。 此次考察学习不仅让农技人员开阔了视野，学习到了先进的农业技术、工作理念，而且提升了我区技术人员的工作水平，增强了广大农技人员服务农业产业发展的信心和决心，大家表示将以本次考察学习为契机，深入思考，认真分析，结合实际，用学到经验和技术指导我区农业产业发展。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>228</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>自流井区农业农村局名技术人员赴成都地区开展现代农业发展考察学习</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2019-06-19</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.zlj.gov.cn/gzdt/-/articles/10452455.shtml</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['自流井区农业农村局14名技术人员赴成都地区开展现代农业发展考察学习 - 工作动态 - 自流井区人民政府', '为持续深化我区基层农技推广体系改革与建设，适应新阶段现代农业和农村经济的发展需要，强化科技人员岗位培训和知识更新，提升农技推广队伍业务能力和服务水平。近日，区农业农村局副局长张昭赢带领区农业农村局技术人员14人赴成都地区开展现代农业、乡村发展考察学习。 考察组一行走访成都市蒲江县和邛崃市，参观了蒲江县嘉博文5+1学习耕地质量提升综合服务模式、鹤山柑橘产业园区、佳橙果园和邛崃市牟礼镇稻渔虾综合种养示范园区、夹关镇茶园绿色防控示范园等。 示范园区以公司+农户等形式，规模化集中成片建设产业基地，集成先进农业技术，实施绿色发展，实现种、养、加、产、供、销综合服务，为带动农村经济发展，带领农民增收致富做出贡献，为乡村振兴提供了强大的产业支撑。 通过此次考察学习，拓展了我局工作人员思维，强化对现代农业信息化等技术的学习掌握、运用推广。接下来，努力把学到的新技术、新模式运用到技术推广服务中，为促进农村经济发展，实现农民增收致富迈出坚实的一步。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>228</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>曹友良带队赴江苏常熟考察学习</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2019-06-12</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.fsxzf.gov.cn/gzdt/-/articles/10435228.shtml</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['为进一步提高我县企业家队伍和领导干部的综合素质和创新能力，推动我县工业经济高质量发展，6月11日，县长曹友良率领我县氟化工及新材料产业高质量发展考察组赴江苏常熟新材料产业园考察学习。 考察组一行先后考察了产业园展示厅，园区污水处理厂，以及园区生态湿地建设，详细了解企业运营情况，并与园区相关负责人就园区运行建设、产业发展、安全环保等情况进行深入交流座谈。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>228</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>区政协开展推进贡井全域旅游发展调研课题外出考察学习活动</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2019-05-21</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.gj.gov.cn/gzdt/-/articles/10342986.shtml</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['区政协开展“推进贡井全域旅游发展” 调研课题外出考察学习活动 - 政务动态 - 贡井区人民政府', '为切实抓好全省文化和旅游发展大会精神的贯彻落实，推动我区天府旅游名县、文化旅游特色小镇创建工作，5月15-19日，区政协组织开展了“推进贡井全域旅游发展”调研课题外出考察学习活动。 考察组由区政协主席罗洪艳、副主席杨会宇带队，区政协教科卫体委、区文化广电旅游局、区自然资源局等相关部门负责人一行，采取现场观摩、实地考察、听取介绍、座谈讨论等形式，深入部分天府旅游名县候选县、文化旅游特色小镇，对眉山柳江古镇、雅安上里古镇、攀枝花三线建设博物馆、米易普达阳光国际康养产业度假区、凉山会理古镇、宜宾李庄古镇、云南昭通古城、省耕国学文化公园等进行了专题调研，详细调研了周边县市全域旅游融合发展的做法和经验。 通过考察学习，罗洪艳主席对加快推进我区全域旅游发展提出要求：一是以转变思维理念为重点，用全域旅游的理念推动区域资源有机整合、社会共建共享，形成以旅游业促进经济社会发展的区域协调发展模式；二是以推进融合发展为重点，大力推进“旅游+”战略，实施旅游业跨界融合发展，促使更多的新产品、新业态、新模式，为旅游高质量供给提供新动能；三是以突出彰显特色为重点，基于我区产业现状、资源禀赋、比较优势，推动重点旅游项目率先突破发展，做出样板，全力推进全域旅游发展；四是以整合资金资源为重点，促进旅游资源市场化配置，形成政府主导、群众参与、多方投资、共同开发的格局，破解全域旅游资金难题。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>228</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>市教育体育局党委书记局长周耘率队赴眉山考察学习职业教育发展经验</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2019-05-17</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sjyj/dep_jyyw/-/articles/10331365.shtml</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['市教育体育局党委书记、局长周耘率队赴眉山考察学习职业教育发展经验 - 教育体育要闻 - 自贡市政府网站集约化平台', '为进一步开拓视野，学习借鉴先进地区发展经验，助力自贡职业教育换挡升级，市教育体育局党委书记、局长周耘率领教体工委副书记刘程、副局长冯灏及部分机关科室、相关学校负责人一行赴眉山市考察学习职业教育发展经验。眉山市教育体育局副局长孙志军及相关科室、天府新区航空旅游学院负责人参加考察交流。 考察团一行先后参访了眉山市高教职教园区、四川城市职业学院，详细了解了眉山市在高职学院创建、中高职教育衔接、高职院校办学及新校区建设等方面的经验做法。在随后举行的座谈会上，两地围绕职业教育开明开放办学、职业院校资源整合，职教专业优化调整等领域进行了深入交流。 周耘要求，全市教育系统要学习借鉴眉山等地的职业教育发展先进模式，研究吃透国家和省职业教育发展相关政策，注重投资管理方的甄别和选择，全力争取高等职业院校落户自贡办学，做精做优自贡职业教育优势特色专业，做大做强自贡职教品牌，全面提升职业教育服务自贡经济社会发展能力。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>228</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>隆昌市人大常委会来富顺考察学习</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2019-05-16</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.fsxzf.gov.cn/gzdt/-/articles/10325693.shtml</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['5月16日上午,隆昌市人大常委会党组副书记、副主任李相富带队专题考察学习我县民营经济健康发展情况，县人大常委会副主任叶正勇及相关单位主要领导陪同考察。考察组先后来到了狮市镇马安村海昇集团、瑞祥商贸城、远达香辣酱等地，实地考察我县民营经济发展情况，听取相关负责人的工作情况汇报。 在随后召开的座谈会上，县人大常委会领导、县政府办领导、县市场监管局、科经信局、商务局、农业农村局主要领导同志纷纷发言，就进一步推动全县民营经济发展提出了意见和建议。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>228</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>精准帮扶打好脱贫攻坚战喜德县水务局一行到自贡实地考察学习</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2019-05-21</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sswj/dep_gzdt/-/articles/10341397.shtml</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['精准帮扶 打好脱贫攻坚战---喜德县水务局一行到自贡实地考察学习 - 水务要闻 - 自贡市政府网站集约化平台', '按照省水利厅2018年印发《四川省水利厅关于开展深度贫困地区脱贫攻坚农村饮水安全技术帮扶工作的通知》要求，自贡市2018~2020年对口技术帮扶喜德县脱贫攻坚农村饮水安全。为贯彻落实好年度帮扶任务，我局邀请喜德县人民政府副县长吴家鹏及县水务局局长海松一行11人，于2019年5月14日至17日来我市交流学习脱贫攻坚农村饮水安全建设管理相关工作。通过短短三天的交流学习，喜德县学习交流组一行认为本次交流学习成效显著。一是认为在饮水安全规划建设能力方面得到提升，为他们在推进城乡供水一体化以及规模化、规范化、标准化管理村镇供水工程方面提供新的思路；二是增强水质管控能力，学习了我市村镇供水工程建立的“三级水质检测体系”、收购兼并小供水公司等建设管理方面的工作经验；三是学习了水利扶贫支持产业发展的经验，尤其是在高效节水灌溉、五小水利等工程在支持农业产业扶贫方面发挥的积极作用。 喜德县一行人员参观学习水厂制水工艺 喜德县一行人员参观学习高效节水灌溉工作']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>228</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>市发展改革委赴重庆市大足区考察学习营商环境</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2020-05-21</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sfgw/-91/-/articles/11833755.shtml</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['市发展改革委赴重庆市大足区考察学习营商环境 - 经济建设 - 自贡市政府网站集约化平台', '5月20日，我市发展改革委谢志坚副主任带领行政审批科一行4人，赴重庆市大足区考察学习营商环境方面的先进经验和实践做法。期间在大足区行政服务中心、优化营商环境服务中心重点考察了大足区优化营商环境电子监察系统和评估分析系统。并在大足区发改委进行座谈交流，进一步学习大足区优化营商环境相关工作推进机制和经验做法。为我市对标先进地区，优化提升营商环境指标，全面推动优化营商环境工作提供了有力的借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>228</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>贡井区副区长张林森一行考察学习兴文县现代服务业发展工作</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2020-07-08</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://www.gj.gov.cn/gzdt/-/articles/12059698.shtml</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['贡井区副区长张林森一行考察学习 兴文县现代服务业发展工作 - 政务动态 - 贡井区人民政府', '近日，贡井区副区长张林森带领区商务局班子成员、部分乡镇分管领导等前往宜宾市兴文县考察学习现代服务业发展工作，兴文县委常委、副县长刘化军、兴文县旅游服务业发展促进中心主任李刚等接待考察组一行。 张林森一行首先来到兴文县电子商务产业园区考察学习。园区运营方四川淘实惠电子商务有限公司负责人引导参观，并介绍园区前期筹备、电商平台建设、企业引进培育、特色品牌打造、电商扶贫及物流配送等方面采取的工作措施。期间，考察组对兴文县电商产业的发展表示高度的赞扬，并结合贡井区电商发展情况提出一系列问题，并听取对方的宝贵意见。 随后，考察组来到当地农村电商服务站进行实地参观，学习农村电商站点建设及运营模式，以及如何推动农产品上行相关问题。张林森副区长操作当地电商平台“淘实惠”终端，了解农民如何通过该终端进行卖货买货。他表示，这样的终端平台，真正的实现“工业品下乡”和“农产品进城”的双向流通，同时也针对农产品应该严把监督关、质量关等方面提出建议。考察组前往兴文县现代服务业聚集区和物流产业园区参观学习。运营方向调研组介绍了园区的建设和使用情况，并展示集聚区的发展历程和精准扶贫的成果。考察结束，张林森一行对兴文县接洽人员表示真挚感谢，希望双方结为友好区县，诚邀兴文县到贡井区参观考察，进一步加深沟通和了解，共谋第三产业发展。 通过此次考察学习活动，使考察组成员开阔了视野、拓宽了思路，对其他地区电商、物流等产业发展情况有了进一步了解，吸取了先进工作经验和有效措施，为我们在今后工作中结合贡井实际，进一步推动现代服务业发展提供了借鉴和帮助。（夏瑞）']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>228</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>自贸区自贡协同改革先行区法治保障组赴成都三中心考察学习</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2020-06-12</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/zgssfj/dep_xwfb/-/articles/11938557.shtml</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['自贸区自贡协同改革先行区法治保障组赴成都“三中心”考察学习 - 新闻发布 - 自贡市政府网站集约化平台', '2020年5月18日，市司法局党委书记、局长吴兰带领自贸区自贡协同改革先行区法治保障组部分成员，赴中国国际经济贸易仲裁委员会四川分会（成都国际仲裁中心）、一带一路国际商事调解（西南）中心和一带一路外国法查明（西南）中心（以下简称“三中心”）考察学习，迈出了我市协同改革先行区法治保障工作的重要步伐。 考察学习中，“三中心”负责人详细介绍了“三中心”设立背景、功能定位、机构设置、人员结构、业务范围、服务流程、运行效果等情况，展示了“三中心”在提供涉外法律服务中与国外有关方面和国内重要外贸企业达成的协作协议、工作成果以及网络服务平台等。', '2020年5月18日，市司法局党委书记、局长吴兰带领自贸区自贡协同改革先行区法治保障组部分成员，赴中国国际经济贸易仲裁委员会四川分会（成都国际仲裁中心）、一带一路国际商事调解（西南）中心和一带一路外国法查明（西南）中心（以下简称“三中心”）考察学习，迈出了我市协同改革先行区法治保障工作的重要步伐。', '考察学习中，“三中心”负责人详细介绍了“三中心”设立背景、功能定位、机构设置、人员结构、业务范围、服务流程、运行效果等情况，展示了“三中心”在提供涉外法律服务中与国外有关方面和国内重要外贸企业达成的协作协议、工作成果以及网络服务平台等。', '交流中，吴兰对“三中心”的热情接洽表示感谢，对“三中心”的建设、运行及成效表示赞赏，同时希望自贡涉外法律服务工作能得到“三中心”的支持帮助。吴兰指出，自贡市地处成渝双城经济圈中间位置，目前正在加快西南（自贡）国际陆港、国家文化出口基地、自贸协同改革先行区建设，涉外法律服务的需求量大，但本市的涉外法律服务资源不足，需要与成都建立相关共享互助机制，通过互利共赢的涉外法律服务模式培育打造成渝地区中部法律服务增长极，切实落实省委提出的“一干多支，五区协同”“四向拓展、全域开放”战略部署，切实服务自贸区自贡协同改革先行区的建设发展。', '成都市司法局、成都市律师协会对自贡方一行的考察表示欢迎，对与自贡建立涉外法律服务工作协作机制表示全力支持，提出下步两市可加强合作，共同研究涉外法律服务协作联系方案，以期下一步达成两市涉外法律服务同城化机制，为自贡自贸区发展提供优质法律服务。', '省律师协会秘书长付仲，成都市司法局律师处处长胡磊，省律师协会监事长、成都市律师协会会长王宗旗等陪同考察学习，并对成都、自贡两市下一步的涉外法律服务协作给予了建设性的意见和建议。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>228</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>县委常委组织部部长赵义全带队赴重庆市荣昌区考察学习</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2020-05-22</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.rongzhou.gov.cn/-25/-/articles/12014373.shtml</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['县委常委、组织部部长赵义全带队赴重庆市荣昌区考察学习 - 乡村振兴 - 荣县人民政府', '月21日至22日，荣县委常委、组织部部长赵义全带队赴重庆市荣昌区考察学习，参观了重庆市畜牧科学院、安陶小镇等，并同荣昌区相关部门签署区域协同发展、产业合作和党建工作等协议，积极融入成渝地区双城经济圈建设。县委组织部、相关县级部门、部分镇街、企业代表等参加。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>228</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>市司法局赴成渝考察学习基层社会治理工作</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2020-05-11</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/gzdt/-/articles/11806278.shtml</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['市司法局赴成渝考察学习基层社会治理工作 - 工作动态、要闻 - 自贡市政府网站集约化平台', '为有力推动成渝地区双城经济圈建设，全面提升基层社会治理能力。4月16日至17日，市司法局党委委员、副局长余小焱带领考察组分别到重庆市渝北区司法局、成都市成华区司法局考察学习基层社会治理工作。 考察组一行先后深入渝北区司法局社区矫正管理局、龙山街道公共法律服务工作站，成华区公共法律服务中心、万年场街道办事处进行实地学习考察，与两地司法局负责同志就社区矫正、公共法律服务、法治宣传、人民调解等基层社会治理相关工作进行了深入交流，对司法行政系统融入成渝地区双城经济圈建设相关举措进行了探讨和研究。 余小焱表示，渝北区司法局在社区矫正工作中创新管理理念，注重管教结合和关爱帮扶，利用政府购买公共服务组建专业团队，做到“专业人做专业事”，取得了很好的社会效果。成华区司法局创新发展新时代“枫桥经验”，在全省率先实现专业律师团队入驻公安派出所全覆盖；深化推行“律警民”协同调解新模式，打造一体化宪法主题街区等先进经验和做法值得学习借鉴。两地在创新社会治理方面紧扣实际、亮点纷呈、作用明显，有力促进了辖区社会和谐稳定。市司法局将以此次考察学习为契机，围绕成渝地区“双城”经济圈建设，全面提升我市司法行政加强社会治理的能力和水平。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>228</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>县委常委组织部部长赵义全带队赴重庆市潼南区考察学习</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2020-05-14</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://www.rongzhou.gov.cn/-25/-/articles/12014214.shtml</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['县委常委、组织部部长赵义全带队赴重庆市潼南区考察学习 - 乡村振兴 - 荣县人民政府', '5月13日，荣县委常委、组织部部长赵义全带队赴重庆市潼南区考察学习，参观了潼南区规划展览馆、汇达柠檬科技集团等，开展了“双城经济，潼荣共融”交流合作座谈会，双方就组织工作、农业产业、园区建设、招商引资等工作进行了深入交流，并举行了合作签约仪式。荣县委组织部、县委党校、县农业农村局、县投资促进局等单位参加。', '月13日，荣县委常委、组织部部长赵义全带队赴重庆市潼南区考察学习，参观了潼南区规划展览馆、汇达柠檬科技集团等，开展了“双城经济，潼荣共融”交流合作座谈会，双方就组织工作、农业产业、园区建设、招商引资等工作进行了深入交流，并举行了合作签约仪式。荣县委组织部、县委党校、县农业农村局、县投资促进局等单位参加。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>228</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>自贡市党政代表团赴重庆市永川区考察学习</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2020-04-14</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/bdzx/-/articles/11690642.shtml</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['自贡市党政代表团赴重庆市永川区考察学习 - 自贡资讯 - 自贡市政府网站集约化平台', '自贡网讯（记者 廖蓝蕾）4月13日，自贡市党政代表团赴重庆市永川区考察学习，并举行自贡·永川合作交流座谈会，深入学习贯彻习近平总书记在中央财经委员会第六次会议上的重要讲话精神，全面落实推动成渝地区双城经济圈建设四川重庆党政联席会议第一次会议部署，抢抓用好重大战略机遇，高质量谋划融入成渝地区双城经济圈建设。自贡市委书记范波，永川区委书记滕宏伟出席座谈会并讲话。自贡市委副书记、市长何树平介绍自贡市情。自贡市人大常委会主任谭豹，市政协主席游开余，永川区人大常委会主任王志飞，区政协主席刘祥全出席。 在永川期间，范波一行先后前往永川区规划展览馆、永川区大数据产业园、长城汽车重庆分公司，考察城市规划建设、重点产业布局、区域协调发展、聚合创新要素等情况。范波向永川近年来改革发展取得的丰硕成果表示衷心祝贺！他说，永川城市建设恢弘大气，城市活力旺盛，干部思想观念解放，发展势头强劲，特别是在谋划成渝地区双城经济圈建设战略落地，以及城市建设、交通体系构建、产业发展等方面，为自贡提供了许多可以借鉴的、行之有效的思路和办法。 座谈会上，范波代表市委、市人大常委会、市政府、市政协对永川区长期以来给予自贡市经济社会发展的大力支持表示感谢。他说，此次考察永川之行收获很大、感触很深，永川深入贯彻落实党中央和重庆市委决策部署，坚定践行新发展理念，围绕发挥成渝地区双城经济圈重要节点、重庆主城都市区战略支点作用，在产城景融合发展、打造区域性中心城市等方面成效显著，对自贡具有积极借鉴意义。他指出，推动成渝地区双城经济圈建设是川渝两地面临的重大历史机遇，加强协同共抓落实既是当前的现实需要又是共同的政治任务。川渝自古就是“一家人”，两地间地缘、人缘、文缘和经济缘深厚，两地合作潜力巨大、前景广阔。希望我们以重大战略协同为统揽，以两地相向共兴为引领，紧紧围绕抢抓战略机遇深化合作，联动形成优势互补、错位发展、良性互动的新格局；围绕共谋重大平台深化合作，谋划建设一批战略实施载体，形成一批支撑功能平台，会同川南渝西相关城市共同建设成渝地区承接东部产业转移示范区；围绕推进基础设施互联互通深化合作，突出推动交通基础设施一网规划、一体化建设；围绕拓展人文交流深化合作，依托特色文化，共同融入巴蜀文化旅游走廊；围绕共享公共服务深化合作，优势互补，整体提升教育医疗等发展水平，切实增强人民群众获得感。 滕宏伟代表永川区委、区人大常委会、区政府、区政协向范波一行永川考察表示热烈欢迎，对我市提出的协同川南渝西城市共同建设成渝地区承接东部产业转移示范区以及重大交通基础设施等给予认同和支持。他指出，推动成渝地区双城经济圈建设四川重庆党政联席会议为我们抓机遇、抓合作指明了方向、提供了遵循。希望双方建立两地互访互动、友好协商、联席会议等机制，定期研究合作事项、通报合作情况，及时解决相关问题，确保各项工作协调高效运转。对标“两中心两地”目标要求，对接省市“十四五”规划编制，进一步强化两地规划衔接，争取更多国家及川渝政策、资金、项目花落两地、推动发展。围绕助推成渝地区双城经济圈建设，结合两地发展实际，加紧策划、实施一批引领性、带动性和标志性的基础设施、产业发展等项目，推动两地合作走实走深。 会上，自贡市委常委、常务副市长王猛，永川区委常委、常务副区长文良印分别介绍了融入成渝地区双城经济圈建设的思路举措。自贡市领导徐其斌、张邦举，永川区领导邓文、宋文、王建华参加活动。', '滕宏伟代表永川区委、区人大常委会、区政府、区政协向范波一行永川考察表示热烈欢迎，对我市提出的协同川南渝西城市共同建设成渝地区承接东部产业转移示范区以及重大交通基础设施等给予认同和支持。他指出，推动成渝地区双城经济圈建设四川重庆党政联席会议为我们抓机遇、抓合作指明了方向、提供了遵循。希望双方建立两地互访互动、友好协商、联席会议等机制，定期研究合作事项、通报合作情况，及时解决相关问题，确保各项工作协调高效运转。对标“两中心两地”目标要求，对接省市“十四五”规划编制，进一步强化两地规划衔接，争取更多国家及川渝政策、资金、项目花落两地、推动发展。围绕助推成渝地区双城经济圈建设，结合两地发展实际，加紧策划、实施一批引领性、带动性和标志性的基础设施、产业发展等项目，推动两地合作走实走深。', '会上，自贡市委常委、常务副市长王猛，永川区委常委、常务副区长文良印分别介绍了融入成渝地区双城经济圈建设的思路举措。自贡市领导徐其斌、张邦举，永川区领导邓文、宋文、王建华参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>228</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>唱好双城记丨自贡市党政代表团赴重庆市大足区考察学习</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2020-04-17</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/bdzx/-/articles/11709870.shtml</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['唱好“双城记”丨自贡市党政代表团赴重庆市大足区考察学习 - 自贡资讯 - 自贡市政府网站集约化平台', '在大足期间，范波一行先后前往施密特电梯有限公司、重庆国飞通用航空设备制造有限公司、中农足丰农业发展有限公司、香国公园考察，观摩学习大足在产业转型升级、现代农业发展、城市规划建设、优化营商环境等方面的经验和做法。', '座谈会上，范波代表市委、市政府感谢大足长期以来给予自贡市经济社会发展的大力支持，对大足近年来改革发展特别是在落实成渝战略谋划未来发展所取得的明显成效表示祝贺。他说，大足以新发展理念推动“4433”发展战略，呈现出蓬勃发展势头，创新举措和先进经验值得自贡学习、借鉴。范波指出，推动成渝地区双城经济圈建设，为成渝地区发展带来前所未有的战略机遇期。希望我们两地共抓重大战略机遇，找准工作结合点和切入点，在战略谋划上深化合作，共同争取把事关长远发展的重大规划、重大项目纳入国家规划；在共创平台上深化合作，会同川南渝西相关城市共同打造成渝地区承接东部产业转移示范区，进一步扩大开放、抱团出海；在文旅互促上深化合作，依托特色文旅资源，融入巴蜀特色文化旅游走廊，精心打造区域文旅品牌；在交通互联互通上深化合作，突出推动交通基础设施一网规划、一体化建设；在产业协作上深化合作，加强产业链、供应链合作，提高两地产业配套协同程度，做强区域支撑，为推动成渝地区双城经济圈建设贡献力量。', '于会文代表大足区委、区政府向范波一行到大足区考察表示热烈欢迎，对自贡市提出的协同川南渝西城市共同建设成渝地区承接东部产业转移示范区以及重大交通基础设施等给予认同和支持。他说，大足正积极抢抓成渝地区双城经济圈建设重大战略机遇，紧扣“4433”发展思路，加快推进文化兴区、工业强区、农业稳区、生态靓区，加快建成富足大足、美丽大足、幸福大足。在推动成渝地区双城经济圈建设中，大足充分发挥拥有千年石刻、千年五金、富硒富锶土壤、良好生态环境、立体交通等独特优势，擦亮六个特色品牌、打造六个区域中心。与此同时，大足深化财政体制、营商环境、招商引资、考核机制等内部改革，充分激发全区干部干事创业活力。推动成渝地区双城经济圈建设，是大足、自贡共同的机遇和责任，希望双方建立高效协作合作机制，对标“两中心两地”目标要求和四川重庆“十四五”规划，加紧整合策划一批大项目，加强互联互通、平台共享和资源整合，推动两地在交通、产业、文旅、农业等方面的合作走深走实。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>228</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>李刚率市党政代表团赴攀枝花考察学习</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2019-12-19</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/bdzx/-/articles/11198895.shtml</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['自贡网讯 （记者 廖蓝蕾）在全市上下深入学习贯彻党的十九届四中全会精神和省委十一届六次全会精神之际，12月15日至16日，市委书记李刚率自贡市党政代表团赴攀枝花市考察学习，深入贯彻省委“一干多支、五区协同”的战略部署，进一步深化区域协同发展，互学互鉴推动转型升级，为推动治蜀兴川再上新台阶作出更大贡献。攀枝花市委书记贾瑞云陪同考察。', '攀枝花市位于川西南、滇西北结合部，正紧紧围绕省委新定位新要求，全力做好钒钛、阳光“两篇文章”，扎实推进钒钛新城和攀西科技城建设，着力打造国际阳光康养旅游目的地，奋力推进英雄攀枝花再出发，阳光康养地开新篇。近年来，自贡坚定实施省委“一干多支”发展战略，紧扣全国首批、四川唯一的老工业城市产业转型升级示范区这块“金字招牌”，奋力打造四川南向开放重要门户城市、全省第二经济增长极中坚力量，尤其是突出特色优势、深化医养结合试点，加快建设川南康疗养生养老基地，全面推动老工业城市迈上高质量发展轨道。两市人文相亲、产业相通，特别是在老工业城市践行新发展理念，推动转型升级方面有着广阔的互鉴交流和战略合作空间，如何取长补短、深化合作，推动康养产业协同创新发展是此次党政代表团考察学习的重点。', '考察学习期间，李刚一行在贾瑞云等陪同下，先后前往普达阳光国际康养度假区和米易县华方颐养中心、太阳谷等康养项目建设现场，学习攀枝花在做好钢铁、阳光“辩证法”，大力发展“康养+”产业的新思路、新理念。康养产业全域化布局、全龄化服务、全时段开发等发展思路、实践路径和推进举措，给代表团留下深刻印象。李刚指出，攀枝花充分发挥特色优势，构建以养老服务产业、健康养生产业、旅游休闲产业等为核心的阳光康养产业体系，推动城市整体转型升级成效显著，大家要全面落实此次考察学习成果运用，进一步开阔视野、拓展思路，牢固树立“引入一个龙头带动一个产业”理念，特别是自流井区、荣县本地区要结合自身资源禀赋、比较优势、发展实际，以新业态、新模式、新载体为抓手，以康养重大项目和品牌建设为重点，努力推动我市康养产业高质量发展。', '米易县攀莲镇贤家村是四川百强名村、四川康养村落20强。该村在以贤家新村为中心的康养示范辐射带动下，目前建有集群农家乐及乡村酒店22家，一次性接待能力达2400人以上，康养旅游也成了当地农民家庭收入的重要来源。来到贤家村，李刚一行沿着村道走进农家乐参观，与当地干部群众深入交流，详细了解美丽乡村建设、发展“康养+旅游”等方面的情况。贤家村立足自身优势，统筹推进规划引领、精致建设、村庄经营、产业兴旺，一副“业兴、家富、村美、人和”的美丽乡村画卷，让代表团成员受益匪浅。大家一致表示，我们要在看中学、学中思，尤其要结合自身实际谋划，切实把方向变目标、思路变行动、措施变成果，努力做好“产业强、农民富、农村美”这篇文章，真正让农村成为农民幸福生活的家园、城市居民休闲旅游的乐园。', '考察中，李刚说，此次考察学习既是学习取经之行，也是友谊交流之旅。攀枝花经济社会发展的良好态势特别是在发展“康养+”产业等方面取得的成绩，探索形成了许多好经验好做法，值得自贡学习借鉴。李刚表示，自贡和攀枝花同属四川南向开放的重要节点城市，都是充满“三线建设”印记的热土，地理同域、渊源深厚。当前，两市都处在转型发展、创新发展、跨越发展的关键时期，我们愿与攀枝花一道，坚定以习近平新时代中国特色社会主义思想为指导，深入学习贯彻党的十九届四中全会精神和省委十一届六次全会精神，全面落实省委省政府决策部署，抢抓机遇、携手共进、乘势而上，进一步加强改革创新经验交流互鉴，着力推动重点产业融合发展，共促城市整体转型升级，不断增进两市人民福祉，为推动治蜀兴川再上新台阶作出新的更大贡献。', '贾瑞云代表攀枝花市委、市政府，向自贡市党政代表团考察表示热烈欢迎。他说，近年来，自贡把中央大政方针、省委省政府决策部署和本地实际紧密结合起来，创造性地开展工作，推动全市各项事业取得了新突破、新成效，有许多好做法和成功经验值得攀枝花学习。他表示，自贡市党政代表团莅攀共谋合作发展，既是落实省委“一干多支、五区协同”发展战略的具体实践，也是深化两市传统友谊、推动区域协同发展的务实行动。当前，全省一系列重大交通基础设施项目正在纳入国家规划，这为攀自两地进一步加强联系、深化合作带来了重大机遇，希望双方以此次考察为新的起点，进一步加强交通基础设施、产业发展、民生领域等方面合作，取长补短、互促互进，努力翻开两市携手共进、共同发展的崭新篇章。', '自贡市领导徐其斌、刘敏、杨智艳参加考察学习。攀枝花市领导吴成钢、马晓凤陪同考察。自贡市自流井区、荣县，攀枝花市仁和区、米易县和两市有关部门负责同志参加。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>228</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>何树平率队开展投资促进和考察学习活动</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2019-11-21</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/bdzx/-/articles/11097521.shtml</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['自贡网讯（记者 罗乐）11月18日至20日，市委副书记、市长何树平率队先后前往成都市、河南省南阳市、陕西省西安市、汉中市，开展投资促进和考察学习活动。他强调，全市上下要抢抓全国老工业城市产业转型升级示范区和国家文化出口基地建设机遇，聚焦重点行业，强化产业招商，招引高端项目；加强文旅深度融合，培育新业态新市场，全力推动新旧动能转换，实现产城融合同步升级。', '成都产业投资集团聚焦产业投资、产业地产、产业服务三大核心主业，致力于为建设全面体现新发展理念的城市夯实产业支撑。何树平说，近年来，按照省委“四向拓展、全域开放”战略部署，自贡正加快建设西南（自贡）国际陆港，积极参与“蓉欧+”城市区域合作，着力打造四川南向开放重要门户城市。希望双方深化互信，加强对接，携手促进陆港联运对接，实现资源共建共享。何树平希望我市相关部门要学习借鉴成都的先进理念和做法，结合我市实际组建自贡产业投资集团，充分发挥对资金的放大作用和对产业投资的引导作用，服务自贡本土优质产业项目，推动自贡产业招商实现新跨越。', '荣阳铝业南阳工厂是亚洲最大的铝挤加工厂之一，专业生产建筑装饰铝型材、工业用铝型材及电子产品铝配件。何树平走进冲压、挤压、精加工等生产车间，详细了解企业发展现状和未来规划。他表示，自贡地处川滇黔渝结合部，背靠成都、重庆两个特大城市，区位条件优越，交通环境便捷，市场前景广阔，要素配置齐全。当前，我们坚持把工业转型升级作为突破点，推出一系列因势利导、量体裁衣的招商政策，着力打造一批具有支撑性、引领性的产业集群。诚邀到自贡参观考察、投资兴业，携手开拓西南大市场，助力老工业城市产业转型升级，实现高质量发展。', '何树平还考察了西安市曲江新区大唐不夜城项目和汉中市兴汉胜境文旅项目。他指出，他山之石可以攻玉。千年盐都历史悠久、人文荟萃，文旅资源先天富集，但在深挖底蕴、整合利用上下的功夫还不够深，亟待打造一批高端化精品化特色文旅产品，努力实现“盐龙灯食”整体塑形，不断拓展文旅产业版图。下一步，要聚焦明年灯会运营筹备和“釜溪夜游”项目升级改造，推动文化、演艺与旅游跨界融合。要精心谋划，匠心营造，升级营销，创新模式，聚焦灯彩创意和城市亮化，让灯城夜景更迷人，吸引更多朋友走进自贡、了解自贡，拉动旅游消费，为我市加快建设独具特色的国际文化旅游目的地增添后劲。', '市委常委、高新区党工委书记张邦举，市政协副主席杨玉康，市政府秘书长杨斌分别参加相关投资促进和考察学习活动。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>228</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>全力推动新旧动能转换实现产城融合同步升级何树平率队在川豫陕开展投资促进和考察学习活动</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2019-11-22</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/zgszfb/dep_gzdt/-/articles/11105034.shtml</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['全力推动新旧动能转换 实现产城融合同步升级 何树平率队在川、豫、陕开展投资促进和 考察学习活动 - 工作动态 - 自贡市人民政府办公室', '全力推动新旧动能转换 实现产城融合同步升级 何树平率队在川、豫、陕开展投资促进和 考察学习活动', '自贡网讯（记者 罗乐）11月18日至20日，市委副书记、市长何树平率队先后前往成都市、河南省南阳市、陕西省西安市、汉中市，开展投资促进和考察学习活动。他强调，全市上下要抢抓全国老工业城市产业转型升级示范区和国家文化出口基地建设机遇，聚焦重点行业，强化产业招商，招引高端项目；加强文旅深度融合，培育新业态新市场，全力推动新旧动能转换，实现产城融合同步升级。', '成都产业投资集团聚焦产业投资、产业地产、产业服务三大核心主业，致力于为建设全面体现新发展理念的城市夯实产业支撑。何树平说，近年来，按照省委“四向拓展、全域开放”战略部署，自贡正加快建设西南（自贡）国际陆港，积极参与“蓉欧+”城市区域合作，着力打造四川南向开放重要门户城市。希望双方深化互信，加强对接，携手促进陆港联运对接，实现资源共建共享。何树平希望我市相关部门要学习借鉴成都的先进理念和做法，结合我市实际组建自贡产业投资集团，充分发挥对资金的放大作用和对产业投资的引导作用，服务自贡本土优质产业项目，推动自贡产业招商实现新跨越。', '荣阳铝业南阳工厂是亚洲最大的铝挤加工厂之一，专业生产建筑装饰铝型材、工业用铝型材及电子产品铝配件。何树平走进冲压、挤压、精加工等生产车间，详细了解企业发展现状和未来规划。他表示，自贡地处川滇黔渝结合部，背靠成都、重庆两个特大城市，区位条件优越，交通环境便捷，市场前景广阔，要素配置齐全。当前，我们坚持把工业转型升级作为突破点，推出一系列因势利导、量体裁衣的招商政策，着力打造一批具有支撑性、引领性的产业集群。诚邀到自贡参观考察、投资兴业，携手开拓西南大市场，助力老工业城市产业转型升级，实现高质量发展。', '何树平还考察了西安市曲江新区大唐不夜城项目和汉中市兴汉胜境文旅项目。他指出，他山之石可以攻玉。千年盐都历史悠久、人文荟萃，文旅资源先天富集，但在深挖底蕴、整合利用上下的功夫还不够深，亟待打造一批高端化精品化特色文旅产品，努力实现“盐龙灯食”整体塑形，不断拓展文旅产业版图。下一步，要聚焦明年灯会运营筹备和“釜溪夜游”项目升级改造，推动文化、演艺与旅游跨界融合。要精心谋划，匠心营造，升级营销，创新模式，聚焦灯彩创意和城市亮化，让灯城夜景更迷人，吸引更多朋友走进自贡、了解自贡，拉动旅游消费，为我市加快建设独具特色的国际文化旅游目的地增添后劲。', '市委常委、高新区党工委书记张邦举，市政协副主席杨玉康，市政府秘书长杨斌分别参加相关投资促进和考察学习活动。']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>228</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>李刚率队赴北京辽阳开展投资促进和考察学习活动</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2019-11-11</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/bdzx/-/articles/11043177.shtml</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['李刚率队赴北京、辽阳开展投资促进和考察学习活动 - 自贡资讯 - 自贡市政府网站集约化平台', '自贡网讯 （记者 廖蓝蕾 陈凡逸）11月6日至8日，市委书记李刚率队前往北京市、辽宁省辽阳市，围绕加快推动城市转型、产业升级，整体提升区域发展能级水平，分别开展投资促进和考察学习活动。市委副书记、市长何树平参加在京的投资促进活动。辽阳市委书记王凤波陪同考察学习。', '中国化工集团有限公司是中国最大的化工企业，今年9月，我市与中国化工集团在成都签订关于建设化工新材料产业基地的战略合作协议，目前双方正在积极推动项目建设。来到中国化工集团，李刚同集团总经理杨兴强就继续细化落实已签署的战略合作协议，加快化工新材料产业基地项目建设，开展工作会谈。李刚首先代表市委、市政府对中国化工集团给予自贡经济社会发展的关注和支持表示感谢。他说，自贡近年来坚持高端切入，全力打造新材料产业集群，持续深化与中国化工集团的合作，在新材料领域取得了丰硕合作成果。当前的自贡，正值转型突破、追赶跨越的关键时期，大力发展新材料、推进产业升级，对自贡振兴发展具有重要意义，真诚希望携手中国化工集团合作共建国内一流、行业领先、独具特色的化工新材料产业基地，携手开创优势互补、区域合作共赢发展新局面，我们将始终把政府的服务效能与企业的发展效益有机结合起来，形成助推自贡发展、企业发展的强大合力，共同创造新的合作成果。杨兴强对自贡市委、市政府给予集团下属企业在自贡发展的重视和支持表示感谢，并表示中国化工集团高度重视与自贡的深化合作，将立足现有良好合作基础，抢抓机遇、加强对接，不断丰富合作内涵、完善合作机制、拓展合作领域，实现互利共赢发展。', '国家对外文化贸易基地（北京）是文化和旅游部与北京市合作共建的国家级对外文化贸易服务平台，基地由北京市文化投资发展集团的全资子公司北京文投国际控股有限公司投资建设和运营管理。我市与该基地同属全国首批国家文化出口基地，双发合作空间无限、潜力巨大。来到国家对外文化贸易基地，李刚一行在北京市文化投资发展集团总经理徐哲、北京文投国际控股有限公司总经理卢海红的陪同下，参观考察了基地运管、规划以及入驻重点企业发展情况，并出席自贡?北京国家文化出口基地战略合作协议签约仪式并见证签约。根据《协议》，我市与北京文投国际控股有限公司在产业高端规划、优选项目互荐、国际交流合作、文旅产业融合、文旅消费升级、文旅企业扶持等方面开展合作，实现共赢发展。在京期间，李刚还会见了中国旅游集团有限公司董事、党委副书记吕友清一行，就助推自贡旅游及相关产业转型升级和创新发展建设，加快国际文化旅游目的地，深入交换意见。', '辽宁省辽阳市是东北地区建置最早的城市，是全国重要的芳烃及精细化工产业基地和全国知名的工业铝材深加工产业基地，近年来按照“绿色环保、生态宜居、舒适便捷、古城特色”目标，全面提升城市规划、建设、管理水平，正在全面建设智慧文明美丽幸福新辽阳。自贡历史文化悠久、产业基础雄厚，是全国首批、四川唯一的老工业城市产业转型升级示范区、国家文化出口基地，当前正奋力建设城乡一体繁荣幸福新自贡。两地文脉相通、产业相近，有着广阔的互鉴交流和战略合作空间。', '在辽阳期间，李刚一行在王凤波等的陪同下，先后前往北环公交首末站、东京城遗址公园、河东新城公交枢纽、罗大台镇蒋家湾村、西大窑镇“燕州小镇”、冮官窑博物馆等处，考察学习辽阳城市公共交通场站和公交枢纽建设、历史文化遗迹保护利用、美丽乡村和特色小镇建设、流域生态治理等。李刚说，此次考察学习既是学习取经之行，也是密切交流之旅。辽阳经济社会发展的良好态势特别是在建设现代公共交通、推动乡村振兴、生态环境保护、发展文化产业等方面的取得的成效，给我们留下了深刻印象，并探索出了很多好经验好做法，对自贡具有积极借鉴意义。李刚表示，当前，自贡正着力擦亮全国老工业城市产业转型升级示范区、国家文化出口基地这两块“金字招牌”，立足于地处成渝经济区中心地带的特殊区位，主动融入国家全面开放新格局，全力打造航空与燃机、节能环保装备制造、新材料、新一代电子信息等千亿级产业集群和四川南向开放重要门户，老工业城市自贡正迎来转型升级的黄金发展期，焕发出新的生机和活力。我们真诚希望与辽阳越走越近、越走越亲，在城市建设、产业升级、文化旅游等方面深化沟通交流、互相取长补短，促进两地更深层次全面对接、更高水平联动发展。王凤波对李刚一行到辽阳考察表示欢迎。他说，在今后的工作中，辽阳将积极与自贡加强互动交流，在各领域各方面互相学习借鉴，携手迈向高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>228</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>加强学习交流促进自身管理自贡市盐业历史博物馆组织管理人员赴邓小平故居陈列馆安岳石刻考察学习</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2018-04-16</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/swgxj/-36/-/articles/8569825.shtml</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['加强学习交流 促进自身管理——自贡市盐业历史博物馆组织管理人员赴邓小平故居陈列馆、安岳石刻考察学习 - 文化遗产 - 自贡市政府网站集约化平台', '加强学习交流 促进自身管理——自贡市盐业历史博物馆组织管理人员赴邓小平故居陈列馆、安岳石刻考察学习', '为学习先进博物馆的管理经验，加强与各文博单位的交流学习，4月12日—13日，自贡市盐业历史博物馆副书记、副馆长周翠微带队，办公室、研究部、文物保管部、陈列部、宣教部、保卫科等部门负责人赴邓小平故居陈列馆、安岳石刻考察学习。', '首先，盐博馆一行来到邓小平铜像广场，怀着崇敬的心情向邓小平铜像敬献了花篮，表达缅怀之情。随后，盐博馆一行考察了“邓小平故居陈列馆”“邓小平缅怀馆”“邓小平同志故居”。最后，在接待厅，邓小平故居陈列馆馆长彭备军和盐博馆一行就博物馆组织管理、科学研究、陈列展览、教育活动、文创产品开发等进行了全面而深入的座谈交流。', '13日，在安岳县文物管理局副局长漆虎兵、唐文军的陪同下，盐博馆一行考察了全国重点文物保护单位圆觉洞、毗卢洞、华严洞，了解了安岳石刻重要的艺术价值、历史价值和科学价值，并考察了安岳石刻监控室。双方就石刻艺术、文物保护、藏品管理、安全保卫等进行了深入交流。', '此次考察学习，促进了文博单位之间的业务交流和技能学习，在科学研究、陈列展览、教育活动、文物保护、综合管理、文创产品开发等方面启迪了思路，将推动盐博馆各项事业向更高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>228</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>区长杨斌率队赴成都市考察学习农业产业推进理念和方法</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2018-04-19</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.zgda.gov.cn/gzdt/-/articles/8556026.shtml</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['区长杨斌率队赴成都市考察学习农业产业推进理念和方法 - 工作动态 - 大安区人民政府', '为深入贯彻落实习近平总书记来川视察重要讲话和中央一号文件精神，谋划推进大安区田园综合体等新型产业发展模式，4月17日至18日，大安区委副书记、区长杨斌率队赴成都市考察学习都江堰市禹王村和郫都区白云村、战旗村等地农业产业推进理念和方法，并对考察人员现场提出工作要求。 在都江堰市胥家镇“拾光山丘”项目和天马镇玫瑰花溪谷现场，都江堰市委副书记李长文一行介绍了都江堰市创建国家级田园综合体示范区的先进经验和工作方法，并全程陪同考察介绍。 杨斌指出，都江堰市的先进经验是城乡一体化发展中值得推广的新机制和新路径。杨斌要求，全区上下要以这次考察学习为新的起点，不断推进我区农业向现代化方向发展。要筑牢产业基础，产业兴旺是乡村振兴战略的首要目标，要千方百计发展好产业，不断探索一二三产业结合点，使一产业真正“接二连三”，实现三次产业的深度融合和协同发展。要重视市场导向，市场消费是检验项目成败的“试金石”，要时刻了解市场需求动态，适当引进工商资本助推产业，密切对接市场，确保通过产业发展，提高农民收入水平和幸福感。 在郫都区人大常委会副主任辛建平陪同下，杨斌一行认真考察学习了战旗村、青杠树村和白云村涉农项目的经营理念和日常管理等内容。杨斌要求，要突出各项工作的政策导向。中央一号文件等中省市区“三农”文件是做好农业工作的指南。相关单位人员特别是负责同志要通过多种形式学习领会和贯彻落实文件精神，将上级文件精神同大安区资源禀赋、发展现状和中长规划结合起来，切切实实以行动促落实，以落实促发展。 大安区委副书记、区政府常务副区长余泓，大安区人大常委会副主任陈明弟，区政府副区长刘勇及相关区级部门和乡镇主要负责人参加考察学习。', '在都江堰市胥家镇“拾光山丘”项目和天马镇玫瑰花溪谷现场，都江堰市委副书记李长文一行介绍了都江堰市创建国家级田园综合体示范区的先进经验和工作方法，并全程陪同考察介绍。 杨斌指出，都江堰市的先进经验是城乡一体化发展中值得推广的新机制和新路径。杨斌要求，全区上下要以这次考察学习为新的起点，不断推进我区农业向现代化方向发展。要筑牢产业基础，产业兴旺是乡村振兴战略的首要目标，要千方百计发展好产业，不断探索一二三产业结合点，使一产业真正“接二连三”，实现三次产业的深度融合和协同发展。要重视市场导向，市场消费是检验项目成败的“试金石”，要时刻了解市场需求动态，适当引进工商资本助推产业，密切对接市场，确保通过产业发展，提高农民收入水平和幸福感。', '在郫都区人大常委会副主任辛建平陪同下，杨斌一行认真考察学习了战旗村、青杠树村和白云村涉农项目的经营理念和日常管理等内容。杨斌要求，要突出各项工作的政策导向。中央一号文件等中省市区“三农”文件是做好农业工作的指南。相关单位人员特别是负责同志要通过多种形式学习领会和贯彻落实文件精神，将上级文件精神同大安区资源禀赋、发展现状和中长规划结合起来，切切实实以行动促落实，以落实促发展。 大安区委副书记、区政府常务副区长余泓，大安区人大常委会副主任陈明弟，区政府副区长刘勇及相关区级部门和乡镇主要负责人参加考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>228</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>市文广新局参加立法考察学习</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2018-05-28</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/swgxj/dep_gzdt/-/articles/8726026.shtml</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['5月22至24日，市文广新局参加了自贡市人大常委会组织的赴巴中立法考察学习。重点学习巴中市在开展地方立法工作方面的做法和经验，尤其是在历史文化保护方面所制定的具体立法项目及制定过程。学习考察组实地参观了巴中将帅碑林、川陕博物馆、国保单位南龛石窟等红色革命文物，与巴中市相关部门进行了座谈交流，听取了巴中市人大常委法工委、市法制办介绍立法工作情况，巴中市文广新局介绍《巴中市红军文物保护条例》实施情况及效果。', '之后，学习考察组还专程到四川省人大常委会，听取了省人大法工委对《自贡市井盐历史文化遗迹保护条例（草案）》的修改意见和指导。自贡市文广新局将认真贯彻省人大常委会的指导意见，结合在巴中学习到的立法工作经验和方法，在市人大常委会的领导下，对条例修改完善，争取早日出台条例，实施好、保护好我市独具特色的井盐历史文化遗迹。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>228</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>市卫生计生委赴泸州考察学习卫生计生工作</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2018-04-05</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/swsjsw/-5/-/articles/8492173.shtml</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['市卫生计生委赴泸州考察学习卫生计生工作 - 行业动态 - 自贡市政府网站集约化平台', '近日，市卫生计生委党委书记、主任黄麟率队赴泸州市考察学习卫生计生工作。考察组一行现场参观了合江县人民医院及部分基层医疗机构，就基层卫生机构能力建设、人才队伍建设、全民预防保健、健康扶贫等工作进行交流学习。黄麟主任总结指出，泸州市全民预防保健工作经验全省推广，基层卫生能力建设提档升级，远程诊疗系统市、县、乡、村四级全覆盖，卫生计生整体水平较高，发展迅速。他要求各区县认真学习借鉴，一是积极争取党委政府重视，完善发展政策和工作机制；二是要协调部门支持，强化财政保障和人才支撑；三是要实施多形式建设，提升服务能力和管理水平。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>228</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>我市赴上海考察学习公立医院改革经验</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2018-03-26</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/swsjsw/-5/-/articles/8448971.shtml</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['近日，市政府副市长李世宏率队赴上海申康医院发展中心考察学习公立医院运营管理和改革发展经验，并开展招商引资工作。考察组一行先后考察了上海申康医院发展中心、上海市第十人民医院及上海市瑞金康复医院，听取公立医院运营管理、医改工作推进、医学专业学科建设等介绍，就建立现代医院管理制度、公立医院改革发展、医院学科、人才队伍和信息化建设等进行交流座谈。通过考察学习，进一步解放思想，启发思路，坚定我市公立医院改革发展信心。']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>228</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>富顺县委副书记万春霞带队赴成都考察学习</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2018-03-27</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://www.fsxzf.gov.cn/-2/-/articles/8451139.shtml</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['3月26日，县委副书记万春霞率县投资促进局、县发改局、县经科信局等相关部门负责人赴武侯区考察学习产业规划和招商引资工作。考察组认真听取了武侯区关于产业规划、招商引资工作等方面的情况介绍。', '考察组一致认为武侯区产业规划定位准确、思路清晰、有前瞻性，具有较强的可操作性,招商引资工作产业导向明确、措施有效，具有很强的可借鉴性。我县将认真总结这次考察学习经验，将好的思路、经验和做法运用到富顺的招商引资实际工作中，助推富顺经济社会发展。']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>228</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>高新区管委会副主任代朴赴遂宁市船山区农贸市场专题考察学习</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2018-03-26</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>http://www.zggx.gov.cn/dep_gzdt/-/articles/8444515.shtml</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['高新区管委会副主任代朴赴遂宁市船山区农贸市场专题考察学习 - 高新动态 - 自贡高新技术产业开发区管理委员会', '高新区管委会副主任代朴带队赴遂宁市船山区农贸市场专题考察学习。代朴一行实地考察了蜀中农贸市场及南津桥农贸市场，并就农贸市场的建设规范、管理模式、运营经验等与遂宁市船山区相关部门进行了座谈交流。高新区运行局、高新城管大队、高新工商分局、各街乡及农贸市场负责人陪同考察。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>228</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>贡井区地方志办公室到威远县考察学习地方志工作</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2018-03-13</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>http://www.gj.gov.cn/gzdt/-/articles/8387623.shtml</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['为做好《贡井年鉴（2018）》编纂工作，提升贡井区地方志工作水平，3月9日，区档案局局长、地方志办公室主任胡红宇率年鉴编辑部一行8人赴威远县考察交流，学习借鉴威远县地方志工作，特别是年鉴编纂、村史馆建设、地情资料挖掘等方面的经验做法。 威远县是全国首批年鉴试点县，《威远年鉴》已连续出版7卷，先后获全国年鉴编校质量评比一等奖、省地方志优秀成果一等奖。考察组先后参观了四方村陈列馆和威远知青纪念馆，详细了解了当地村史馆建设、地情资料挖掘等方面的工作经验。在威远县史志办会议室，双方就打造精品年鉴、挖掘地方历史文化资源、围绕中心参政议政等方面进行了深入交流和广泛探讨。 通过实地考察和交流学习，考察组全体人员纷纷表示，将借鉴威远县的经验做法，围绕推进2018年贡井区地方志工作目标要求，以年鉴编纂为重点，大力开发贡井区地方志资源，充分发挥地方志工作存史、资政、育人的作用，更好地为加快建设繁荣幸福美丽新贡井服务。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>228</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>贡井区地方志办到威远县考察学习</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2018-03-13</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sdfzb/dep_gzdt/-/articles/8388563.shtml</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['2018年3月9日，贡井区地方志办公室主任胡红宇率年鉴编辑部一行8人赴威远县，考察学习威远县地方志工作，特别是在年鉴编纂、村史馆建设、地情资料挖掘等方面的经验做法。', '，贡井区地方志办公室主任胡红宇率年鉴编辑部一行8人赴威远县，考察学习威远县地方志工作，特别是在年鉴编纂、村史馆建设、地情资料挖掘等方面的经验做法。', '威远县是全国首批年鉴试点县，《威远年鉴》已连续出版7卷，先后获全国年鉴编校质量评比一等奖、省地方志优秀成果一等奖。考察组先后参观了该县四方村陈列馆和知青纪念馆，详细了解当地村史馆建设、地情资料挖掘等方面的工作经验。在威远县史志办会议室，双方就打造精品年鉴、挖掘地方历史文化资源、围绕中心提供服务等方面进行了深入交流和广泛探讨。', '通过实地参观和交流学习，考察组全体人员一致认为，威远县的经验做法值得借鉴，2018年的地方志工作目标要以年鉴编纂为重点，大力开发地方志资源，充分发挥地方志存史、资政、育人的作用，更好地为加快建设繁荣幸福美丽新贡井服务。']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>228</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>教育和体育局局长周耘市委编办主任邹传红带队前往成都市教育局考察学习</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2018-03-23</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>http://www.zggx.gov.cn/dep_gzdt/-/articles/8437009.shtml</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['教育和体育局局长周耘、市委编办主任邹传红带队前往成都市教育局考察学习 - 高新动态 - 自贡高新技术产业开发区管理委员会', '3月22日，教育和体育局局长周耘、市委编办主任邹传红带队赴成都市教育局考察学习。高新区管委会副主任甘刚，高新区人力资源局、基教中心、财政金融局相关人员随队考察学习。考察组先后参观了川大附中西区学校和天府七中，学习借鉴现代学校制度建设和“两自一包”学校管理体制改革方面的先进经验。通过考察，助推自贡市、高新区教育改革发展。']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>228</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>自贡市机关事务管理局赴宜宾乐山市考察学习节约型公共机构示范单位创建工作</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2018-03-05</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/zgszfb/dep_gzdt/-/articles/8353010.shtml</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['自贡市机关事务管理局赴宜宾、乐山市考察学习节约型公共机构示范单位创建工作 - 工作动态 - 自贡市人民政府办公室', '，市机关事务管理局组织市卫生计生委、市项目代建中心、区县机关事务管理部门及我市4家创建示范单位的分管领导和经办人员等一行20人，赴宜宾市、乐山市考察学习节约型公共机构示范单位创建工作。', '考察组一行实地考察学习了宜宾市第四中学、第三人民医院和乐山市精神卫生中心，在创建国家节约型公共机构示范单位中开展节能技改、节能宣传、节能制度建设等相关工作情况，重点考察了能耗监控平台、', '空气源热泵热水系统、雨水收集及中水回收等节能改造项目实施及投资效益情况。与会人员就创建工作主要做法、创新合同能源管理实施模式破解节能改造项目资金投入瓶颈等进行了详尽、细致的座谈交流。', '下一步，我局将组织市第三人民医院、人民银行自贡市中心支行、市妇幼保健院、荣县人民医院等创建示范单位和区县机关事务部门，认真学习借鉴宜宾市、乐山市成功做法和先进经验，全力推进我市“绿色机关”暨节约型公共机构创建工作。']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>228</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>雷波县到荣县考察学习蔬菜产业工作</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2018-02-05</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>http://www.rongzhou.gov.cn/xwfb/-/articles/8230358.shtml</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['1月24日，雷波县考察团到荣县考察学习交流蔬菜产业管理经营模式。县委副书记彭长林等参加考察。 雷波县考察组一行先后走访参观四川大农和农业开发公司乐德镇回龙殿村大棚蔬菜种植、南华村稻虾养殖现场，并详细听取情况介绍，深入了解荣县土地流转，农业龙头企业的带动作用、订单农业运营模式、专业合作社等情况。 座谈会上，双方就如何办好专业合作社，实现农民增收致富，塑造好农业品牌，发展乡村旅游等方面，进行深入交流。考察团表示，将通过学习借鉴荣县经验，结合雷波县的实际发展蔬菜产业，希望与荣县在蔬菜产业方面开展合作。（刘瑞/文）']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>228</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>找差距补短板外出考察学习</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2018-01-11</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/scxglzfj/dep_xwfb/-/articles/8124512.shtml</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['为推进城管环卫环境保护治理，加强环卫机械化清扫保洁及洒水降尘力度，1月4日至5日，自贡市城乡管理行政执法局副局长刘其明率领高新区财政局、城管执法大队和环卫站前往乐山、泸州兄弟城市考察学习环境污染治理、环卫机械化、市场化工作和经费测算、保障等先进做法和经验。 考察组一行先后深入乐山和泸州市主街大道、公厕、垃圾转运站等重点区域实地查看市容环境卫生治理、综合清扫保洁、垃圾收运、公厕管护等环卫作业及市场化服务情况。分别在乐山和泸州市城管局召开了座谈会，考察组一行认真听取了两个兄弟单位对各自城市管理经验和情况介绍，并对市容环境卫生治理、环卫机械化清扫保洁率、环卫市场化运行的推进情况进行了深入交流和探讨。 实地考察和座谈交流后，刘其明副局长指出，泸州市今年成功创建为全国文明城市，城管管理系统完善，环卫机械化作业标准高、效果好，为自贡市城市管理和环卫工作提供了非常好的经验参考，我们应该深该认识到当前的不足和短板，积极学习借鉴乐山和泸州的先进管理经验，尽快找出差距和解决办法，形成相关报告上报高新区管委会和自贡市城管局，为推进高新区环卫市场化改革和垃圾收运体系建设作好论证，提升环卫机械化作业水平，完善城市治理能力。']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>228</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>富顺县到自流井区考察学习工业园区建设</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2017-12-28</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>http://www.zlj.gov.cn/gzdt/-/articles/8094207.shtml</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['12月27日，富顺县委副书记、县长曹友良率队到自流井工业园区考察学习。区委副书记、区长黄志勇，区委常委、统战部部长、工业园区党工委书记邹宏陪同考察。 考察组实地参观了“一带一路”对外开放中心和中小企业园建设情况，详细了解了自流井区工业园区规划、项目建设等方面的情况，并就园区建设进行了交流沟通。']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>228</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>区交警大队长余福平带队前往宜宾市交管三大队考察学习公安交通稽查布控工作</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2017-12-14</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>http://www.zgda.gov.cn/gzdt/-/articles/8013636.shtml</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['区交警大队长余福平带队前往宜宾市交管三大队考察学习公安交通稽查布控工作 - 工作动态 - 大安区人民政府', '为确保公安交通集成指挥平台缉查布控系统高效运行，进一步保障辖区道路交通安全稳定。12月6日，大队长余福平率秩序中队中队长彭亮、监控指挥中心主任王莉、牛佛中队中队长丁一及民警欧昂一行前往宜宾市公安交警直属三大队交流学习公安交通集成平台查缉布控系统操作。 期间，宜宾市交管三大队大队长陈勇详细介绍了集成指挥平台安全带识别系统的识别原理、识别效率、系统成本等情况；双方交流了各自公安交通集成指挥平台应用情况，包括平台的操作流程、执法站点的设置及目前的拦截情况。随后，大队长余福平还特地了解了黄标车入城布控的具体操作情况。 听取介绍后，大队长余福平表示：表示今后要加强沟通交流、紧密联系，相互学习、共同进步。回去后将把“宜宾经验”用好、用活、用精，力争使大队稽查布控工作实现一次“质”的突破，为地方经济建设发展提供安全、畅通、和谐的道路交通环境。']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>228</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>自贡市社保局赴成都市考察学习综合柜员制先进经验</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2017-12-01</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/ssbj1/dep_gzdt/-/articles/7944511.shtml</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['自贡市社保局赴成都市考察学习“综合柜员制”先进经验 - 工作动态 - 自贡市政府网站集约化平台', '为进一步提升我市社保服务水平，做好启动“综合柜员制”业务经办模式的试点工作，近日，自贡市社保局局长刘东荣率分管局长、相关科室负责人，大安区人社局、社保局相关负责同志，专程赴成都市考察学习“综合柜员制”先进经验。 在学习交流会上，成都市社保局从改革思路、改革路径、重点工作、实现效果四个方面向考察组详细介绍了从产生综合柜员服务模式的想法到大胆探索、最终优化综合柜员制模式等方面的情况。成都市社保局局长王德平与考察组深入交流了启动综合柜员制的探索过程、遇到的难题等。中午，考察组一行来到了成都市社保局办事大厅，一边参观大厅、功能分区、柜台布局及人员设置，一边听取成都市社保局领导的介绍。成都市社保局相关处室负责人针对考察组提出的风险防控、难点问题等做了详细的解说。下午，考察组一行还到金牛区社保大厅进行实地考察学习，就拟启动综合柜员制有关工作进行了沟通交流。 考察学习结束时，考察组一行均表示通过实地考察学习交流，拓宽了思路，学到了知识，下一步将结合自贡实际情况，做足准备工作，确保年底前启动自贡市社保“综合柜员制”试点。（市社保局信息科供稿）']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>228</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>大安区交警大队长余福平带队前往宜宾市交管三大队考察学习公安交通稽查布控工作</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2017-12-14</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>http://www.zgda.gov.cn/gzdt/-/articles/8012926.shtml</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['大安区交警大队长余福平带队前往宜宾市交管三大队考察学习公安交通稽查布控工作 - 工作动态 - 大安区人民政府', '为确保公安交通集成指挥平台缉查布控系统高效运行，进一步保障辖区道路交通安全稳定。12月6日，大队长余福平率秩序中队中队长彭亮、监控指挥中心主任王莉、牛佛中队中队长丁一及民警欧昂一行前往宜宾市公安交警直属三大队交流学习公安交通集成平台查缉布控系统操作。', '期间，宜宾市交管三大队大队长陈勇详细介绍了集成指挥平台安全带识别系统的识别原理、识别效率、系统成本等情况；双方交流了各自公安交通集成指挥平台应用情况，包括平台的操作流程、执法站点的设置及目前的拦截情况。随后，大队长余福平还特地了解了黄标车入城布控的具体操作情况。', '听取介绍后，大队长余福平表示：表示今后要加强沟通交流、紧密联系，相互学习、共同进步。回去后将把“宜宾经验”用好、用活、用精，力争使大队稽查布控工作实现一次“质”的突破，为地方经济建设发展提供安全、畅通、和谐的道路交通环境。', '力争使大队稽查布控工作实现一次“质”的突破，为地方经济建设发展提供安全、畅通、和谐的道路交通环境。']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>228</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>我市水环境综合治理项目工作小组赴广安巴中考察学习</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2018-08-20</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sswj/dep_gzdt/-/articles/9176781.shtml</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['我市水环境综合治理PPP项目工作小组赴广安、巴中考察学习 - 水务要闻 - 自贡市政府网站集约化平台', '根据环保督查对我市污水处理厂提出的新要求，我市立即启动了水环境综合治理PPP项目的前期工作，由于此项目较原有污水处理厂在处理能力和出水水质等方面均有所提高，为学习其他市州在污水处理厂建设工作方面的先进经验， 按照局领导安排，我组五人于15日-17日赴广安市和巴中市考察学习了污水处理建设和运营工作。 在学习过程中，我们听取了广安市水务局和巴中市住建局领导的情况介绍，互相交流了现阶段污水处理工作所取得的工作成效，共同探讨该项工作中存在的困难和解决办法。在为期三天的考察学习中，我们先后参观了广安市广安区白马乡、崇望乡的两个污水处理站和巴中市恩阳区上八庙镇污水处理站，工作组结合我市水环境综合治理PPP项目的进展情况提出了有效的建议。通过借鉴其他市州的先进工作经验，进一步促进我市水环境综合治理PPP项目的建设运营有序开展。']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>228</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>贡井区副区长罗南聪带队赴泸州江阳区考察学习农贸市场创文经验</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2018-08-07</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>http://www.gj.gov.cn/gzdt/-/articles/9044610.shtml</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['贡井区副区长罗南聪带队赴泸州江阳区考察学习农贸市场创文经验 - 政务动态 - 贡井区人民政府', '8月3日，贡井区副区长罗南聪带领区三创办、区农贸市场管理领导小组主要成员及筱溪街农贸市场和青杠林农贸市场业主一行到泸州市江阳区考察学习农贸市场创文经验。 考察组分别深入百子图农贸市场、华丰农贸市场、澄溪口农贸市场现场参观，实地了解了三个农贸市场的政府回租、私人经营等两种模式，现场察看了农贸市场卫生保洁、市场秩序、创文氛围营造情况，深入询问了农贸市场业主的管理制度，了解了不同市场日常管理的经验。 现场听取了陈言局长对江阳区农贸市场日常监管的全面介绍，详细了解了江阳区创文期间农贸市场在目标细化、资金投入、制度建设、职能分工等方面的情况，重点了解了江阳区在创文工作中实行的机关干部包保制和制定的《江阳区农贸市场管理办法》《农贸市场考核办法》的详细内容。 考察结束后罗区长指出，集贸市场创文是其中重要一环，市场业主要强化主体责任，树立主人翁意识。要通过现场学现场看现场访现场问，学习泸州江阳区农贸市场的经验，立即行动起来，查找问题，抓紧整改，掀起比赶超的高潮。']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>228</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>自贡市规划管理局赴成都市及泸州市考察学习投资项目行政审批</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2018-08-29</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/szwfwzx/dep_gzdt/-/articles/9126052.shtml</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['自贡市规划管理局 赴成都市及泸州市考察学习投资项目行政审批 - 工作动态 - 自贡市政府网站集约化平台', '为贯彻落实 “大学习、大讨论、大调研”，持续优化投资项目行政审批服务，2018年6月13日及14日，由自贡市规划管理局副局长王涛带队赴成都市规划管理局及泸州市城乡规划管理局考察学习，局行政审批服务科，城乡规划实施监管科，自流井区及高新区规划管理分局相关人员共同前往。主要就建设项目审批的制度，审批程序，技术规范的运用以及后期监督管理方面的经验进行了深入学习和交流，从本次考察学习中，学习了两城市的创新机制，先进经验，为我局下一步优化行政审批流程，调修《自贡市城市规划管理技术规定》，建立专家委员会制度等提供了依据。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>228</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>我市水环境综合治理项目工作小组赴广安巴中考察学习</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2018-09-07</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sswj/-8/-/articles/9178220.shtml</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['我市水环境综合治理PPP项目工作小组赴广安、巴中考察学习 - 治水兴市 - 自贡市政府网站集约化平台', '根据环保督查对我市污水处理厂提出的新要求，我市立即启动了水环境综合治理PPP项目的前期工作，由于此项目较原有污水处理厂在处理能力和出水水质等方面均有所提高，为学习其他市州在污水处理厂建设工作方面的先进经验， 按照局领导安排，我组五人于15日-17日赴广安市和巴中市考察学习了污水处理建设和运营工作。 在学习过程中，我们听取了广安市水务局和巴中市住建局领导的情况介绍，互相交流了现阶段污水处理工作所取得的工作成效，共同探讨该项工作中存在的困难和解决办法。在为期三天的考察学习中，我们先后参观了广安市广安区白马乡、崇望乡的两个污水处理站和巴中市恩阳区上八庙镇污水处理站，工作组结合我市水环境综合治理PPP项目的进展情况提出了有效的建议。通过借鉴其他市州的先进工作经验，进一步促进我市水环境综合治理PPP项目的建设运营有序开展。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>228</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>资阳市委常委秘书长周燕率队到我区考察学习传统产业转型升级经验和做法</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2018-07-25</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>http://www.zlj.gov.cn/gzdt/-/articles/8995405.shtml</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['资阳市委常委、秘书长周燕率队到我区考察学习传统产业转型升级经验和做法 - 工作动态 - 自流井区人民政府', '7月24日，资阳市委常委、秘书长周燕率队到自流井综合物流园区考察学习我区推动传统产业转型升级的经验和做法。市委常委、统战部部长徐其斌陪同考察，市委副秘书长、市委办公室主任赖平，区政府副区长陶钢参加考察。 周燕一行实地参观了大西洋焊接产业园生产车间，详细了解了我区推动传统产业转型升级的主要做法，现场与企业负责人进行了深入交流。周燕对我区推动传统产业转型升级工作取得的成绩高度赞赏，对大西洋焊接产业园实现焊接生产智能化、自动化，走创新发展、转型升级发展道路给予充分肯定，表示要认真学习我区推动传统产业转型升级工作中的方法和经验，希望两地进一步加强交流合作，推动经济和社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>228</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>大安区委书记张昭国率队赴宜宾市临港经济开发区考察学习</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2018-07-02</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>http://www.zgda.gov.cn/gzdt/-/articles/8891714.shtml</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['大安区委书记张昭国率队赴宜宾市临港经济开发区考察学习 - 工作动态 - 大安区人民政府', '6月27日，大安区委书记张昭国率队赴宜宾市临港经济开发区，实地考察宜宾白酒学院一期、智能终端产业园（朵唯、京龙）、轨道交通产业园等项目建设及产业发展的经验做法。区人大常委会主任钟淳，区政协主席罗旭东等参加考察。 考察大学城及科创城建设 张昭国就开发区招商管理机制、开发建设模式、创新创业以及人才培养等方面工作经验与园区进行了交流学习。 参观智能终端产业园正在与企业（朵唯、京龙）交流 考察轨道交通产业园 考察新能源汽车产业园 通过此次学习交流，大安认识到全区在工业园区规划建设、招商策划以及政务服务等方面在站位、理念和运行模式上的差距。在找到差距的同时，也激发了大安区高标准规划建设大安区张家坝老工业城市转型示范区和自贡牛佛临港重装产业园的热情。为促进两地经验交流，张昭国真诚的邀请开发区领导、企业负责人来大安做客，为大安区老工业城市转型升级传经送宝。', '张昭国就开发区招商管理机制、开发建设模式、创新创业以及人才培养等方面工作经验与园区进行了交流学习。']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>228</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>富顺县组团赴蓬溪考察学习返乡创业工作</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2018-07-11</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>http://www.fsxzf.gov.cn/gzdt/-/articles/8937220.shtml</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['为进一步加快推进返乡创业工作，我县于7月6日组团赴蓬溪县考察学习返乡创业工作。县人社局、县财政局、县就业局、县返乡创业中心等部门参加了本次考察。 上午9时许，考察组一行人来到蓬溪县返乡创业孵化中心详细了解了孵化中心的日常运行管理、各类组织活动、创业企业的生产经营情况，听取了当地有关基本县情、创业联合会的成立过程及背景、组织构架、规章制度、平台构建目的、运行模式、组织开展活动等方面的经验交流，并围绕返乡创业联合会成立前期的费用、成立后的运行经费、管理工作等内容进行了深入探讨。 考察组人员表示，通过此次考察学习，开拓了视野，提高了认识，找到了差距，为助推返乡创业工作收获了更多工作思路，进一步明确了努力的方向。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>228</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>市政府副秘书长赵颖红率队赴广元进行考察学习</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2018-06-22</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/swsjsw/dep_gzdt/-/articles/8855906.shtml</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['市政府副秘书长赵颖红率队赴广元进行考察学习 - 新闻中心 - 自贡市政府网站集约化平台', '6月20日至22日，市政府副秘书长赵颖红率市财政局、人社局、卫计委、医保局以及市属相关医疗卫生单位、各区县卫计局负责人赴广元市，就卫生计生信息化、医养结合、康养产业项目建设进行考察学习。', '考察组分别前往利州区荣山镇卫生院（敬老院）、广元市中医医院万源分院了解了医养结合工作开展情况；深入龙潭镇感受了镇村两级卫生计生信息化建设带来的便利，现场观摩了远程诊疗和“卫计E通”实操。', '在广元市中心医院，考察组重点学习了解了市级和三级综合医院信息平台建设、居民健康卡用卡环境改造等内容，观看了信息系统、健康卡就诊结算等功能展示。', '此外，考察组还实地参观了在建的“广元康养操作示范产业园”项目，听取了康养产业发展方面的经验介绍。', '通过此次考察，各参与单位深受启发，进一步坚定了大力实施好卫生计生信息化保障工程，加快发展我市康养产业的信心和决心。']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>228</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>县政协副主席赖照华带队赴邛崃市考察学习</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2018-06-21</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>http://www.fsxzf.gov.cn/gzdt/-/articles/8847677.shtml</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['月20日，县政协副主席赖照华带领县政协经济委、县经科信局、县财政局、县环保局、县国土局相关人员到邛崃市考察学习酒业园区建设情况，现场参观了大梁酒庄、古川酒业，然后在古川酒业会议室召开座谈会，邛崃市政协、市经信局相关领导参加了座谈，会上讨论了邛酒产业发展，园区规划，土地指标等一系列问题，以及政府出台的扶持政策等，为我县如何建设好酒业园区提供了很好的建议意见。']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>228</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>眉山市司法局到我市考察学习司法行政指挥中心建设工作</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2018-06-22</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/zgssfj/dep_xwfb/-/articles/8857022.shtml</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['眉山市司法局到我市 考察学习司法行政指挥中心建设工作 - 新闻发布 - 自贡市政府网站集约化平台', '6月12日，眉山市司法局副局长叶忠文等一行14人到我市考察学习司法行政指挥中心建设工作，市司法局党委副书记伍缨等陪同考察。 考察组先后参观了自贡市公共法律服务中心、司法行政指挥中心及荣县司法行政指挥中心，观看了视频监控、社区定位管理系统、信息化综合平台等重点业务系统演示。在荣县司法局召开的座谈会上，市司法局、荣县司法局详细介绍了市、县司法行政指挥中心建设情况，与考察组就中心建设的有关问题作了充分交流。 近年来，自贡市司法局始终坚持把司法行政指挥中心建设作为推进信息化建设的重点工作，积极采取措施、狠抓落实，取得了初步成效。2015年，按照B级机房技术标准建成数据中心机房，全面完成市、区县机关局域网建设，率先实现从省、市、区县到司法所的四级联通。2016年，完成市、区县机关视频会议系统建设，率先实现四川省司法行政工作平台的全面应用。2017年，全面完成公共法律服务平台试点任务，按司法部、司法厅要求完成市局指挥中心建设。2018年，通过积极争取财政资金等方式，进一步加大指挥中心建设力度，建立“专人+运维公司+运营商+集成服务商”综合管理运维模式，全面推动市、区县司法行政指挥中心建设。 考察组对自贡市司法局、荣县司法局毫无保留地分享司法行政指挥中心工作建设经验表示感谢，认为通过此次考察工作能够互通有无、取长补短，必将有力推进眉山市司法行政指挥中心建设。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>228</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>单鑫主任率队赴成都青白江区考察学习</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2018-06-19</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>http://www.zggx.gov.cn/dep_gzdt/-/articles/8835691.shtml</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['单鑫主任率队赴成都青白江区考察学习 - 高新动态 - 自贡高新技术产业开发区管理委员会', '6月15日，高新区管委会主任单鑫率队赴成都青白江区考察学习先进地区工业园区建设、产业发展方面的先进经验，为加快高新区经济社会发展提供有益借鉴。高新区党政办、发科局、经运局、投促局、环安局、行政审批局、创业服务中心、汇东股份、高新国投主要负责人参加考察活动。 在青白江区，单鑫主任一行首先参观考察了达海产业园、成都积微物联集团股份有限公司、台嘉成都玻纤有限公司，随后与该区有关单位、企业负责人交换了意见，详细了解该区相关产业发展模式、招商引资、政策引导等方面的先进经验和做法，并就产业协同、物流服务、创新创业等方面与该区初步达成战略合作意向。 单鑫主任指出，高新区各有关部门要主动对标寻找差距，尽快将学习成果转化为实际行动，创新工作机制，大力提升工作标准和水平，抓好各项工作的落实，全力加快高新区经济社会发展。']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>228</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>馆际交流升华认识相互学习共同提高自贡市盐业历史博物馆赴泸州博物馆泸县宋代石刻博物馆考察学习</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2018-06-05</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/swgxj/-36/-/articles/8766707.shtml</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['馆际交流升华认识 相互学习共同提高——自贡市盐业历史博物馆赴泸州博物馆、泸县宋代石刻博物馆考察学习 - 文化遗产 - 自贡市政府网站集约化平台', '馆际交流升华认识 相互学习共同提高——自贡市盐业历史博物馆赴泸州博物馆、泸县宋代石刻博物馆考察学习', '5月30日，由自贡市盐业历史博物馆副馆长周瑜昆带队，陈列部，保卫科、信息中心、宣教部、展骥公司等部门负责人赴泸州博物馆、泸县宋代石刻博物馆考察学习。', '上午，自贡市盐业历史博物馆考察组一行来到了泸州市博物馆参观考察。泸州市博物馆陈文馆长带领考察组参观，介绍了该馆新馆建设、展陈设计、安全技防、信息化建设、社教基地建设，及文创产品的开发等相关工作。考察学习组也适时将我馆相关工作情况与其进行了全面深入交流，相互取经，收获颇丰。', '下午，考察组一行又赶往泸县进行考察学习。在泸县文物局郭品武副局长和相关工作人员的陪同下，考察了著名的全国重点文物保护单位屈氏庄园、龙脑桥及新建成的泸县宋代石刻博物馆。大家惊叹于泸县屈氏庄园传统古村落建筑的保存完整；流连于龙脑桥及石刻博物馆中精美的石雕群落，深入了解了泸县宋明龙桥石雕的艺术价值、历史价值和科研价值。泸州的古代石刻保存如此完美，离不开当地文物工作者付出的艰辛和汗水，自贡作为千年盐都，历史文化底蕴深厚，如何更好地保护好自贡文化遗产，引发考察者深思。大家更深刻地认识到习近平总书记“历史文化是城市的灵魂，要像爱惜生命一样保护好城市历史文化遗产”此番话的重要意义。', '此次考察交流学习虽时间紧张，但促进了文博单位之间的业务交流和技能提高，开拓了视野，激活了思路。通过此次综合考察对比，面对面现场交流学习，将有助于推动自贡市盐业历史博物馆各项事业全面蓬勃发展，切实提升盐博馆综合管理水平。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>228</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>馆际交流升华认识相互学习共同提高自贡市盐业历史博物馆赴泸州博物馆泸县宋代石刻博物馆考察学习</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2018-06-04</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/swgxj/dep_gzdt/-/articles/8765077.shtml</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['馆际交流升华认识 相互学习共同提高——自贡市盐业历史博物馆赴泸州博物馆、泸县宋代石刻博物馆考察学习 - 工作动态 - 自贡市政府网站集约化平台', '馆际交流升华认识 相互学习共同提高——自贡市盐业历史博物馆赴泸州博物馆、泸县宋代石刻博物馆考察学习', '5月30日，由自贡市盐业历史博物馆副馆长周瑜昆带队，陈列部，保卫科、信息中心、宣教部、展骥公司等部门负责人赴泸州博物馆、泸县宋代石刻博物馆考察学习。', '上午，自贡市盐业历史博物馆考察组一行来到了泸州市博物馆参观考察。泸州市博物馆陈文馆长带领考察组参观，介绍了该馆新馆建设、展陈设计、安全技防、信息化建设、社教基地建设，及文创产品的开发等相关工作。考察学习组也适时将我馆相关工作情况与其进行了全面深入交流，相互取经，收获颇丰。', '下午，考察组一行又赶往泸县进行考察学习。在泸县文物局郭品武副局长和相关工作人员的陪同下，考察了著名的全国重点文物保护单位屈氏庄园、龙脑桥及新建成的泸县宋代石刻博物馆。大家惊叹于泸县屈氏庄园传统古村落建筑的保存完整；流连于龙脑桥及石刻博物馆中精美的石雕群落，深入了解了泸县宋明龙桥石雕的艺术价值、历史价值和科研价值。泸州的古代石刻保存如此完美，离不开当地文物工作者付出的艰辛和汗水，自贡作为千年盐都，历史文化底蕴深厚，如何更好地保护好自贡文化遗产，引发考察者深思。大家更深刻地认识到习近平总书记“历史文化是城市的灵魂，要像爱惜生命一样保护好城市历史文化遗产”此番话的重要意义。', '此次考察交流学习虽时间紧张，但促进了文博单位之间的业务交流和技能提高，开拓了视野，激活了思路。通过此次综合考察对比，面对面现场交流学习，将有助于推动自贡市盐业历史博物馆各项事业全面蓬勃发展，切实提升盐博馆综合管理水平。']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>228</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>陈张铭带队考察学习家政服务业发展</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2017-12-01</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/guest/gzdt/-/articles/7957403.shtml</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['陈张铭带队考察学习家政服务业发展 - 工作动态、要闻 - 自贡市政府网站集约化平台', '为快速推进我市家政服务业发展，制定促进我市家政服务业发展政策措施。近日，市政府副市长陈张铭率市商务、市人社、市财政等相关人员分别赴眉山市政府、北京金月时代家政有限公司等地考察学习促进家政服务业发展政策措施和大型家政服务业企业运营发展模式。']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>228</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>陈张铭副市长带队考察学习家政服务业发展</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2017-12-01</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/-sswj/dep_gzdt/-/articles/7956235.shtml</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['陈张铭副市长带队考察学习家政服务业发展 - 商务动态 - 自贡市政府网站集约化平台', '为快速推进我市家政服务业发展，制定促进我市家政服务业发展政策措施。近日，市政府副市长陈张铭率市商务、市人社、市财政等相关人员分别赴眉山市政府、北京金月时代家政有限公司等地考察学习促进家政服务业发展政策措施和大型家政服务业企业运营发展模式。']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>228</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>自流井区和谐劳动关系综合试验区创建工作组前往新都区考察学习</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2017-09-15</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>http://www.zlj.gov.cn/gzdt/-/articles/7593420.shtml</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['自流井区和谐劳动关系综合试验区创建工作组前往新都区考察学习 - 工作动态 - 自流井区人民政府', '9月14日上午，自流井区委常委、区政府常务副区长杨光全带队一行15人，到新都区考察交流构建和谐劳动关系综合试验区工作，新都区吴昊副区长带队陪同考察交流。', '交流会上，考察团观看了新都区构建和谐劳动关系成果片，新都区人社局介绍了推进构建和谐劳动关系的基本情况和历程、探索创新的经验成果、下一步重点实践课题等方面的内容。考察团就创建和谐劳动关系综合试验区当前遇到的重点难点问题和总体创建构想与新都区做了交流探讨。最后，杨光全副区长要求，各部门要深入学习新都区创建经验，认真研究我区问题，创新体制机制，高标准加快推进和谐劳动关系综合试验区创建工作。区政府办、区财政局、区住建局、区人社局、区工管委、区总工会、区工商联和区公安分局有关负责同志参加了考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>228</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>海东市气象局一行到富顺考察学习气象为农服务工作</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2017-08-25</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>http://www.fsxzf.gov.cn/gzdt/-/articles/7501117.shtml</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['月24日至25日，青海省海东市气象局业务科科长韩辉福一行到富顺县气象局就“三农”气象服务建设、特色农产品直通式气象服务、部门协调合作机制建设及综合业务平台建设等工作进行业务考察学习。', '考察组一行参观了富顺县东湖镇特种水产养殖气象监测系统和气象台业务系统应用情况，学习了县气象局主要负责人对富顺气象基础业务服务、为农气象服务、气象防灾减灾、气象现代化建设等工作情况介绍，交流了海东市气象局在气象工作好的经验和做法，并对县气象局开展精细化特色农业气象服务工作取得的成绩给予高度评价。']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>228</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>县委常委副县长梁刚率队赴江油市新津县考察学习</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2017-07-26</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>http://www.fsxzf.gov.cn/gzdt/-/articles/7317931.shtml</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['县委常委、副县长梁刚率队赴江油市、新津县考察学习 - 工作动态 - 富顺县人民政府', '7月20日至21日，县委常委、副县长梁刚率考察组赴江油市和新津县考察学习行政审批制度改革的先进经验和做法。梁刚强调，要学习借鉴江油市和新津县的成功经验，下决心动真格，推进行政审批体制改革。 考察组一行先后到江油市和新津县行政审批局等进行实地学习考察，对两地行政审批制度改革的战略布局、规划理念、发展思路和体制机制改革等相关情况进行了深入的了解。 梁刚指出，江油市和新津县的行政审批制度改革的先进经验和做法，值得学习借鉴。富顺将借助此次学习机会，解放思想，抢抓机遇，下决心动真格，结合富顺实际，派专人到新津县行政审批局实地学习，以便推进富顺行政审批制度改革试点工作，从根本上做到简政放权。用新思路、新体制、新机制推动国家、省、市战略在富顺落地生根，切实担负起省、市赋予富顺县的战略重任。梁刚希望今后能继续与两地进一步学习交流，取长补短，切实搞好我县行政审批制度改革试点工作。']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>228</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>自流井区委常委黄敏带队参加贵州省农村合作金融服务体系建设工作考察学习</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2017-06-28</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>http://www.zlj.gov.cn/gzdt/-/articles/7205315.shtml</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['自流井区委常委黄敏带队参加贵州省农村合作金融服务体系建设工作考察学习 - 工作动态 - 自流井区人民政府', '近日，自流井区委常委黄敏带队参加贵州省农村合作金融服务体系建设工作考察学习，并就农村资金互助社建设、运营、风险管控、农村电商、消费合作等方面开展座谈交流。']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>228</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>学习互联网成功经验促企业转型升级荣县考察团赴西秀区考察学习</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2017-06-27</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>http://www.rongzhou.gov.cn/gzdt/-/articles/8038116.shtml</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['学习“互联网+”成功经验 促企业转型升级——荣县考察团赴西秀区考察学习 - 工作动态 - 荣县人民政府', '为贯彻落实县党代会“产业强县、创新兴县”战略要求，着力打造“三个示范区”，积极推动我县“互联网+”工贸企业管理转型升级。6月23日，由县委组织部、农工办、经信局、财政局、农牧业局、商务局等部门相关负责人与驰宇盐化公司、惠友商贸公司、绿茗春茶叶有限公司负责人组成的考察团到安顺市西秀区考察学习企业互联网+转型、大数据应用的情况及成功经验。 首先，考察团一行参观了安顺大数据产业发展中心，详细了解学习大数据平台相关应用知识，以及“互联网+”企业转转型升级的途径流程和内容。在安顺市西秀区政府召开的关于安顺企业“互联网+”转型沟通交流座谈，会上，西秀区政府相关负责人向荣县考察团介绍了当地企业“互联网+”转型升级的具体做法及应用大数据平台的成功经验。双方就本地如何应用大数据服务经济进行了沟通交流。 通过考察学习，考察人员纷纷表示，要认真借鉴安顺市“互联网+”企业转型升级的好做法、好经验，加强我县互联网基础设施建设和数据管理，助推荣县企业经营模式跨越式发展。']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>228</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>自贡局赴泸州市考察学习统计基础建设和统计管理体制改革工作</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2017-06-06</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/stjj/dep_gzdt/-/articles/7108647.shtml</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['自贡局赴泸州市考察学习统计基础建设和统计管理体制改革工作 - 工作动态 - 自贡市政府网站集约化平台', '近日，自贡局组织部分班子成员及相关科室人员前往泸州市考察学习统计基层基础建设和统计管理体制改革试点工作，通过实地参观龙马潭区统计局和罗汉街道统计站、查阅统计基础规范化建设资料，深入了解泸州市在基层统计管理方面的先进做法，并重点就改革试点中县乡统计组织管理体制、统计执法监督、村（居）民委员会统计工作、县级部门统计规范化建设四项重点改革工作与泸州市统计局进行了座谈交流。通过考察学习，真切感受到了泸州市各级高度重视统计基层基础规范化建设，基层统计工作扎实规范，统计管理体制改革试点工作推进有力。 考察组充分认识到自身在统计基层基础建设等方面与泸州市存在较大差距，并对照差距，制定了整改措施。 一是推动全市基层基础规范化建设提档升级。尽快研究制定部门、乡镇、企业基层基础规范化建设实施方案，强化责任落实，力争利用2-3年时间，建立和完善全市基层统计工作基础，逐步建立起具有自贡特色的统计基层基础管理体系，推动全市基层基础规范化建设提档升级。 二是加强学习培训，规范统计基础资料分类整理、归档保存工作。借鉴兄弟市州的先进经验，不断加大统计人员的培训力度，切实提高统计人员的业务能力和工作水平。并进一步加强统计基础资料的分类整理、归档保存等工作，使统计工作标准化、痕迹化，做到各项统计工作规范有序、有档可查，夯实统计工作质量。 三是尽快制定全市统计体制改革试点方案。尽快制定出台全市统计体制改革试点方案。初步建议区县设置基层统计管理办公室，管理基层统计工作；乡镇固化综合统计工作人员，负责乡镇综合统计工作，明确各级、各部门及统计工作人员统计工作职能职责，强化责任意识。设立市县统计执法监督局，加强统计工作执法监督，构建防范和惩治统计造假、弄虚作假的体制机制，提高统计数据真实性。']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>228</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>县商务局赴泸州考察学习农贸市场建设管理先进经验</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2017-06-16</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>http://www.fsxzf.gov.cn/gzdt/-/articles/7156414.shtml</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['为了加快推进我县农贸市场建设工作，县商务局副局长相宋春梅、张大君带领相关股室人员，前往泸洲市城西农贸市场和沙茜农贸市场考察、学习农贸市场建设和管理方面的先进工作经验。', '城西农贸市场负责人就农贸市场建设情况，主要包括农贸市场设计、规划、布局、管理及建设模式、政府对农贸市场相关扶持政策等做了详细介绍，并陪同参观了已完成标准化建设的农贸市场，其先进的建设模式及管理方法让我们受益匪浅，为我县高标准建设示范性农贸市场有极大的启发和借鉴意义。']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>228</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>荣县副县长刘纯忠带队赴贵州安顺考察学习</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2017-06-26</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>http://www.rongzhou.gov.cn/gzdt/-/articles/7922288.shtml</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['为贯彻落实县党代会“产业兴县，新县创新“战略，着力打造全县农业农村改革示范区、成渝经济产业配套示范区、川南文旅融合示范区，积极推动我县“互联网+”工贸企业管理转型升级，6月22日—24日，由副县长刘纯忠带队，县农工委、县经信局、县财政局、县农牧业局的分管领导以及企业负责人一行人到贵州安顺市西秀区考察学习“互联网+转型升级先进工作经验。考察队一行人实地参观了安顺大数据产业发展中心，听取了相关负责同志关于互联网+转型升级情况及成果介绍，参加了安顺企业互联网+转型沟通交流会，并到互联网转型企业如安酒集团、新民食品、百果园等实地走访学习，与企业负责人深入交流，对安顺企业互联网+转型升级有了更全面的了解和认识，同时也促使大家对互联网+有了一个全新的认识，大家一致认为，在以后的工作中，我们一是要解放思想，不能局限于现有思维模式；二是要因地制宜，切忌照搬照抄；三是要鼓励创新，鼓励各企业创新创造，发展出具有自身特色的互联网+管理和操作模式。']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>228</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>曾健带队到杭州高新区滨江考察学习</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2017-05-08</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>http://www.zlj.gov.cn/gzdt/-/articles/6968710.shtml</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['日下午，自流井区委书记曾健带队到杭州高新区（滨江）考察学习。杭州高新区党工委、滨江区委书记詹敏陪同。', '在实地考察高新区（滨江）物联网产业园、海康威视、吉利汽车总部及听取相关情况介绍后，考察组与该区相关部门负责人就园区建设、人才引进培育、产城融合等进行座谈交流。', '曾健书记指出，杭州高新区（滨江）以创新驱动为核心，以人才引进培育为根本，走出的产业引领、优势聚集、产城融合的发展新路值得自流井区学习和借鉴。全区上下要以创新为引领、人才为依托，围绕既定的“三大片区”建设目标，创新实干，开创“两区”建设新局面。']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>228</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>富顺县组队到我县考察学习婚姻登记和免费婚检一站式服务工作</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2017-05-19</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>http://www.rongzhou.gov.cn/gzdt/-/articles/7023804.shtml</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['富顺县组队到我县考察学习婚姻登记和免费婚检一站式服务工作。 - 工作动态 - 荣县人民政府', '5月12日，富顺县舒利彬副县长率县编办、财政局、卫生计生局等部门相关人员到我县考察学习婚姻登记和免费婚检一站式服务工作，舒利彬副县长一行在我县倪志勇副县长、卫生计生局局长谢贵隆陪同下参观了婚检中心、婚姻登记中心，并对我县婚检“一站式”服务流程和运作模式进行了详细了解；听取了谢贵隆局长对我县医疗卫生基本概况、婚检工作开展情况的介绍，并对婚检工作的效果和存在问题进行了深入交流。']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>228</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>荣县县委领导带队到汉源县考察学习</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2017-04-29</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>http://www.rongzhou.gov.cn/gzdt/-/articles/7920756.shtml</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['为推进我县农业（水果）产业发展和农旅深度融合，为拓宽眼界，理清思路，4月26日—27日，由县农工委牵头，县委常委辜林带队，县农牧业局、县林业局、县深改办等部门负责人和留佳镇、新桥镇、古佳乡等乡镇的主要领导一行到汉源县花海果乡考察学习农业产业规划、农旅融合发展先进经验、项目资金整合、引入企业投资经营可持续发展等先进经验。 近年来，汉源县依托资源优势，大力发展生态观光农业，形成了以旅兴农，农旅一体互动发展的良好态势。为了让山区农民脱贫增收致富，建设了百里花果长廊，实现了生态农业和乡村旅游的有机融合，推动了当时水果产业的良性发展，同时也促进了乡村旅游业的快速发展，促农增收。 通过当地负责人的引领和介绍，考察队对花果乡的发产业规划、成功的经验做法都有了更深的了解，大家纷纷表示，我们在未来的农业产业规划、农旅融合发展等方面，一定要更加科学、理性，重点要加强项目资金的整合，突出重点，以点带面式发展。']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>228</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>成都市人防办来我区桥头镇考察学习疏散基地建设工作</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2015-06-17</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/gjq/gzdt/-/articles/5785572.shtml</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['成都市人防办来我区桥头镇考察学习疏散基地建设工作 - 政务动态 - 贡井区人民政府', '6月16日，成都市人防办带领成都各区县人防办到贡井区桥头镇考察学习疏散基地建设工作情况，自贡市人防办、区建住局、桥头镇政府相关人员一起陪同。成都市人防办考察学习组实地考察了桥头镇政府和玉麟村疏散基地建设情况，查看了疏散基地建设相关资料，听取了桥头镇政府对疏散基地建设情况的汇报，详细询问了镇疏散基地建设的细节。成都市人防办考察学习组对贡井区桥头镇疏散基地建设给予高度评价，认为贡井区桥头镇疏散基地建设做到宣传到位，基础数据准确，软件资料整理规范，便件设施达到疏散基地建设标准，值得成都市区县人防办好好学习和借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>228</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>自贡局赴广元考察学习同城快递业务工作</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2016-11-23</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/syzglj/-59/-/articles/5524964.shtml</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['为进一步推动自贡市快递业务均衡发展，近日，自贡局主动学习先进经验，组织考察组赴广元市考察学习同城快递运作模式、快递+特色农产品合作等业务工作。 考察组认真考察了广元同城快递运作模式，对以整合行业内部快递企业资源为突破口，合伙组建同城快递公司开展快递业务进行了深度考察。对合伙公司在业务方面的具体操作模式、收派机制、价格统筹、有序竞争方式等措施进行了详细了解。认为这些举措既整合了行业资源又保障了市场充分竞争，打通了“工业品下乡、农产品进城”的双向通道，有效解决了“快递下乡难”、“农村用邮难”问题，提高了运输效率，降低了运输成本，实现了对现有物流快递资源的高效利用。 考察学习期间，自贡局与广元局详细分析了目前“快递向下”的现状，同城快递推广可能存在的问题与规避的有效路径。双方表示在今后同城快递模式探索这项工作中建立常态化联系机制，及时研究解决同城快递模式探索与推广中存在的问题，共同利用“快递+”推动“快递向下”工程，为四川探索出具有本地特色的可操作、可复制、可推广的同城快递模式。']</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>228</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>市委副书记谭豹带队考察学习城市管理及改革工作</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2016-09-19</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/scxglzfj/dep_gzdt/-/articles/4971732.shtml</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['市委副书记谭豹带队考察学习城市管理及改革工作 - 工作动态 - 自贡市政府网站集约化平台', '9月4日至9月8日，市委副书记谭豹带领市编办、市法制办、市人大法工委、市城乡管理执法局等部门及自流井、富顺县、高新区负责人到深圳、珠海、广州等城市考察学习城市管理和城市执法体制改革工作。']</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A176" t="n">
+        <v>228</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>遂宁市质监局考察组赴我区考察学习</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2015-05-11</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/gjq/gzdt/-/articles/5783865.shtml</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>['5月7日，遂宁市质量技术监督局党组成员、副局长杨春艳带领考察组一行8人，在自贡市质量技术监督局副局长谭家云及相关科室负责人陪同下赴我区考察学习特种设备监管工作经验。考察组认真查阅了我区特种设备档案和相关制度建设，并现场观摩了特种设备注册登记工作流程，听取了我区特种设备监管方面的经验介绍，了解了我区特种设备监管的主要做法。杨春艳副局长对我区特种设备监管工作给予了高度评价并表示，要广泛学习和借鉴贡井区的有效管理经验和做法，不断加强遂宁特种设备的安全监管，深入规范各区县质监局特种设备监管工作。']</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A177" t="n">
+        <v>228</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>攀枝花市东区绵阳市北川县来区考察学习</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2014-09-24</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/zlj/gzdt/-/articles/6232425.shtml</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>['9月10日，攀枝花市东区和绵阳市北川县考察团先后来到我区考察学习旧城改造、房屋征收及规划建设等工作经验。区政府区长张序、常务副区长黄志勇等陪同考察。', '考察组实地参观了东兴寺改造展示大厅、顺龙坝地块改造现场和光凤片区改造展示大厅，对我区在棚户区改造方面取得的成效表示赞赏。在随后召开的座谈会上，我区就棚户区政策落实情况、旧城整体规划、房屋征收等方面经验做了介绍，双方就征收工作的难点问题做了现场交流。考察组表示我区在旧城改造工作中的创新做法和宝贵经验值得学习借鉴，回去后将会把这些经验充分运用到当地的城市改造和区域经济发展当中。', '张序表示，自流井区、东区和北川县均高度重视民生工作，都将棚户区改造作为改善民生、推动经济发展的重要抓手，此次交流活动进一步加深了相互的了解，畅通了沟通渠道，希望以后能继续加强学习和交流，形成长期共赢的合作关系，共同促进区域经济健康发展。']</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A178" t="n">
+        <v>228</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>贡井区考察学习大安义务教育均衡发展工作</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2015-01-13</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/sjyj/dep_jyyw/-/articles/4218251.shtml</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>['贡井区考察学习大安义务教育均衡发展工作 - 教育体育要闻 - 自贡市政府网站集约化平台', '1月9日下午，贡井区人大常委会副主任杨虹一行，到大安区考察学习该区推进义务教育均衡发展工作。大安区人大常委会副主任李孝诚、区教育局副局长刘华贵等陪同考察学习。 考察组一行先后到凤凰学校、江姐中学和何市镇高庙小学实地参观学习，全面查看了学校校容校貌、功能室分布和使用情况、校园特色文化建设等，并向学校校长详细了解推进素质教育和其它特色教育的情况。 考察学习过程中，两区深入交流了对校园文化建设和推进素质教育的体会和感受。考察组对这几所学校整洁优美的校园环境，主题鲜明的文化板块，独具匠心的班级文化和特色鲜明的功能室印象深刻、评价较高。']</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A179" t="n">
+        <v>228</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>沿滩区安监局到我区考察学习</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>2014-03-11</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/daq/gzdt/-/articles/3633175.shtml</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>['近日，沿滩区安监局到我区考察交流安全生产监管工作情况。考察组一行听取了区安监局局长关于我区春节期间安全生产监管工作情况的介绍，并交流了工作经验。随后，考察组到金煌烟花爆竹有限公司听取了该企业介绍，查看了安全生产工作台帐，并到烟花爆竹销售点进行实地考察。考察学习结束后，双方希望进一步加强交流，切实提升两地安全生产监管工作水平。']</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A180" t="n">
+        <v>228</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>沿滩区教育局考察学习大安区义务教育均衡发展创建工作</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>2013-11-22</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/daq/gzdt/-/articles/3629320.shtml</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>['沿滩区教育局考察学习大安区义务教育均衡发展创建工作 - 工作动态 - 大安区人民政府', '11月21日下午，沿滩区教育局副局长卢天庆率股室相关人员一行11人，到大安区考察学习义务教育均衡发展工作以及迎省督导评估验收的工作举措。']</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A181" t="n">
+        <v>228</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>广安市环卫处园林局赴贡井考察学习</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>2014-09-09</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/gjq/gzdt/-/articles/5778558.shtml</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>['8月26日，广安市环卫处和园林局一行5人来我市考察学习环卫市场化工作，尤其是建筑立面、园林绿化、路灯、城市雕塑等公共设施保洁管理方面的管理及做法，自贡市城乡管理行政执法局副局长刘召富、贡井城管执法分局局长刘行军等向客人详细介绍了全市环卫工作及贡井环卫绿化一体化市场化情况，双方进行了广泛交流学习。广安同行对我市环卫近年来发展所取得的成绩表示十分的赞许，并对我区在环卫园林一体市场化工作取得的成绩表现出浓厚的兴趣。双方还就共同心的环卫热点问题进行了探讨，并表示将进一步加强双方在行业动态与信息上的交流。通过本次工作交流，加强了环卫同行间的相互学习了解，增进了友谊，对全区环卫工作也将起到积极的促进作用。']</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A182" t="n">
+        <v>228</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
           <t>荣县考察团考察学习江姐小学乡村少年宫建设</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>2013-10-16</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/daq/gzdt/-/articles/3627933.shtml</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>['10月15日，荣县宣传部副部长包学锋率队，带领荣县新桥小学、鼎新学校、杜佳镇黄大清学校等部分学校班子成员，到江姐小学考察学习乡村学校少年宫项目的建设和运转工作。', '考察团详细了解了该校乡村学校少年宫及未成年人思想道德建设工作的各项做法，以及在教育、教学、安全等管理方面的宝贵经验。考察学习过程中，包学锋一行，对江姐小学尽责敬业、诲人不倦的老师，整洁有序、温馨和谐的校园文化，细致入微、科学有效的日常量化管理等给予高度评价。']</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A183" t="n">
+        <v>228</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>黄敏率队到沿滩区考察学习新村建设产业发展和小城镇建设</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>2013-08-15</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/zlj/gzdt/-/articles/6228900.shtml</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>['黄敏率队到沿滩区考察学习新村建设、产业发展和小城镇建设 - 工作动态 - 自流井区人民政府', '8月13日，黄敏副区长率区农办、区水务局、区农牧林业局及各乡镇主要负责人到沿滩区仙市镇百胜村、瓦市镇田铺村和黄市镇农丰村考察学习新村建设、产业发展和小城镇建设。']</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A184" t="n">
+        <v>228</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
           <t>我区党政代表团赴成都考察学习</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>2012-04-24</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/zlj/gzdt/-/articles/6227947.shtml</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>['为助推"文化自贡"、"三中心一新城"建设，为自流井老街打造提供有益借鉴， 4月18日至20日，由区委书记龙腾鑫、区人大常委会主任陈明仲、区政府区长张序、区政协主席刘茂常等领导率队的自流井区党政代表团赴成都，先后考察了邛崃平乐古镇、大邑安仁古镇、崇州街子古镇和成都宽窄巷子，并与相关领导进行深入交流、座谈。三天时间里，区四大班子领导率队的代表团带着问题，肩担责任，心系发展，看榜样，谈差距，议未来，代表团成员倍感振奋，表示将认真学习领会考察经验，立足岗位助推自流井区跨越发展。', '日，由区委书记龙腾鑫、区人大常委会主任陈明仲、区政府区长张序、区政协主席刘茂常等领导率队的自流井区党政代表团赴成都，先后考察了邛崃平乐古镇、大邑安仁古镇、崇州街子古镇和成都宽窄巷子，并与相关领导进行深入交流、座谈。三天时间里，区四大班子领导率队的代表团带着问题，肩担责任，心系发展，看榜样，谈差距，议未来，代表团成员倍感振奋，表示将认真学习领会考察经验，立足岗位助推自流井区跨越发展。']</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
+      <c r="A185" t="n">
+        <v>228</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
+          <t>自贡市</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
           <t>强规划上品位推进新型城镇化考察学习体会</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>2012-04-27</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>http://www.zg.gov.cn//web/rx/xwfb/-/articles/6677057.shtml</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>['为期5天的浙粤学习考察，开阔了视野、更新了理念，看到先进地区城市建设的大手笔、产业园区的大项目、社会经济的大繁荣、生态环境的大改善，真正感觉和体会到荣县城乡规划建设管理的思想需要再解放，观念需要再更新，视野需要再扩展，水平需要再提升。 有四点体会。一是一个地方的城市规划设计及建设开发理念必须尊重、挖掘、体现当地的历史沉淀、自然风貌、世俗人情和民生需求。荣县要从单纯的城市功能布局转变到优化城市功能、塑造城市特色、打造城市品牌相结合上来，要将开发利用与生态保护、文化传承相结合上来，引入"山水城市"、"生态城市"理念，提炼文化内涵，彰显城市的独特个性。二是要把高起点、前瞻性的规划设计开发理念潜移默化的变为自己的工作自觉，并把这种理念影响干部队伍、灌输干部队伍，强化干部队伍城市意识、城市认识、城市规划与建设的培训，提高干部队伍加速推进城镇化进程的信心、决心和耐心。三是城市是产业发展的载体，要坚持产城一体、产城共荣的理念，强化城市对产业的服务功能，增强产业对城市的支撑作用，使产业发展与城市建设、城市环境相辅相成、相互促进、相互推动、相得益彰。四是要因地制宜，高水平、充满智慧的实施荣县近期城市改造项目。在荣县"两河四岸"城市景观工程、大佛4A旅游景区佛文化建设、东川水河道人工湿地工程、老城棚户区改造等项目中，要将执政理念、未来憧憬、价值取向融入其中，不断优化城市功能，满足人的需要，提升城市形象。']</t>
         </is>
